--- a/DayAhead Heat DR.xlsx
+++ b/DayAhead Heat DR.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
   <si>
     <t>交流负荷</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>中品位热功率</t>
-  </si>
-  <si>
-    <t>低品位热功率</t>
   </si>
   <si>
     <t>期望热功率</t>
@@ -459,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,11 +544,8 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -634,13 +628,10 @@
         <v>3562.49850909091</v>
       </c>
       <c r="AB2">
-        <v>765.2875806060606</v>
-      </c>
-      <c r="AC2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -723,13 +714,10 @@
         <v>3589.49850909091</v>
       </c>
       <c r="AB3">
-        <v>770.6875806060606</v>
-      </c>
-      <c r="AC3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -812,13 +800,10 @@
         <v>3616.49850909091</v>
       </c>
       <c r="AB4">
-        <v>776.0875806060607</v>
-      </c>
-      <c r="AC4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -901,13 +886,10 @@
         <v>3643.49850909091</v>
       </c>
       <c r="AB5">
-        <v>781.4875806060606</v>
-      </c>
-      <c r="AC5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -990,13 +972,10 @@
         <v>3670.49850909091</v>
       </c>
       <c r="AB6">
-        <v>786.8875806060606</v>
-      </c>
-      <c r="AC6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1079,13 +1058,10 @@
         <v>3697.49850909091</v>
       </c>
       <c r="AB7">
-        <v>792.2875806060606</v>
-      </c>
-      <c r="AC7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1168,13 +1144,10 @@
         <v>3724.49850909091</v>
       </c>
       <c r="AB8">
-        <v>797.6875806060606</v>
-      </c>
-      <c r="AC8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1257,13 +1230,10 @@
         <v>3591.49850909091</v>
       </c>
       <c r="AB9">
-        <v>771.0875806060607</v>
-      </c>
-      <c r="AC9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1346,13 +1316,10 @@
         <v>3538.49850909091</v>
       </c>
       <c r="AB10">
-        <v>760.4875806060606</v>
-      </c>
-      <c r="AC10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1435,13 +1402,10 @@
         <v>3505.49850909091</v>
       </c>
       <c r="AB11">
-        <v>753.8875806060606</v>
-      </c>
-      <c r="AC11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1524,13 +1488,10 @@
         <v>3432.49850909091</v>
       </c>
       <c r="AB12">
-        <v>739.2875806060606</v>
-      </c>
-      <c r="AC12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1613,13 +1574,10 @@
         <v>3359.49850909091</v>
       </c>
       <c r="AB13">
-        <v>724.6875806060606</v>
-      </c>
-      <c r="AC13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1702,13 +1660,10 @@
         <v>3386.49850909091</v>
       </c>
       <c r="AB14">
-        <v>730.0875806060607</v>
-      </c>
-      <c r="AC14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1791,13 +1746,10 @@
         <v>3313.49850909091</v>
       </c>
       <c r="AB15">
-        <v>715.4875806060606</v>
-      </c>
-      <c r="AC15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1880,13 +1832,10 @@
         <v>3440.49850909091</v>
       </c>
       <c r="AB16">
-        <v>740.8875806060606</v>
-      </c>
-      <c r="AC16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1969,13 +1918,10 @@
         <v>3467.49850909091</v>
       </c>
       <c r="AB17">
-        <v>746.2875806060606</v>
-      </c>
-      <c r="AC17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2058,13 +2004,10 @@
         <v>3494.49850909091</v>
       </c>
       <c r="AB18">
-        <v>751.6875806060606</v>
-      </c>
-      <c r="AC18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2147,13 +2090,10 @@
         <v>3521.49850909091</v>
       </c>
       <c r="AB19">
-        <v>757.0875806060607</v>
-      </c>
-      <c r="AC19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2236,13 +2176,10 @@
         <v>3528.49850909091</v>
       </c>
       <c r="AB20">
-        <v>758.4875806060606</v>
-      </c>
-      <c r="AC20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2325,13 +2262,10 @@
         <v>3475.49850909091</v>
       </c>
       <c r="AB21">
-        <v>747.8875806060606</v>
-      </c>
-      <c r="AC21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2414,13 +2348,10 @@
         <v>3502.49850909091</v>
       </c>
       <c r="AB22">
-        <v>753.2875806060606</v>
-      </c>
-      <c r="AC22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2503,13 +2434,10 @@
         <v>3429.49850909091</v>
       </c>
       <c r="AB23">
-        <v>738.6875806060606</v>
-      </c>
-      <c r="AC23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2592,13 +2520,10 @@
         <v>3456.49850909091</v>
       </c>
       <c r="AB24">
-        <v>744.0875806060607</v>
-      </c>
-      <c r="AC24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2681,13 +2606,10 @@
         <v>3383.49850909091</v>
       </c>
       <c r="AB25">
-        <v>729.4875806060606</v>
-      </c>
-      <c r="AC25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2770,13 +2692,10 @@
         <v>3410.49850909091</v>
       </c>
       <c r="AB26">
-        <v>734.8875806060606</v>
-      </c>
-      <c r="AC26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2859,13 +2778,10 @@
         <v>3337.49850909091</v>
       </c>
       <c r="AB27">
-        <v>720.2875806060606</v>
-      </c>
-      <c r="AC27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2948,13 +2864,10 @@
         <v>3264.49850909091</v>
       </c>
       <c r="AB28">
-        <v>705.6875806060606</v>
-      </c>
-      <c r="AC28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3037,13 +2950,10 @@
         <v>3291.49850909091</v>
       </c>
       <c r="AB29">
-        <v>711.0875806060607</v>
-      </c>
-      <c r="AC29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3126,13 +3036,10 @@
         <v>3318.49850909091</v>
       </c>
       <c r="AB30">
-        <v>716.4875806060606</v>
-      </c>
-      <c r="AC30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3215,13 +3122,10 @@
         <v>3245.49850909091</v>
       </c>
       <c r="AB31">
-        <v>701.8875806060606</v>
-      </c>
-      <c r="AC31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3304,13 +3208,10 @@
         <v>3272.49850909091</v>
       </c>
       <c r="AB32">
-        <v>707.2875806060606</v>
-      </c>
-      <c r="AC32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3393,13 +3294,10 @@
         <v>3299.49850909091</v>
       </c>
       <c r="AB33">
-        <v>712.6875806060606</v>
-      </c>
-      <c r="AC33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3482,13 +3380,10 @@
         <v>2617.4076</v>
       </c>
       <c r="AB34">
-        <v>1104.148186666667</v>
-      </c>
-      <c r="AC34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3571,13 +3466,10 @@
         <v>1996.22578181818</v>
       </c>
       <c r="AB35">
-        <v>1455.002732121212</v>
-      </c>
-      <c r="AC35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3660,13 +3552,10 @@
         <v>1923.22578181818</v>
       </c>
       <c r="AB36">
-        <v>1440.402732121212</v>
-      </c>
-      <c r="AC36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3749,13 +3638,10 @@
         <v>1850.22578181818</v>
       </c>
       <c r="AB37">
-        <v>1425.802732121212</v>
-      </c>
-      <c r="AC37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3838,13 +3724,10 @@
         <v>1977.22578181818</v>
       </c>
       <c r="AB38">
-        <v>1451.202732121212</v>
-      </c>
-      <c r="AC38">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3927,13 +3810,10 @@
         <v>2062.32018181818</v>
       </c>
       <c r="AB39">
-        <v>1468.221612121212</v>
-      </c>
-      <c r="AC39">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4016,13 +3896,10 @@
         <v>2029.09018181818</v>
       </c>
       <c r="AB40">
-        <v>1461.575612121212</v>
-      </c>
-      <c r="AC40">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4105,13 +3982,10 @@
         <v>2195.86018181818</v>
       </c>
       <c r="AB41">
-        <v>1494.929612121212</v>
-      </c>
-      <c r="AC41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4194,13 +4068,10 @@
         <v>2362.63018181818</v>
       </c>
       <c r="AB42">
-        <v>1528.283612121212</v>
-      </c>
-      <c r="AC42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4283,13 +4154,10 @@
         <v>2529.40018181818</v>
       </c>
       <c r="AB43">
-        <v>1561.637612121212</v>
-      </c>
-      <c r="AC43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4372,13 +4240,10 @@
         <v>2500.45258181818</v>
       </c>
       <c r="AB44">
-        <v>1555.848092121212</v>
-      </c>
-      <c r="AC44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4461,13 +4326,10 @@
         <v>2658.88408181818</v>
       </c>
       <c r="AB45">
-        <v>1587.534392121212</v>
-      </c>
-      <c r="AC45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4550,13 +4412,10 @@
         <v>2817.31558181818</v>
       </c>
       <c r="AB46">
-        <v>1619.220692121212</v>
-      </c>
-      <c r="AC46">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4639,13 +4498,10 @@
         <v>2975.74708181818</v>
       </c>
       <c r="AB47">
-        <v>1650.906992121212</v>
-      </c>
-      <c r="AC47">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4728,13 +4584,10 @@
         <v>3134.17858181818</v>
       </c>
       <c r="AB48">
-        <v>1682.593292121212</v>
-      </c>
-      <c r="AC48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4817,13 +4670,10 @@
         <v>3292.61008181818</v>
       </c>
       <c r="AB49">
-        <v>1714.279592121212</v>
-      </c>
-      <c r="AC49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4906,13 +4756,10 @@
         <v>3978.25510181818</v>
       </c>
       <c r="AB50">
-        <v>1851.408596121212</v>
-      </c>
-      <c r="AC50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4995,13 +4842,10 @@
         <v>4094.76766181818</v>
       </c>
       <c r="AB51">
-        <v>1874.711108121212</v>
-      </c>
-      <c r="AC51">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5084,13 +4928,10 @@
         <v>4211.28022181818</v>
       </c>
       <c r="AB52">
-        <v>1898.013620121212</v>
-      </c>
-      <c r="AC52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5173,13 +5014,10 @@
         <v>4327.79278181818</v>
       </c>
       <c r="AB53">
-        <v>1921.316132121212</v>
-      </c>
-      <c r="AC53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5262,13 +5100,10 @@
         <v>4444.30534181818</v>
       </c>
       <c r="AB54">
-        <v>1944.618644121212</v>
-      </c>
-      <c r="AC54">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5351,13 +5186,10 @@
         <v>4560.81790181818</v>
       </c>
       <c r="AB55">
-        <v>1967.921156121212</v>
-      </c>
-      <c r="AC55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5440,13 +5272,10 @@
         <v>4677.33046181818</v>
       </c>
       <c r="AB56">
-        <v>1991.223668121212</v>
-      </c>
-      <c r="AC56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5529,13 +5358,10 @@
         <v>4793.84302181818</v>
       </c>
       <c r="AB57">
-        <v>2014.526180121212</v>
-      </c>
-      <c r="AC57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5618,13 +5444,10 @@
         <v>4910.35558181818</v>
       </c>
       <c r="AB58">
-        <v>2037.828692121212</v>
-      </c>
-      <c r="AC58">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5707,13 +5530,10 @@
         <v>5026.86814181818</v>
       </c>
       <c r="AB59">
-        <v>2061.131204121212</v>
-      </c>
-      <c r="AC59">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5796,13 +5616,10 @@
         <v>5020.24018181818</v>
       </c>
       <c r="AB60">
-        <v>2059.805612121212</v>
-      </c>
-      <c r="AC60">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5885,13 +5702,10 @@
         <v>5013.61222181818</v>
       </c>
       <c r="AB61">
-        <v>2058.480020121212</v>
-      </c>
-      <c r="AC61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5974,13 +5788,10 @@
         <v>5006.98426181818</v>
       </c>
       <c r="AB62">
-        <v>2057.154428121212</v>
-      </c>
-      <c r="AC62">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6063,13 +5874,10 @@
         <v>5000.35630181818</v>
       </c>
       <c r="AB63">
-        <v>2055.828836121212</v>
-      </c>
-      <c r="AC63">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6152,13 +5960,10 @@
         <v>4993.72834181818</v>
       </c>
       <c r="AB64">
-        <v>2054.503244121212</v>
-      </c>
-      <c r="AC64">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6241,13 +6046,10 @@
         <v>4987.10038181818</v>
       </c>
       <c r="AB65">
-        <v>2053.177652121212</v>
-      </c>
-      <c r="AC65">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6330,13 +6132,10 @@
         <v>4980.47242181818</v>
       </c>
       <c r="AB66">
-        <v>2051.852060121212</v>
-      </c>
-      <c r="AC66">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6419,13 +6218,10 @@
         <v>4973.84446181818</v>
       </c>
       <c r="AB67">
-        <v>2050.526468121212</v>
-      </c>
-      <c r="AC67">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6508,13 +6304,10 @@
         <v>4967.21650181818</v>
       </c>
       <c r="AB68">
-        <v>2049.200876121212</v>
-      </c>
-      <c r="AC68">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6597,13 +6390,10 @@
         <v>4960.58854181818</v>
       </c>
       <c r="AB69">
-        <v>2047.875284121212</v>
-      </c>
-      <c r="AC69">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6686,13 +6476,10 @@
         <v>4953.96058181818</v>
       </c>
       <c r="AB70">
-        <v>2046.549692121212</v>
-      </c>
-      <c r="AC70">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6775,13 +6562,10 @@
         <v>4680.31498181818</v>
       </c>
       <c r="AB71">
-        <v>1991.820572121212</v>
-      </c>
-      <c r="AC71">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6864,13 +6648,10 @@
         <v>4406.66938181818</v>
       </c>
       <c r="AB72">
-        <v>1937.091452121212</v>
-      </c>
-      <c r="AC72">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6953,13 +6734,10 @@
         <v>4681.2056</v>
       </c>
       <c r="AB73">
-        <v>1516.907786666667</v>
-      </c>
-      <c r="AC73">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6988,13 +6766,13 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>883.527378649028</v>
+        <v>883.527378649026</v>
       </c>
       <c r="K74">
         <v>5383.18743444289</v>
       </c>
       <c r="L74">
-        <v>915.342075149028</v>
+        <v>915.342075149026</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -7042,13 +6820,10 @@
         <v>6367.70758181818</v>
       </c>
       <c r="AB74">
-        <v>957.7839406060606</v>
-      </c>
-      <c r="AC74">
         <v>6367.70758181818</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7131,13 +6906,10 @@
         <v>6143.43253181818</v>
       </c>
       <c r="AB75">
-        <v>912.9289306060606</v>
-      </c>
-      <c r="AC75">
         <v>6143.43253181818</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7220,13 +6992,10 @@
         <v>5919.15748181818</v>
       </c>
       <c r="AB76">
-        <v>868.0739206060606</v>
-      </c>
-      <c r="AC76">
         <v>5919.15748181818</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7309,13 +7078,10 @@
         <v>5694.88243181818</v>
       </c>
       <c r="AB77">
-        <v>1188.673456060606</v>
-      </c>
-      <c r="AC77">
         <v>5694.88243181818</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7398,13 +7164,10 @@
         <v>2470.60738181818</v>
       </c>
       <c r="AB78">
-        <v>1549.879052121212</v>
-      </c>
-      <c r="AC78">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7487,13 +7250,10 @@
         <v>2246.33233181818</v>
       </c>
       <c r="AB79">
-        <v>1505.024042121212</v>
-      </c>
-      <c r="AC79">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7576,13 +7336,10 @@
         <v>2022.05728181818</v>
       </c>
       <c r="AB80">
-        <v>1460.169032121212</v>
-      </c>
-      <c r="AC80">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7665,13 +7422,10 @@
         <v>1797.78223181818</v>
       </c>
       <c r="AB81">
-        <v>1415.314022121212</v>
-      </c>
-      <c r="AC81">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7754,13 +7508,10 @@
         <v>1920.43818181818</v>
       </c>
       <c r="AB82">
-        <v>1439.845212121212</v>
-      </c>
-      <c r="AC82">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7843,13 +7594,10 @@
         <v>2024.86738181818</v>
       </c>
       <c r="AB83">
-        <v>1460.731052121212</v>
-      </c>
-      <c r="AC83">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7932,13 +7680,10 @@
         <v>1741.57258181818</v>
       </c>
       <c r="AB84">
-        <v>1404.072092121212</v>
-      </c>
-      <c r="AC84">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8021,13 +7766,10 @@
         <v>1758.27778181818</v>
       </c>
       <c r="AB85">
-        <v>1407.413132121212</v>
-      </c>
-      <c r="AC85">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8110,13 +7852,10 @@
         <v>1834.98298181818</v>
       </c>
       <c r="AB86">
-        <v>1422.754172121212</v>
-      </c>
-      <c r="AC86">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8199,13 +7938,10 @@
         <v>1951.68818181818</v>
       </c>
       <c r="AB87">
-        <v>1446.095212121212</v>
-      </c>
-      <c r="AC87">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8288,13 +8024,10 @@
         <v>1884.39338181819</v>
       </c>
       <c r="AB88">
-        <v>1432.636252121214</v>
-      </c>
-      <c r="AC88">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8377,13 +8110,10 @@
         <v>1917.09858181819</v>
       </c>
       <c r="AB89">
-        <v>1439.177292121214</v>
-      </c>
-      <c r="AC89">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8466,13 +8196,10 @@
         <v>1949.8037818182</v>
       </c>
       <c r="AB90">
-        <v>1445.718332121216</v>
-      </c>
-      <c r="AC90">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8555,13 +8282,10 @@
         <v>1982.50898181821</v>
       </c>
       <c r="AB91">
-        <v>1452.259372121218</v>
-      </c>
-      <c r="AC91">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8644,13 +8368,10 @@
         <v>2135.21418181822</v>
       </c>
       <c r="AB92">
-        <v>1482.80041212122</v>
-      </c>
-      <c r="AC92">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8733,13 +8454,10 @@
         <v>2167.91938181822</v>
       </c>
       <c r="AB93">
-        <v>1489.34145212122</v>
-      </c>
-      <c r="AC93">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8822,13 +8540,10 @@
         <v>2100.62458181823</v>
       </c>
       <c r="AB94">
-        <v>1475.882492121222</v>
-      </c>
-      <c r="AC94">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8911,13 +8626,10 @@
         <v>2233.32978181824</v>
       </c>
       <c r="AB95">
-        <v>1502.423532121224</v>
-      </c>
-      <c r="AC95">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9000,13 +8712,10 @@
         <v>2366.03498181825</v>
       </c>
       <c r="AB96">
-        <v>1528.964572121226</v>
-      </c>
-      <c r="AC96">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9026,7 +8735,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>4943.62393972559</v>
+        <v>5065.71696298141</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -9059,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>51.5479069767544</v>
+        <v>167.826976744196</v>
       </c>
       <c r="S97">
-        <v>221.6560000000439</v>
+        <v>721.6560000000428</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -9071,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="V97">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -9089,9 +8798,6 @@
         <v>2398.74018181826</v>
       </c>
       <c r="AB97">
-        <v>1535.505612121228</v>
-      </c>
-      <c r="AC97">
         <v>1000</v>
       </c>
     </row>
@@ -9102,13 +8808,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9190,11 +8896,8 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9277,13 +8980,10 @@
         <v>3562.49850909091</v>
       </c>
       <c r="AB2">
-        <v>765.2875806060606</v>
-      </c>
-      <c r="AC2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9366,13 +9066,10 @@
         <v>3589.49850909091</v>
       </c>
       <c r="AB3">
-        <v>770.6875806060606</v>
-      </c>
-      <c r="AC3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9455,13 +9152,10 @@
         <v>3616.49850909091</v>
       </c>
       <c r="AB4">
-        <v>776.0875806060607</v>
-      </c>
-      <c r="AC4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9544,13 +9238,10 @@
         <v>3643.49850909091</v>
       </c>
       <c r="AB5">
-        <v>781.4875806060606</v>
-      </c>
-      <c r="AC5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9633,13 +9324,10 @@
         <v>3670.49850909091</v>
       </c>
       <c r="AB6">
-        <v>786.8875806060606</v>
-      </c>
-      <c r="AC6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9722,13 +9410,10 @@
         <v>3697.49850909091</v>
       </c>
       <c r="AB7">
-        <v>792.2875806060606</v>
-      </c>
-      <c r="AC7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9811,13 +9496,10 @@
         <v>3724.49850909091</v>
       </c>
       <c r="AB8">
-        <v>797.6875806060606</v>
-      </c>
-      <c r="AC8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9900,13 +9582,10 @@
         <v>3591.49850909091</v>
       </c>
       <c r="AB9">
-        <v>771.0875806060607</v>
-      </c>
-      <c r="AC9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9989,13 +9668,10 @@
         <v>3538.49850909091</v>
       </c>
       <c r="AB10">
-        <v>760.4875806060606</v>
-      </c>
-      <c r="AC10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10078,13 +9754,10 @@
         <v>3505.49850909091</v>
       </c>
       <c r="AB11">
-        <v>753.8875806060606</v>
-      </c>
-      <c r="AC11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10167,13 +9840,10 @@
         <v>3432.49850909091</v>
       </c>
       <c r="AB12">
-        <v>739.2875806060606</v>
-      </c>
-      <c r="AC12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10256,13 +9926,10 @@
         <v>3359.49850909091</v>
       </c>
       <c r="AB13">
-        <v>724.6875806060606</v>
-      </c>
-      <c r="AC13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10345,13 +10012,10 @@
         <v>3386.49850909091</v>
       </c>
       <c r="AB14">
-        <v>730.0875806060607</v>
-      </c>
-      <c r="AC14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10434,13 +10098,10 @@
         <v>3313.49850909091</v>
       </c>
       <c r="AB15">
-        <v>715.4875806060606</v>
-      </c>
-      <c r="AC15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10523,13 +10184,10 @@
         <v>3440.49850909091</v>
       </c>
       <c r="AB16">
-        <v>740.8875806060606</v>
-      </c>
-      <c r="AC16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10612,13 +10270,10 @@
         <v>3467.49850909091</v>
       </c>
       <c r="AB17">
-        <v>746.2875806060606</v>
-      </c>
-      <c r="AC17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10701,13 +10356,10 @@
         <v>3494.49850909091</v>
       </c>
       <c r="AB18">
-        <v>751.6875806060606</v>
-      </c>
-      <c r="AC18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10790,13 +10442,10 @@
         <v>3521.49850909091</v>
       </c>
       <c r="AB19">
-        <v>757.0875806060607</v>
-      </c>
-      <c r="AC19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10879,13 +10528,10 @@
         <v>3528.49850909091</v>
       </c>
       <c r="AB20">
-        <v>758.4875806060606</v>
-      </c>
-      <c r="AC20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10968,13 +10614,10 @@
         <v>3475.49850909091</v>
       </c>
       <c r="AB21">
-        <v>747.8875806060606</v>
-      </c>
-      <c r="AC21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -11057,13 +10700,10 @@
         <v>3502.49850909091</v>
       </c>
       <c r="AB22">
-        <v>753.2875806060606</v>
-      </c>
-      <c r="AC22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -11146,13 +10786,10 @@
         <v>3429.49850909091</v>
       </c>
       <c r="AB23">
-        <v>738.6875806060606</v>
-      </c>
-      <c r="AC23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -11235,13 +10872,10 @@
         <v>3456.49850909091</v>
       </c>
       <c r="AB24">
-        <v>744.0875806060607</v>
-      </c>
-      <c r="AC24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -11324,13 +10958,10 @@
         <v>3383.49850909091</v>
       </c>
       <c r="AB25">
-        <v>729.4875806060606</v>
-      </c>
-      <c r="AC25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -11413,13 +11044,10 @@
         <v>3410.49850909091</v>
       </c>
       <c r="AB26">
-        <v>734.8875806060606</v>
-      </c>
-      <c r="AC26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -11502,13 +11130,10 @@
         <v>3337.49850909091</v>
       </c>
       <c r="AB27">
-        <v>720.2875806060606</v>
-      </c>
-      <c r="AC27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11591,13 +11216,10 @@
         <v>3264.49850909091</v>
       </c>
       <c r="AB28">
-        <v>705.6875806060606</v>
-      </c>
-      <c r="AC28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11680,13 +11302,10 @@
         <v>3291.49850909091</v>
       </c>
       <c r="AB29">
-        <v>711.0875806060607</v>
-      </c>
-      <c r="AC29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11769,13 +11388,10 @@
         <v>3318.49850909091</v>
       </c>
       <c r="AB30">
-        <v>716.4875806060606</v>
-      </c>
-      <c r="AC30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11858,13 +11474,10 @@
         <v>3245.49850909091</v>
       </c>
       <c r="AB31">
-        <v>701.8875806060606</v>
-      </c>
-      <c r="AC31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -11947,13 +11560,10 @@
         <v>3272.49850909091</v>
       </c>
       <c r="AB32">
-        <v>707.2875806060606</v>
-      </c>
-      <c r="AC32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -12036,13 +11646,10 @@
         <v>3299.49850909091</v>
       </c>
       <c r="AB33">
-        <v>712.6875806060606</v>
-      </c>
-      <c r="AC33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12125,13 +11732,10 @@
         <v>2617.4076</v>
       </c>
       <c r="AB34">
-        <v>1104.148186666667</v>
-      </c>
-      <c r="AC34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -12214,13 +11818,10 @@
         <v>1996.22578181818</v>
       </c>
       <c r="AB35">
-        <v>1455.002732121212</v>
-      </c>
-      <c r="AC35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -12303,13 +11904,10 @@
         <v>1923.22578181818</v>
       </c>
       <c r="AB36">
-        <v>1440.402732121212</v>
-      </c>
-      <c r="AC36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -12392,13 +11990,10 @@
         <v>1850.22578181818</v>
       </c>
       <c r="AB37">
-        <v>1425.802732121212</v>
-      </c>
-      <c r="AC37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12481,13 +12076,10 @@
         <v>1977.22578181818</v>
       </c>
       <c r="AB38">
-        <v>1451.202732121212</v>
-      </c>
-      <c r="AC38">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -12570,13 +12162,10 @@
         <v>2062.32018181818</v>
       </c>
       <c r="AB39">
-        <v>1468.221612121212</v>
-      </c>
-      <c r="AC39">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -12659,13 +12248,10 @@
         <v>2029.09018181818</v>
       </c>
       <c r="AB40">
-        <v>1461.575612121212</v>
-      </c>
-      <c r="AC40">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -12748,13 +12334,10 @@
         <v>2195.86018181818</v>
       </c>
       <c r="AB41">
-        <v>1494.929612121212</v>
-      </c>
-      <c r="AC41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12837,13 +12420,10 @@
         <v>2362.63018181818</v>
       </c>
       <c r="AB42">
-        <v>1528.283612121212</v>
-      </c>
-      <c r="AC42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12926,13 +12506,10 @@
         <v>2529.40018181818</v>
       </c>
       <c r="AB43">
-        <v>1561.637612121212</v>
-      </c>
-      <c r="AC43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -13015,13 +12592,10 @@
         <v>2500.45258181818</v>
       </c>
       <c r="AB44">
-        <v>1555.848092121212</v>
-      </c>
-      <c r="AC44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -13104,13 +12678,10 @@
         <v>2658.88408181818</v>
       </c>
       <c r="AB45">
-        <v>1587.534392121212</v>
-      </c>
-      <c r="AC45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -13193,13 +12764,10 @@
         <v>2817.31558181818</v>
       </c>
       <c r="AB46">
-        <v>1619.220692121212</v>
-      </c>
-      <c r="AC46">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13282,13 +12850,10 @@
         <v>2975.74708181818</v>
       </c>
       <c r="AB47">
-        <v>1650.906992121212</v>
-      </c>
-      <c r="AC47">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13371,13 +12936,10 @@
         <v>3134.17858181818</v>
       </c>
       <c r="AB48">
-        <v>1682.593292121212</v>
-      </c>
-      <c r="AC48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13460,13 +13022,10 @@
         <v>3292.61008181818</v>
       </c>
       <c r="AB49">
-        <v>1714.279592121212</v>
-      </c>
-      <c r="AC49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13549,13 +13108,10 @@
         <v>3978.25510181818</v>
       </c>
       <c r="AB50">
-        <v>1851.408596121212</v>
-      </c>
-      <c r="AC50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -13638,13 +13194,10 @@
         <v>4094.76766181818</v>
       </c>
       <c r="AB51">
-        <v>1874.711108121212</v>
-      </c>
-      <c r="AC51">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -13727,13 +13280,10 @@
         <v>4211.28022181818</v>
       </c>
       <c r="AB52">
-        <v>1898.013620121212</v>
-      </c>
-      <c r="AC52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -13816,13 +13366,10 @@
         <v>4327.79278181818</v>
       </c>
       <c r="AB53">
-        <v>1921.316132121212</v>
-      </c>
-      <c r="AC53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -13905,13 +13452,10 @@
         <v>4444.30534181818</v>
       </c>
       <c r="AB54">
-        <v>1944.618644121212</v>
-      </c>
-      <c r="AC54">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13994,13 +13538,10 @@
         <v>4560.81790181818</v>
       </c>
       <c r="AB55">
-        <v>1967.921156121212</v>
-      </c>
-      <c r="AC55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -14083,13 +13624,10 @@
         <v>4677.33046181818</v>
       </c>
       <c r="AB56">
-        <v>1991.223668121212</v>
-      </c>
-      <c r="AC56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -14172,13 +13710,10 @@
         <v>4793.84302181818</v>
       </c>
       <c r="AB57">
-        <v>2014.526180121212</v>
-      </c>
-      <c r="AC57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -14261,13 +13796,10 @@
         <v>4910.35558181818</v>
       </c>
       <c r="AB58">
-        <v>2037.828692121212</v>
-      </c>
-      <c r="AC58">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -14350,13 +13882,10 @@
         <v>5026.86814181818</v>
       </c>
       <c r="AB59">
-        <v>2061.131204121212</v>
-      </c>
-      <c r="AC59">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -14439,13 +13968,10 @@
         <v>5020.24018181818</v>
       </c>
       <c r="AB60">
-        <v>2059.805612121212</v>
-      </c>
-      <c r="AC60">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -14528,13 +14054,10 @@
         <v>5013.61222181818</v>
       </c>
       <c r="AB61">
-        <v>2058.480020121212</v>
-      </c>
-      <c r="AC61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -14617,13 +14140,10 @@
         <v>5006.98426181818</v>
       </c>
       <c r="AB62">
-        <v>2057.154428121212</v>
-      </c>
-      <c r="AC62">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -14706,13 +14226,10 @@
         <v>5000.35630181818</v>
       </c>
       <c r="AB63">
-        <v>2055.828836121212</v>
-      </c>
-      <c r="AC63">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -14795,13 +14312,10 @@
         <v>4993.72834181818</v>
       </c>
       <c r="AB64">
-        <v>2054.503244121212</v>
-      </c>
-      <c r="AC64">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -14884,13 +14398,10 @@
         <v>4987.10038181818</v>
       </c>
       <c r="AB65">
-        <v>2053.177652121212</v>
-      </c>
-      <c r="AC65">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -14973,13 +14484,10 @@
         <v>4980.47242181818</v>
       </c>
       <c r="AB66">
-        <v>2051.852060121212</v>
-      </c>
-      <c r="AC66">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -15062,13 +14570,10 @@
         <v>4973.84446181818</v>
       </c>
       <c r="AB67">
-        <v>2050.526468121212</v>
-      </c>
-      <c r="AC67">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -15151,13 +14656,10 @@
         <v>4967.21650181818</v>
       </c>
       <c r="AB68">
-        <v>2049.200876121212</v>
-      </c>
-      <c r="AC68">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -15240,13 +14742,10 @@
         <v>4960.58854181818</v>
       </c>
       <c r="AB69">
-        <v>2047.875284121212</v>
-      </c>
-      <c r="AC69">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -15329,13 +14828,10 @@
         <v>4953.96058181818</v>
       </c>
       <c r="AB70">
-        <v>2046.549692121212</v>
-      </c>
-      <c r="AC70">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -15418,13 +14914,10 @@
         <v>4680.31498181818</v>
       </c>
       <c r="AB71">
-        <v>1991.820572121212</v>
-      </c>
-      <c r="AC71">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -15507,13 +15000,10 @@
         <v>4406.66938181818</v>
       </c>
       <c r="AB72">
-        <v>1937.091452121212</v>
-      </c>
-      <c r="AC72">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -15596,13 +15086,10 @@
         <v>4681.2056</v>
       </c>
       <c r="AB73">
-        <v>1516.907786666667</v>
-      </c>
-      <c r="AC73">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -15631,13 +15118,13 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>883.527378649028</v>
+        <v>883.527378649026</v>
       </c>
       <c r="K74">
         <v>5383.18743444289</v>
       </c>
       <c r="L74">
-        <v>915.342075149028</v>
+        <v>915.342075149026</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -15685,13 +15172,10 @@
         <v>5767.70758181818</v>
       </c>
       <c r="AB74">
-        <v>957.7839406060606</v>
-      </c>
-      <c r="AC74">
         <v>5767.70758181818</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -15774,13 +15258,10 @@
         <v>5543.43253181818</v>
       </c>
       <c r="AB75">
-        <v>912.9289306060606</v>
-      </c>
-      <c r="AC75">
         <v>5543.43253181818</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -15863,13 +15344,10 @@
         <v>5319.15748181818</v>
       </c>
       <c r="AB76">
-        <v>868.0739206060606</v>
-      </c>
-      <c r="AC76">
         <v>5319.15748181818</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -15952,13 +15430,10 @@
         <v>5094.88243181818</v>
       </c>
       <c r="AB77">
-        <v>1188.673456060606</v>
-      </c>
-      <c r="AC77">
         <v>5094.88243181818</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -16041,13 +15516,10 @@
         <v>2470.60738181818</v>
       </c>
       <c r="AB78">
-        <v>1549.879052121212</v>
-      </c>
-      <c r="AC78">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -16130,13 +15602,10 @@
         <v>2246.33233181818</v>
       </c>
       <c r="AB79">
-        <v>1505.024042121212</v>
-      </c>
-      <c r="AC79">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -16219,13 +15688,10 @@
         <v>2022.05728181818</v>
       </c>
       <c r="AB80">
-        <v>1460.169032121212</v>
-      </c>
-      <c r="AC80">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -16308,13 +15774,10 @@
         <v>1797.78223181818</v>
       </c>
       <c r="AB81">
-        <v>1415.314022121212</v>
-      </c>
-      <c r="AC81">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -16397,13 +15860,10 @@
         <v>1920.43818181818</v>
       </c>
       <c r="AB82">
-        <v>1439.845212121212</v>
-      </c>
-      <c r="AC82">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -16486,13 +15946,10 @@
         <v>2024.86738181818</v>
       </c>
       <c r="AB83">
-        <v>1460.731052121212</v>
-      </c>
-      <c r="AC83">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -16575,13 +16032,10 @@
         <v>1741.57258181818</v>
       </c>
       <c r="AB84">
-        <v>1404.072092121212</v>
-      </c>
-      <c r="AC84">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -16664,13 +16118,10 @@
         <v>1758.27778181818</v>
       </c>
       <c r="AB85">
-        <v>1407.413132121212</v>
-      </c>
-      <c r="AC85">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -16753,13 +16204,10 @@
         <v>1834.98298181818</v>
       </c>
       <c r="AB86">
-        <v>1422.754172121212</v>
-      </c>
-      <c r="AC86">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -16842,13 +16290,10 @@
         <v>1951.68818181818</v>
       </c>
       <c r="AB87">
-        <v>1446.095212121212</v>
-      </c>
-      <c r="AC87">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -16931,13 +16376,10 @@
         <v>1884.39338181819</v>
       </c>
       <c r="AB88">
-        <v>1432.636252121214</v>
-      </c>
-      <c r="AC88">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -17020,13 +16462,10 @@
         <v>1917.09858181819</v>
       </c>
       <c r="AB89">
-        <v>1439.177292121214</v>
-      </c>
-      <c r="AC89">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -17109,13 +16548,10 @@
         <v>1949.8037818182</v>
       </c>
       <c r="AB90">
-        <v>1445.718332121216</v>
-      </c>
-      <c r="AC90">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -17198,13 +16634,10 @@
         <v>1982.50898181821</v>
       </c>
       <c r="AB91">
-        <v>1452.259372121218</v>
-      </c>
-      <c r="AC91">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -17287,13 +16720,10 @@
         <v>2135.21418181822</v>
       </c>
       <c r="AB92">
-        <v>1482.80041212122</v>
-      </c>
-      <c r="AC92">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -17376,13 +16806,10 @@
         <v>2167.91938181822</v>
       </c>
       <c r="AB93">
-        <v>1489.34145212122</v>
-      </c>
-      <c r="AC93">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -17465,13 +16892,10 @@
         <v>2100.62458181823</v>
       </c>
       <c r="AB94">
-        <v>1475.882492121222</v>
-      </c>
-      <c r="AC94">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -17554,13 +16978,10 @@
         <v>2233.32978181824</v>
       </c>
       <c r="AB95">
-        <v>1502.423532121224</v>
-      </c>
-      <c r="AC95">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -17643,13 +17064,10 @@
         <v>2366.03498181825</v>
       </c>
       <c r="AB96">
-        <v>1528.964572121226</v>
-      </c>
-      <c r="AC96">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -17669,7 +17087,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>4943.62393972559</v>
+        <v>5065.71696298141</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -17702,10 +17120,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>51.5479069767544</v>
+        <v>167.826976744196</v>
       </c>
       <c r="S97">
-        <v>221.6560000000439</v>
+        <v>721.6560000000428</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -17714,7 +17132,7 @@
         <v>0</v>
       </c>
       <c r="V97">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -17732,9 +17150,6 @@
         <v>2398.74018181826</v>
       </c>
       <c r="AB97">
-        <v>1535.505612121228</v>
-      </c>
-      <c r="AC97">
         <v>1000</v>
       </c>
     </row>
@@ -17745,13 +17160,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17833,11 +17248,8 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -17920,13 +17332,10 @@
         <v>3562.49850909091</v>
       </c>
       <c r="AB2">
-        <v>765.2875806060606</v>
-      </c>
-      <c r="AC2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -18009,13 +17418,10 @@
         <v>3589.49850909091</v>
       </c>
       <c r="AB3">
-        <v>770.6875806060606</v>
-      </c>
-      <c r="AC3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -18098,13 +17504,10 @@
         <v>3616.49850909091</v>
       </c>
       <c r="AB4">
-        <v>776.0875806060607</v>
-      </c>
-      <c r="AC4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -18187,13 +17590,10 @@
         <v>3643.49850909091</v>
       </c>
       <c r="AB5">
-        <v>781.4875806060606</v>
-      </c>
-      <c r="AC5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -18276,13 +17676,10 @@
         <v>3670.49850909091</v>
       </c>
       <c r="AB6">
-        <v>786.8875806060606</v>
-      </c>
-      <c r="AC6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -18365,13 +17762,10 @@
         <v>3697.49850909091</v>
       </c>
       <c r="AB7">
-        <v>792.2875806060606</v>
-      </c>
-      <c r="AC7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -18454,13 +17848,10 @@
         <v>3724.49850909091</v>
       </c>
       <c r="AB8">
-        <v>797.6875806060606</v>
-      </c>
-      <c r="AC8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -18543,13 +17934,10 @@
         <v>3591.49850909091</v>
       </c>
       <c r="AB9">
-        <v>771.0875806060607</v>
-      </c>
-      <c r="AC9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -18632,13 +18020,10 @@
         <v>3538.49850909091</v>
       </c>
       <c r="AB10">
-        <v>760.4875806060606</v>
-      </c>
-      <c r="AC10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -18721,13 +18106,10 @@
         <v>3505.49850909091</v>
       </c>
       <c r="AB11">
-        <v>753.8875806060606</v>
-      </c>
-      <c r="AC11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -18810,13 +18192,10 @@
         <v>3432.49850909091</v>
       </c>
       <c r="AB12">
-        <v>739.2875806060606</v>
-      </c>
-      <c r="AC12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -18899,13 +18278,10 @@
         <v>3359.49850909091</v>
       </c>
       <c r="AB13">
-        <v>724.6875806060606</v>
-      </c>
-      <c r="AC13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -18988,13 +18364,10 @@
         <v>3386.49850909091</v>
       </c>
       <c r="AB14">
-        <v>730.0875806060607</v>
-      </c>
-      <c r="AC14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -19077,13 +18450,10 @@
         <v>3313.49850909091</v>
       </c>
       <c r="AB15">
-        <v>715.4875806060606</v>
-      </c>
-      <c r="AC15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -19166,13 +18536,10 @@
         <v>3440.49850909091</v>
       </c>
       <c r="AB16">
-        <v>740.8875806060606</v>
-      </c>
-      <c r="AC16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -19255,13 +18622,10 @@
         <v>3467.49850909091</v>
       </c>
       <c r="AB17">
-        <v>746.2875806060606</v>
-      </c>
-      <c r="AC17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -19344,13 +18708,10 @@
         <v>3494.49850909091</v>
       </c>
       <c r="AB18">
-        <v>751.6875806060606</v>
-      </c>
-      <c r="AC18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -19433,13 +18794,10 @@
         <v>3521.49850909091</v>
       </c>
       <c r="AB19">
-        <v>757.0875806060607</v>
-      </c>
-      <c r="AC19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -19522,13 +18880,10 @@
         <v>3528.49850909091</v>
       </c>
       <c r="AB20">
-        <v>758.4875806060606</v>
-      </c>
-      <c r="AC20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -19611,13 +18966,10 @@
         <v>3475.49850909091</v>
       </c>
       <c r="AB21">
-        <v>747.8875806060606</v>
-      </c>
-      <c r="AC21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -19700,13 +19052,10 @@
         <v>3502.49850909091</v>
       </c>
       <c r="AB22">
-        <v>753.2875806060606</v>
-      </c>
-      <c r="AC22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -19789,13 +19138,10 @@
         <v>3429.49850909091</v>
       </c>
       <c r="AB23">
-        <v>738.6875806060606</v>
-      </c>
-      <c r="AC23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -19878,13 +19224,10 @@
         <v>3456.49850909091</v>
       </c>
       <c r="AB24">
-        <v>744.0875806060607</v>
-      </c>
-      <c r="AC24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -19967,13 +19310,10 @@
         <v>3383.49850909091</v>
       </c>
       <c r="AB25">
-        <v>729.4875806060606</v>
-      </c>
-      <c r="AC25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -20056,13 +19396,10 @@
         <v>3410.49850909091</v>
       </c>
       <c r="AB26">
-        <v>734.8875806060606</v>
-      </c>
-      <c r="AC26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -20145,13 +19482,10 @@
         <v>3337.49850909091</v>
       </c>
       <c r="AB27">
-        <v>720.2875806060606</v>
-      </c>
-      <c r="AC27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -20234,13 +19568,10 @@
         <v>3264.49850909091</v>
       </c>
       <c r="AB28">
-        <v>705.6875806060606</v>
-      </c>
-      <c r="AC28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -20323,13 +19654,10 @@
         <v>3291.49850909091</v>
       </c>
       <c r="AB29">
-        <v>711.0875806060607</v>
-      </c>
-      <c r="AC29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -20412,13 +19740,10 @@
         <v>3318.49850909091</v>
       </c>
       <c r="AB30">
-        <v>716.4875806060606</v>
-      </c>
-      <c r="AC30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -20501,13 +19826,10 @@
         <v>3245.49850909091</v>
       </c>
       <c r="AB31">
-        <v>701.8875806060606</v>
-      </c>
-      <c r="AC31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -20590,13 +19912,10 @@
         <v>3272.49850909091</v>
       </c>
       <c r="AB32">
-        <v>707.2875806060606</v>
-      </c>
-      <c r="AC32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -20679,13 +19998,10 @@
         <v>3299.49850909091</v>
       </c>
       <c r="AB33">
-        <v>712.6875806060606</v>
-      </c>
-      <c r="AC33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -20768,13 +20084,10 @@
         <v>2617.4076</v>
       </c>
       <c r="AB34">
-        <v>1104.148186666667</v>
-      </c>
-      <c r="AC34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -20857,13 +20170,10 @@
         <v>1996.22578181818</v>
       </c>
       <c r="AB35">
-        <v>1455.002732121212</v>
-      </c>
-      <c r="AC35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -20946,13 +20256,10 @@
         <v>1923.22578181818</v>
       </c>
       <c r="AB36">
-        <v>1440.402732121212</v>
-      </c>
-      <c r="AC36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -21035,13 +20342,10 @@
         <v>1850.22578181818</v>
       </c>
       <c r="AB37">
-        <v>1425.802732121212</v>
-      </c>
-      <c r="AC37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -21124,13 +20428,10 @@
         <v>1977.22578181818</v>
       </c>
       <c r="AB38">
-        <v>1451.202732121212</v>
-      </c>
-      <c r="AC38">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -21213,13 +20514,10 @@
         <v>2062.32018181818</v>
       </c>
       <c r="AB39">
-        <v>1468.221612121212</v>
-      </c>
-      <c r="AC39">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -21302,13 +20600,10 @@
         <v>2029.09018181818</v>
       </c>
       <c r="AB40">
-        <v>1461.575612121212</v>
-      </c>
-      <c r="AC40">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -21391,13 +20686,10 @@
         <v>2195.86018181818</v>
       </c>
       <c r="AB41">
-        <v>1494.929612121212</v>
-      </c>
-      <c r="AC41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -21480,13 +20772,10 @@
         <v>2362.63018181818</v>
       </c>
       <c r="AB42">
-        <v>1528.283612121212</v>
-      </c>
-      <c r="AC42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -21569,13 +20858,10 @@
         <v>2529.40018181818</v>
       </c>
       <c r="AB43">
-        <v>1561.637612121212</v>
-      </c>
-      <c r="AC43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -21658,13 +20944,10 @@
         <v>2500.45258181818</v>
       </c>
       <c r="AB44">
-        <v>1555.848092121212</v>
-      </c>
-      <c r="AC44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -21747,13 +21030,10 @@
         <v>2658.88408181818</v>
       </c>
       <c r="AB45">
-        <v>1587.534392121212</v>
-      </c>
-      <c r="AC45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -21836,13 +21116,10 @@
         <v>2817.31558181818</v>
       </c>
       <c r="AB46">
-        <v>1619.220692121212</v>
-      </c>
-      <c r="AC46">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -21925,13 +21202,10 @@
         <v>2975.74708181818</v>
       </c>
       <c r="AB47">
-        <v>1650.906992121212</v>
-      </c>
-      <c r="AC47">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -22014,13 +21288,10 @@
         <v>3134.17858181818</v>
       </c>
       <c r="AB48">
-        <v>1682.593292121212</v>
-      </c>
-      <c r="AC48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -22103,13 +21374,10 @@
         <v>3292.61008181818</v>
       </c>
       <c r="AB49">
-        <v>1714.279592121212</v>
-      </c>
-      <c r="AC49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -22192,13 +21460,10 @@
         <v>3978.25510181818</v>
       </c>
       <c r="AB50">
-        <v>1851.408596121212</v>
-      </c>
-      <c r="AC50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -22281,13 +21546,10 @@
         <v>4094.76766181818</v>
       </c>
       <c r="AB51">
-        <v>1874.711108121212</v>
-      </c>
-      <c r="AC51">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -22370,13 +21632,10 @@
         <v>4211.28022181818</v>
       </c>
       <c r="AB52">
-        <v>1898.013620121212</v>
-      </c>
-      <c r="AC52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -22459,13 +21718,10 @@
         <v>4327.79278181818</v>
       </c>
       <c r="AB53">
-        <v>1921.316132121212</v>
-      </c>
-      <c r="AC53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -22548,13 +21804,10 @@
         <v>4444.30534181818</v>
       </c>
       <c r="AB54">
-        <v>1944.618644121212</v>
-      </c>
-      <c r="AC54">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -22637,13 +21890,10 @@
         <v>4560.81790181818</v>
       </c>
       <c r="AB55">
-        <v>1967.921156121212</v>
-      </c>
-      <c r="AC55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -22726,13 +21976,10 @@
         <v>4677.33046181818</v>
       </c>
       <c r="AB56">
-        <v>1991.223668121212</v>
-      </c>
-      <c r="AC56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -22815,13 +22062,10 @@
         <v>4793.84302181818</v>
       </c>
       <c r="AB57">
-        <v>2014.526180121212</v>
-      </c>
-      <c r="AC57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -22904,13 +22148,10 @@
         <v>4910.35558181818</v>
       </c>
       <c r="AB58">
-        <v>2037.828692121212</v>
-      </c>
-      <c r="AC58">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -22993,13 +22234,10 @@
         <v>5026.86814181818</v>
       </c>
       <c r="AB59">
-        <v>2061.131204121212</v>
-      </c>
-      <c r="AC59">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -23082,13 +22320,10 @@
         <v>5020.24018181818</v>
       </c>
       <c r="AB60">
-        <v>2059.805612121212</v>
-      </c>
-      <c r="AC60">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -23171,13 +22406,10 @@
         <v>5013.61222181818</v>
       </c>
       <c r="AB61">
-        <v>2058.480020121212</v>
-      </c>
-      <c r="AC61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -23260,13 +22492,10 @@
         <v>5006.98426181818</v>
       </c>
       <c r="AB62">
-        <v>2057.154428121212</v>
-      </c>
-      <c r="AC62">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -23349,13 +22578,10 @@
         <v>5000.35630181818</v>
       </c>
       <c r="AB63">
-        <v>2055.828836121212</v>
-      </c>
-      <c r="AC63">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -23438,13 +22664,10 @@
         <v>4993.72834181818</v>
       </c>
       <c r="AB64">
-        <v>2054.503244121212</v>
-      </c>
-      <c r="AC64">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -23527,13 +22750,10 @@
         <v>4987.10038181818</v>
       </c>
       <c r="AB65">
-        <v>2053.177652121212</v>
-      </c>
-      <c r="AC65">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -23616,13 +22836,10 @@
         <v>4980.47242181818</v>
       </c>
       <c r="AB66">
-        <v>2051.852060121212</v>
-      </c>
-      <c r="AC66">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -23705,13 +22922,10 @@
         <v>4973.84446181818</v>
       </c>
       <c r="AB67">
-        <v>2050.526468121212</v>
-      </c>
-      <c r="AC67">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -23794,13 +23008,10 @@
         <v>4967.21650181818</v>
       </c>
       <c r="AB68">
-        <v>2049.200876121212</v>
-      </c>
-      <c r="AC68">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -23883,13 +23094,10 @@
         <v>4960.58854181818</v>
       </c>
       <c r="AB69">
-        <v>2047.875284121212</v>
-      </c>
-      <c r="AC69">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -23972,13 +23180,10 @@
         <v>4953.96058181818</v>
       </c>
       <c r="AB70">
-        <v>2046.549692121212</v>
-      </c>
-      <c r="AC70">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -24061,13 +23266,10 @@
         <v>4680.31498181818</v>
       </c>
       <c r="AB71">
-        <v>1991.820572121212</v>
-      </c>
-      <c r="AC71">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -24150,13 +23352,10 @@
         <v>4406.66938181818</v>
       </c>
       <c r="AB72">
-        <v>1937.091452121212</v>
-      </c>
-      <c r="AC72">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -24239,13 +23438,10 @@
         <v>4681.2056</v>
       </c>
       <c r="AB73">
-        <v>1516.907786666667</v>
-      </c>
-      <c r="AC73">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -24274,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>883.527378649028</v>
+        <v>883.527378649026</v>
       </c>
       <c r="K74">
         <v>5383.18743444289</v>
       </c>
       <c r="L74">
-        <v>915.342075149028</v>
+        <v>915.342075149026</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -24328,13 +23524,10 @@
         <v>5167.70758181818</v>
       </c>
       <c r="AB74">
-        <v>957.7839406060606</v>
-      </c>
-      <c r="AC74">
         <v>5167.70758181818</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -24417,13 +23610,10 @@
         <v>4943.43253181818</v>
       </c>
       <c r="AB75">
-        <v>912.9289306060606</v>
-      </c>
-      <c r="AC75">
         <v>4943.43253181818</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -24506,13 +23696,10 @@
         <v>4719.15748181818</v>
       </c>
       <c r="AB76">
-        <v>868.0739206060606</v>
-      </c>
-      <c r="AC76">
         <v>4719.15748181818</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -24595,13 +23782,10 @@
         <v>4494.88243181818</v>
       </c>
       <c r="AB77">
-        <v>1188.673456060606</v>
-      </c>
-      <c r="AC77">
         <v>4494.88243181818</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -24684,13 +23868,10 @@
         <v>2470.60738181818</v>
       </c>
       <c r="AB78">
-        <v>1549.879052121212</v>
-      </c>
-      <c r="AC78">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -24773,13 +23954,10 @@
         <v>2246.33233181818</v>
       </c>
       <c r="AB79">
-        <v>1505.024042121212</v>
-      </c>
-      <c r="AC79">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -24862,13 +24040,10 @@
         <v>2022.05728181818</v>
       </c>
       <c r="AB80">
-        <v>1460.169032121212</v>
-      </c>
-      <c r="AC80">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -24951,13 +24126,10 @@
         <v>1797.78223181818</v>
       </c>
       <c r="AB81">
-        <v>1415.314022121212</v>
-      </c>
-      <c r="AC81">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -25040,13 +24212,10 @@
         <v>1920.43818181818</v>
       </c>
       <c r="AB82">
-        <v>1439.845212121212</v>
-      </c>
-      <c r="AC82">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -25129,13 +24298,10 @@
         <v>2024.86738181818</v>
       </c>
       <c r="AB83">
-        <v>1460.731052121212</v>
-      </c>
-      <c r="AC83">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -25218,13 +24384,10 @@
         <v>1741.57258181818</v>
       </c>
       <c r="AB84">
-        <v>1404.072092121212</v>
-      </c>
-      <c r="AC84">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -25307,13 +24470,10 @@
         <v>1758.27778181818</v>
       </c>
       <c r="AB85">
-        <v>1407.413132121212</v>
-      </c>
-      <c r="AC85">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -25396,13 +24556,10 @@
         <v>1834.98298181818</v>
       </c>
       <c r="AB86">
-        <v>1422.754172121212</v>
-      </c>
-      <c r="AC86">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -25485,13 +24642,10 @@
         <v>1951.68818181818</v>
       </c>
       <c r="AB87">
-        <v>1446.095212121212</v>
-      </c>
-      <c r="AC87">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -25574,13 +24728,10 @@
         <v>1884.39338181819</v>
       </c>
       <c r="AB88">
-        <v>1432.636252121214</v>
-      </c>
-      <c r="AC88">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -25663,13 +24814,10 @@
         <v>1917.09858181819</v>
       </c>
       <c r="AB89">
-        <v>1439.177292121214</v>
-      </c>
-      <c r="AC89">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -25752,13 +24900,10 @@
         <v>1949.8037818182</v>
       </c>
       <c r="AB90">
-        <v>1445.718332121216</v>
-      </c>
-      <c r="AC90">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -25841,13 +24986,10 @@
         <v>1982.50898181821</v>
       </c>
       <c r="AB91">
-        <v>1452.259372121218</v>
-      </c>
-      <c r="AC91">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -25930,13 +25072,10 @@
         <v>2135.21418181822</v>
       </c>
       <c r="AB92">
-        <v>1482.80041212122</v>
-      </c>
-      <c r="AC92">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -26019,13 +25158,10 @@
         <v>2167.91938181822</v>
       </c>
       <c r="AB93">
-        <v>1489.34145212122</v>
-      </c>
-      <c r="AC93">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -26108,13 +25244,10 @@
         <v>2100.62458181823</v>
       </c>
       <c r="AB94">
-        <v>1475.882492121222</v>
-      </c>
-      <c r="AC94">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -26197,13 +25330,10 @@
         <v>2233.32978181824</v>
       </c>
       <c r="AB95">
-        <v>1502.423532121224</v>
-      </c>
-      <c r="AC95">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -26286,13 +25416,10 @@
         <v>2366.03498181825</v>
       </c>
       <c r="AB96">
-        <v>1528.964572121226</v>
-      </c>
-      <c r="AC96">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -26312,7 +25439,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>4943.62393972559</v>
+        <v>5065.71696298141</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -26345,10 +25472,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>51.5479069767544</v>
+        <v>167.826976744196</v>
       </c>
       <c r="S97">
-        <v>221.6560000000439</v>
+        <v>721.6560000000428</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -26357,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="V97">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -26375,9 +25502,6 @@
         <v>2398.74018181826</v>
       </c>
       <c r="AB97">
-        <v>1535.505612121228</v>
-      </c>
-      <c r="AC97">
         <v>1000</v>
       </c>
     </row>
@@ -26388,13 +25512,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26476,11 +25600,8 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -26563,13 +25684,10 @@
         <v>3562.49850909091</v>
       </c>
       <c r="AB2">
-        <v>765.2875806060606</v>
-      </c>
-      <c r="AC2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -26652,13 +25770,10 @@
         <v>3589.49850909091</v>
       </c>
       <c r="AB3">
-        <v>770.6875806060606</v>
-      </c>
-      <c r="AC3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -26741,13 +25856,10 @@
         <v>3616.49850909091</v>
       </c>
       <c r="AB4">
-        <v>776.0875806060607</v>
-      </c>
-      <c r="AC4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -26830,13 +25942,10 @@
         <v>3643.49850909091</v>
       </c>
       <c r="AB5">
-        <v>781.4875806060606</v>
-      </c>
-      <c r="AC5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -26919,13 +26028,10 @@
         <v>3670.49850909091</v>
       </c>
       <c r="AB6">
-        <v>786.8875806060606</v>
-      </c>
-      <c r="AC6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -27008,13 +26114,10 @@
         <v>3697.49850909091</v>
       </c>
       <c r="AB7">
-        <v>792.2875806060606</v>
-      </c>
-      <c r="AC7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -27097,13 +26200,10 @@
         <v>3724.49850909091</v>
       </c>
       <c r="AB8">
-        <v>797.6875806060606</v>
-      </c>
-      <c r="AC8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -27186,13 +26286,10 @@
         <v>3591.49850909091</v>
       </c>
       <c r="AB9">
-        <v>771.0875806060607</v>
-      </c>
-      <c r="AC9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -27275,13 +26372,10 @@
         <v>3538.49850909091</v>
       </c>
       <c r="AB10">
-        <v>760.4875806060606</v>
-      </c>
-      <c r="AC10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -27364,13 +26458,10 @@
         <v>3505.49850909091</v>
       </c>
       <c r="AB11">
-        <v>753.8875806060606</v>
-      </c>
-      <c r="AC11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -27453,13 +26544,10 @@
         <v>3432.49850909091</v>
       </c>
       <c r="AB12">
-        <v>739.2875806060606</v>
-      </c>
-      <c r="AC12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -27542,13 +26630,10 @@
         <v>3359.49850909091</v>
       </c>
       <c r="AB13">
-        <v>724.6875806060606</v>
-      </c>
-      <c r="AC13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -27631,13 +26716,10 @@
         <v>3386.49850909091</v>
       </c>
       <c r="AB14">
-        <v>730.0875806060607</v>
-      </c>
-      <c r="AC14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -27720,13 +26802,10 @@
         <v>3313.49850909091</v>
       </c>
       <c r="AB15">
-        <v>715.4875806060606</v>
-      </c>
-      <c r="AC15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -27809,13 +26888,10 @@
         <v>3440.49850909091</v>
       </c>
       <c r="AB16">
-        <v>740.8875806060606</v>
-      </c>
-      <c r="AC16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -27898,13 +26974,10 @@
         <v>3467.49850909091</v>
       </c>
       <c r="AB17">
-        <v>746.2875806060606</v>
-      </c>
-      <c r="AC17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -27987,13 +27060,10 @@
         <v>3494.49850909091</v>
       </c>
       <c r="AB18">
-        <v>751.6875806060606</v>
-      </c>
-      <c r="AC18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -28076,13 +27146,10 @@
         <v>3521.49850909091</v>
       </c>
       <c r="AB19">
-        <v>757.0875806060607</v>
-      </c>
-      <c r="AC19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -28165,13 +27232,10 @@
         <v>3528.49850909091</v>
       </c>
       <c r="AB20">
-        <v>758.4875806060606</v>
-      </c>
-      <c r="AC20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -28254,13 +27318,10 @@
         <v>3475.49850909091</v>
       </c>
       <c r="AB21">
-        <v>747.8875806060606</v>
-      </c>
-      <c r="AC21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -28343,13 +27404,10 @@
         <v>3502.49850909091</v>
       </c>
       <c r="AB22">
-        <v>753.2875806060606</v>
-      </c>
-      <c r="AC22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -28432,13 +27490,10 @@
         <v>3429.49850909091</v>
       </c>
       <c r="AB23">
-        <v>738.6875806060606</v>
-      </c>
-      <c r="AC23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -28521,13 +27576,10 @@
         <v>3456.49850909091</v>
       </c>
       <c r="AB24">
-        <v>744.0875806060607</v>
-      </c>
-      <c r="AC24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -28610,13 +27662,10 @@
         <v>3383.49850909091</v>
       </c>
       <c r="AB25">
-        <v>729.4875806060606</v>
-      </c>
-      <c r="AC25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -28699,13 +27748,10 @@
         <v>3410.49850909091</v>
       </c>
       <c r="AB26">
-        <v>734.8875806060606</v>
-      </c>
-      <c r="AC26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -28788,13 +27834,10 @@
         <v>3337.49850909091</v>
       </c>
       <c r="AB27">
-        <v>720.2875806060606</v>
-      </c>
-      <c r="AC27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -28877,13 +27920,10 @@
         <v>3264.49850909091</v>
       </c>
       <c r="AB28">
-        <v>705.6875806060606</v>
-      </c>
-      <c r="AC28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -28966,13 +28006,10 @@
         <v>3291.49850909091</v>
       </c>
       <c r="AB29">
-        <v>711.0875806060607</v>
-      </c>
-      <c r="AC29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -29055,13 +28092,10 @@
         <v>3318.49850909091</v>
       </c>
       <c r="AB30">
-        <v>716.4875806060606</v>
-      </c>
-      <c r="AC30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -29144,13 +28178,10 @@
         <v>3245.49850909091</v>
       </c>
       <c r="AB31">
-        <v>701.8875806060606</v>
-      </c>
-      <c r="AC31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -29233,13 +28264,10 @@
         <v>3272.49850909091</v>
       </c>
       <c r="AB32">
-        <v>707.2875806060606</v>
-      </c>
-      <c r="AC32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -29322,13 +28350,10 @@
         <v>3299.49850909091</v>
       </c>
       <c r="AB33">
-        <v>712.6875806060606</v>
-      </c>
-      <c r="AC33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -29411,13 +28436,10 @@
         <v>2617.4076</v>
       </c>
       <c r="AB34">
-        <v>1104.148186666667</v>
-      </c>
-      <c r="AC34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -29500,13 +28522,10 @@
         <v>1996.22578181818</v>
       </c>
       <c r="AB35">
-        <v>1455.002732121212</v>
-      </c>
-      <c r="AC35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -29589,13 +28608,10 @@
         <v>1923.22578181818</v>
       </c>
       <c r="AB36">
-        <v>1440.402732121212</v>
-      </c>
-      <c r="AC36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -29678,13 +28694,10 @@
         <v>1850.22578181818</v>
       </c>
       <c r="AB37">
-        <v>1425.802732121212</v>
-      </c>
-      <c r="AC37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -29767,13 +28780,10 @@
         <v>1977.22578181818</v>
       </c>
       <c r="AB38">
-        <v>1451.202732121212</v>
-      </c>
-      <c r="AC38">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -29856,13 +28866,10 @@
         <v>2062.32018181818</v>
       </c>
       <c r="AB39">
-        <v>1468.221612121212</v>
-      </c>
-      <c r="AC39">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -29945,13 +28952,10 @@
         <v>2029.09018181818</v>
       </c>
       <c r="AB40">
-        <v>1461.575612121212</v>
-      </c>
-      <c r="AC40">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -30034,13 +29038,10 @@
         <v>2195.86018181818</v>
       </c>
       <c r="AB41">
-        <v>1494.929612121212</v>
-      </c>
-      <c r="AC41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -30123,13 +29124,10 @@
         <v>2362.63018181818</v>
       </c>
       <c r="AB42">
-        <v>1528.283612121212</v>
-      </c>
-      <c r="AC42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -30212,13 +29210,10 @@
         <v>2529.40018181818</v>
       </c>
       <c r="AB43">
-        <v>1561.637612121212</v>
-      </c>
-      <c r="AC43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -30301,13 +29296,10 @@
         <v>2500.45258181818</v>
       </c>
       <c r="AB44">
-        <v>1555.848092121212</v>
-      </c>
-      <c r="AC44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -30390,13 +29382,10 @@
         <v>2658.88408181818</v>
       </c>
       <c r="AB45">
-        <v>1587.534392121212</v>
-      </c>
-      <c r="AC45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -30479,13 +29468,10 @@
         <v>2817.31558181818</v>
       </c>
       <c r="AB46">
-        <v>1619.220692121212</v>
-      </c>
-      <c r="AC46">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -30568,13 +29554,10 @@
         <v>2975.74708181818</v>
       </c>
       <c r="AB47">
-        <v>1650.906992121212</v>
-      </c>
-      <c r="AC47">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -30657,13 +29640,10 @@
         <v>3134.17858181818</v>
       </c>
       <c r="AB48">
-        <v>1682.593292121212</v>
-      </c>
-      <c r="AC48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -30746,13 +29726,10 @@
         <v>3292.61008181818</v>
       </c>
       <c r="AB49">
-        <v>1714.279592121212</v>
-      </c>
-      <c r="AC49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -30835,13 +29812,10 @@
         <v>3978.25510181818</v>
       </c>
       <c r="AB50">
-        <v>1851.408596121212</v>
-      </c>
-      <c r="AC50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -30924,13 +29898,10 @@
         <v>4094.76766181818</v>
       </c>
       <c r="AB51">
-        <v>1874.711108121212</v>
-      </c>
-      <c r="AC51">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -31013,13 +29984,10 @@
         <v>4211.28022181818</v>
       </c>
       <c r="AB52">
-        <v>1898.013620121212</v>
-      </c>
-      <c r="AC52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -31102,13 +30070,10 @@
         <v>4327.79278181818</v>
       </c>
       <c r="AB53">
-        <v>1921.316132121212</v>
-      </c>
-      <c r="AC53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -31191,13 +30156,10 @@
         <v>4444.30534181818</v>
       </c>
       <c r="AB54">
-        <v>1944.618644121212</v>
-      </c>
-      <c r="AC54">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -31280,13 +30242,10 @@
         <v>4560.81790181818</v>
       </c>
       <c r="AB55">
-        <v>1967.921156121212</v>
-      </c>
-      <c r="AC55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -31369,13 +30328,10 @@
         <v>4677.33046181818</v>
       </c>
       <c r="AB56">
-        <v>1991.223668121212</v>
-      </c>
-      <c r="AC56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -31458,13 +30414,10 @@
         <v>4793.84302181818</v>
       </c>
       <c r="AB57">
-        <v>2014.526180121212</v>
-      </c>
-      <c r="AC57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -31547,13 +30500,10 @@
         <v>4910.35558181818</v>
       </c>
       <c r="AB58">
-        <v>2037.828692121212</v>
-      </c>
-      <c r="AC58">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -31636,13 +30586,10 @@
         <v>5026.86814181818</v>
       </c>
       <c r="AB59">
-        <v>2061.131204121212</v>
-      </c>
-      <c r="AC59">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -31725,13 +30672,10 @@
         <v>5020.24018181818</v>
       </c>
       <c r="AB60">
-        <v>2059.805612121212</v>
-      </c>
-      <c r="AC60">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -31814,13 +30758,10 @@
         <v>5013.61222181818</v>
       </c>
       <c r="AB61">
-        <v>2058.480020121212</v>
-      </c>
-      <c r="AC61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -31903,13 +30844,10 @@
         <v>5006.98426181818</v>
       </c>
       <c r="AB62">
-        <v>2057.154428121212</v>
-      </c>
-      <c r="AC62">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -31992,13 +30930,10 @@
         <v>5000.35630181818</v>
       </c>
       <c r="AB63">
-        <v>2055.828836121212</v>
-      </c>
-      <c r="AC63">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -32081,13 +31016,10 @@
         <v>4993.72834181818</v>
       </c>
       <c r="AB64">
-        <v>2054.503244121212</v>
-      </c>
-      <c r="AC64">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -32170,13 +31102,10 @@
         <v>4987.10038181818</v>
       </c>
       <c r="AB65">
-        <v>2053.177652121212</v>
-      </c>
-      <c r="AC65">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -32259,13 +31188,10 @@
         <v>4980.47242181818</v>
       </c>
       <c r="AB66">
-        <v>2051.852060121212</v>
-      </c>
-      <c r="AC66">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -32348,13 +31274,10 @@
         <v>4973.84446181818</v>
       </c>
       <c r="AB67">
-        <v>2050.526468121212</v>
-      </c>
-      <c r="AC67">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -32437,13 +31360,10 @@
         <v>4967.21650181818</v>
       </c>
       <c r="AB68">
-        <v>2049.200876121212</v>
-      </c>
-      <c r="AC68">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -32526,13 +31446,10 @@
         <v>4960.58854181818</v>
       </c>
       <c r="AB69">
-        <v>2047.875284121212</v>
-      </c>
-      <c r="AC69">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -32615,13 +31532,10 @@
         <v>4953.96058181818</v>
       </c>
       <c r="AB70">
-        <v>2046.549692121212</v>
-      </c>
-      <c r="AC70">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -32704,13 +31618,10 @@
         <v>4680.31498181818</v>
       </c>
       <c r="AB71">
-        <v>1991.820572121212</v>
-      </c>
-      <c r="AC71">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -32793,13 +31704,10 @@
         <v>4406.66938181818</v>
       </c>
       <c r="AB72">
-        <v>1937.091452121212</v>
-      </c>
-      <c r="AC72">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -32882,13 +31790,10 @@
         <v>4681.2056</v>
       </c>
       <c r="AB73">
-        <v>1516.907786666667</v>
-      </c>
-      <c r="AC73">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -32971,13 +31876,10 @@
         <v>4567.70758181818</v>
       </c>
       <c r="AB74">
-        <v>957.7839406060606</v>
-      </c>
-      <c r="AC74">
         <v>4567.70758181818</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -33060,13 +31962,10 @@
         <v>4343.43253181818</v>
       </c>
       <c r="AB75">
-        <v>912.9289306060606</v>
-      </c>
-      <c r="AC75">
         <v>4343.43253181818</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -33149,13 +32048,10 @@
         <v>4119.15748181818</v>
       </c>
       <c r="AB76">
-        <v>868.0739206060606</v>
-      </c>
-      <c r="AC76">
         <v>4119.15748181818</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -33238,13 +32134,10 @@
         <v>3894.88243181818</v>
       </c>
       <c r="AB77">
-        <v>1188.673456060606</v>
-      </c>
-      <c r="AC77">
         <v>3894.88243181818</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -33327,13 +32220,10 @@
         <v>2470.60738181818</v>
       </c>
       <c r="AB78">
-        <v>1549.879052121212</v>
-      </c>
-      <c r="AC78">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -33416,13 +32306,10 @@
         <v>2246.33233181818</v>
       </c>
       <c r="AB79">
-        <v>1505.024042121212</v>
-      </c>
-      <c r="AC79">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -33505,13 +32392,10 @@
         <v>2022.05728181818</v>
       </c>
       <c r="AB80">
-        <v>1460.169032121212</v>
-      </c>
-      <c r="AC80">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -33594,13 +32478,10 @@
         <v>1797.78223181818</v>
       </c>
       <c r="AB81">
-        <v>1415.314022121212</v>
-      </c>
-      <c r="AC81">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -33683,13 +32564,10 @@
         <v>1920.43818181818</v>
       </c>
       <c r="AB82">
-        <v>1439.845212121212</v>
-      </c>
-      <c r="AC82">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -33772,13 +32650,10 @@
         <v>2024.86738181818</v>
       </c>
       <c r="AB83">
-        <v>1460.731052121212</v>
-      </c>
-      <c r="AC83">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -33861,13 +32736,10 @@
         <v>1741.57258181818</v>
       </c>
       <c r="AB84">
-        <v>1404.072092121212</v>
-      </c>
-      <c r="AC84">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -33950,13 +32822,10 @@
         <v>1758.27778181818</v>
       </c>
       <c r="AB85">
-        <v>1407.413132121212</v>
-      </c>
-      <c r="AC85">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -34039,13 +32908,10 @@
         <v>1834.98298181818</v>
       </c>
       <c r="AB86">
-        <v>1422.754172121212</v>
-      </c>
-      <c r="AC86">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -34128,13 +32994,10 @@
         <v>1951.68818181818</v>
       </c>
       <c r="AB87">
-        <v>1446.095212121212</v>
-      </c>
-      <c r="AC87">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -34217,13 +33080,10 @@
         <v>1884.39338181819</v>
       </c>
       <c r="AB88">
-        <v>1432.636252121214</v>
-      </c>
-      <c r="AC88">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -34306,13 +33166,10 @@
         <v>1917.09858181819</v>
       </c>
       <c r="AB89">
-        <v>1439.177292121214</v>
-      </c>
-      <c r="AC89">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -34395,13 +33252,10 @@
         <v>1949.8037818182</v>
       </c>
       <c r="AB90">
-        <v>1445.718332121216</v>
-      </c>
-      <c r="AC90">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -34484,13 +33338,10 @@
         <v>1982.50898181821</v>
       </c>
       <c r="AB91">
-        <v>1452.259372121218</v>
-      </c>
-      <c r="AC91">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -34573,13 +33424,10 @@
         <v>2135.21418181822</v>
       </c>
       <c r="AB92">
-        <v>1482.80041212122</v>
-      </c>
-      <c r="AC92">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -34662,13 +33510,10 @@
         <v>2167.91938181822</v>
       </c>
       <c r="AB93">
-        <v>1489.34145212122</v>
-      </c>
-      <c r="AC93">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -34751,13 +33596,10 @@
         <v>2100.62458181823</v>
       </c>
       <c r="AB94">
-        <v>1475.882492121222</v>
-      </c>
-      <c r="AC94">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -34840,13 +33682,10 @@
         <v>2233.32978181824</v>
       </c>
       <c r="AB95">
-        <v>1502.423532121224</v>
-      </c>
-      <c r="AC95">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -34929,13 +33768,10 @@
         <v>2366.03498181825</v>
       </c>
       <c r="AB96">
-        <v>1528.964572121226</v>
-      </c>
-      <c r="AC96">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -34955,7 +33791,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>4943.62393972559</v>
+        <v>5065.71696298141</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -34988,10 +33824,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>51.5479069767544</v>
+        <v>167.826976744196</v>
       </c>
       <c r="S97">
-        <v>221.6560000000439</v>
+        <v>721.6560000000428</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -35000,7 +33836,7 @@
         <v>0</v>
       </c>
       <c r="V97">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -35018,9 +33854,6 @@
         <v>2398.74018181826</v>
       </c>
       <c r="AB97">
-        <v>1535.505612121228</v>
-      </c>
-      <c r="AC97">
         <v>1000</v>
       </c>
     </row>
@@ -35031,13 +33864,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35119,11 +33952,8 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -35206,13 +34036,10 @@
         <v>3562.49850909091</v>
       </c>
       <c r="AB2">
-        <v>765.2875806060606</v>
-      </c>
-      <c r="AC2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -35295,13 +34122,10 @@
         <v>3589.49850909091</v>
       </c>
       <c r="AB3">
-        <v>770.6875806060606</v>
-      </c>
-      <c r="AC3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -35384,13 +34208,10 @@
         <v>3616.49850909091</v>
       </c>
       <c r="AB4">
-        <v>776.0875806060607</v>
-      </c>
-      <c r="AC4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -35473,13 +34294,10 @@
         <v>3643.49850909091</v>
       </c>
       <c r="AB5">
-        <v>781.4875806060606</v>
-      </c>
-      <c r="AC5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -35562,13 +34380,10 @@
         <v>3670.49850909091</v>
       </c>
       <c r="AB6">
-        <v>786.8875806060606</v>
-      </c>
-      <c r="AC6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -35651,13 +34466,10 @@
         <v>3697.49850909091</v>
       </c>
       <c r="AB7">
-        <v>792.2875806060606</v>
-      </c>
-      <c r="AC7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -35740,13 +34552,10 @@
         <v>3724.49850909091</v>
       </c>
       <c r="AB8">
-        <v>797.6875806060606</v>
-      </c>
-      <c r="AC8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -35829,13 +34638,10 @@
         <v>3591.49850909091</v>
       </c>
       <c r="AB9">
-        <v>771.0875806060607</v>
-      </c>
-      <c r="AC9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -35918,13 +34724,10 @@
         <v>3538.49850909091</v>
       </c>
       <c r="AB10">
-        <v>760.4875806060606</v>
-      </c>
-      <c r="AC10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -36007,13 +34810,10 @@
         <v>3505.49850909091</v>
       </c>
       <c r="AB11">
-        <v>753.8875806060606</v>
-      </c>
-      <c r="AC11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -36096,13 +34896,10 @@
         <v>3432.49850909091</v>
       </c>
       <c r="AB12">
-        <v>739.2875806060606</v>
-      </c>
-      <c r="AC12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -36185,13 +34982,10 @@
         <v>3359.49850909091</v>
       </c>
       <c r="AB13">
-        <v>724.6875806060606</v>
-      </c>
-      <c r="AC13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -36274,13 +35068,10 @@
         <v>3386.49850909091</v>
       </c>
       <c r="AB14">
-        <v>730.0875806060607</v>
-      </c>
-      <c r="AC14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -36363,13 +35154,10 @@
         <v>3313.49850909091</v>
       </c>
       <c r="AB15">
-        <v>715.4875806060606</v>
-      </c>
-      <c r="AC15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -36452,13 +35240,10 @@
         <v>3440.49850909091</v>
       </c>
       <c r="AB16">
-        <v>740.8875806060606</v>
-      </c>
-      <c r="AC16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -36541,13 +35326,10 @@
         <v>3467.49850909091</v>
       </c>
       <c r="AB17">
-        <v>746.2875806060606</v>
-      </c>
-      <c r="AC17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -36630,13 +35412,10 @@
         <v>3494.49850909091</v>
       </c>
       <c r="AB18">
-        <v>751.6875806060606</v>
-      </c>
-      <c r="AC18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -36719,13 +35498,10 @@
         <v>3521.49850909091</v>
       </c>
       <c r="AB19">
-        <v>757.0875806060607</v>
-      </c>
-      <c r="AC19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -36808,13 +35584,10 @@
         <v>3528.49850909091</v>
       </c>
       <c r="AB20">
-        <v>758.4875806060606</v>
-      </c>
-      <c r="AC20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -36897,13 +35670,10 @@
         <v>3475.49850909091</v>
       </c>
       <c r="AB21">
-        <v>747.8875806060606</v>
-      </c>
-      <c r="AC21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -36986,13 +35756,10 @@
         <v>3502.49850909091</v>
       </c>
       <c r="AB22">
-        <v>753.2875806060606</v>
-      </c>
-      <c r="AC22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -37075,13 +35842,10 @@
         <v>3429.49850909091</v>
       </c>
       <c r="AB23">
-        <v>738.6875806060606</v>
-      </c>
-      <c r="AC23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -37164,13 +35928,10 @@
         <v>3456.49850909091</v>
       </c>
       <c r="AB24">
-        <v>744.0875806060607</v>
-      </c>
-      <c r="AC24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -37253,13 +36014,10 @@
         <v>3383.49850909091</v>
       </c>
       <c r="AB25">
-        <v>729.4875806060606</v>
-      </c>
-      <c r="AC25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -37342,13 +36100,10 @@
         <v>3410.49850909091</v>
       </c>
       <c r="AB26">
-        <v>734.8875806060606</v>
-      </c>
-      <c r="AC26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -37431,13 +36186,10 @@
         <v>3337.49850909091</v>
       </c>
       <c r="AB27">
-        <v>720.2875806060606</v>
-      </c>
-      <c r="AC27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -37520,13 +36272,10 @@
         <v>3264.49850909091</v>
       </c>
       <c r="AB28">
-        <v>705.6875806060606</v>
-      </c>
-      <c r="AC28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -37609,13 +36358,10 @@
         <v>3291.49850909091</v>
       </c>
       <c r="AB29">
-        <v>711.0875806060607</v>
-      </c>
-      <c r="AC29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -37698,13 +36444,10 @@
         <v>3318.49850909091</v>
       </c>
       <c r="AB30">
-        <v>716.4875806060606</v>
-      </c>
-      <c r="AC30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -37787,13 +36530,10 @@
         <v>3245.49850909091</v>
       </c>
       <c r="AB31">
-        <v>701.8875806060606</v>
-      </c>
-      <c r="AC31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -37876,13 +36616,10 @@
         <v>3272.49850909091</v>
       </c>
       <c r="AB32">
-        <v>707.2875806060606</v>
-      </c>
-      <c r="AC32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -37965,13 +36702,10 @@
         <v>3299.49850909091</v>
       </c>
       <c r="AB33">
-        <v>712.6875806060606</v>
-      </c>
-      <c r="AC33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -38054,13 +36788,10 @@
         <v>2617.4076</v>
       </c>
       <c r="AB34">
-        <v>1104.148186666667</v>
-      </c>
-      <c r="AC34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -38143,13 +36874,10 @@
         <v>1996.22578181818</v>
       </c>
       <c r="AB35">
-        <v>1455.002732121212</v>
-      </c>
-      <c r="AC35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -38232,13 +36960,10 @@
         <v>1923.22578181818</v>
       </c>
       <c r="AB36">
-        <v>1440.402732121212</v>
-      </c>
-      <c r="AC36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -38321,13 +37046,10 @@
         <v>1850.22578181818</v>
       </c>
       <c r="AB37">
-        <v>1425.802732121212</v>
-      </c>
-      <c r="AC37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -38410,13 +37132,10 @@
         <v>1977.22578181818</v>
       </c>
       <c r="AB38">
-        <v>1451.202732121212</v>
-      </c>
-      <c r="AC38">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -38499,13 +37218,10 @@
         <v>2062.32018181818</v>
       </c>
       <c r="AB39">
-        <v>1468.221612121212</v>
-      </c>
-      <c r="AC39">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -38588,13 +37304,10 @@
         <v>2029.09018181818</v>
       </c>
       <c r="AB40">
-        <v>1461.575612121212</v>
-      </c>
-      <c r="AC40">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -38677,13 +37390,10 @@
         <v>2195.86018181818</v>
       </c>
       <c r="AB41">
-        <v>1494.929612121212</v>
-      </c>
-      <c r="AC41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -38766,13 +37476,10 @@
         <v>2362.63018181818</v>
       </c>
       <c r="AB42">
-        <v>1528.283612121212</v>
-      </c>
-      <c r="AC42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -38855,13 +37562,10 @@
         <v>2529.40018181818</v>
       </c>
       <c r="AB43">
-        <v>1561.637612121212</v>
-      </c>
-      <c r="AC43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -38944,13 +37648,10 @@
         <v>2500.45258181818</v>
       </c>
       <c r="AB44">
-        <v>1555.848092121212</v>
-      </c>
-      <c r="AC44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -39033,13 +37734,10 @@
         <v>2658.88408181818</v>
       </c>
       <c r="AB45">
-        <v>1587.534392121212</v>
-      </c>
-      <c r="AC45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -39122,13 +37820,10 @@
         <v>2817.31558181818</v>
       </c>
       <c r="AB46">
-        <v>1619.220692121212</v>
-      </c>
-      <c r="AC46">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -39211,13 +37906,10 @@
         <v>2975.74708181818</v>
       </c>
       <c r="AB47">
-        <v>1650.906992121212</v>
-      </c>
-      <c r="AC47">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -39300,13 +37992,10 @@
         <v>3134.17858181818</v>
       </c>
       <c r="AB48">
-        <v>1682.593292121212</v>
-      </c>
-      <c r="AC48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -39389,13 +38078,10 @@
         <v>3292.61008181818</v>
       </c>
       <c r="AB49">
-        <v>1714.279592121212</v>
-      </c>
-      <c r="AC49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -39478,13 +38164,10 @@
         <v>3978.25510181818</v>
       </c>
       <c r="AB50">
-        <v>1851.408596121212</v>
-      </c>
-      <c r="AC50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -39567,13 +38250,10 @@
         <v>4094.76766181818</v>
       </c>
       <c r="AB51">
-        <v>1874.711108121212</v>
-      </c>
-      <c r="AC51">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -39656,13 +38336,10 @@
         <v>4211.28022181818</v>
       </c>
       <c r="AB52">
-        <v>1898.013620121212</v>
-      </c>
-      <c r="AC52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -39745,13 +38422,10 @@
         <v>4327.79278181818</v>
       </c>
       <c r="AB53">
-        <v>1921.316132121212</v>
-      </c>
-      <c r="AC53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -39834,13 +38508,10 @@
         <v>4444.30534181818</v>
       </c>
       <c r="AB54">
-        <v>1944.618644121212</v>
-      </c>
-      <c r="AC54">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -39923,13 +38594,10 @@
         <v>4560.81790181818</v>
       </c>
       <c r="AB55">
-        <v>1967.921156121212</v>
-      </c>
-      <c r="AC55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -40012,13 +38680,10 @@
         <v>4677.33046181818</v>
       </c>
       <c r="AB56">
-        <v>1991.223668121212</v>
-      </c>
-      <c r="AC56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -40101,13 +38766,10 @@
         <v>4793.84302181818</v>
       </c>
       <c r="AB57">
-        <v>2014.526180121212</v>
-      </c>
-      <c r="AC57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -40190,13 +38852,10 @@
         <v>4910.35558181818</v>
       </c>
       <c r="AB58">
-        <v>2037.828692121212</v>
-      </c>
-      <c r="AC58">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -40279,13 +38938,10 @@
         <v>5026.86814181818</v>
       </c>
       <c r="AB59">
-        <v>2061.131204121212</v>
-      </c>
-      <c r="AC59">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -40368,13 +39024,10 @@
         <v>5020.24018181818</v>
       </c>
       <c r="AB60">
-        <v>2059.805612121212</v>
-      </c>
-      <c r="AC60">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -40457,13 +39110,10 @@
         <v>5013.61222181818</v>
       </c>
       <c r="AB61">
-        <v>2058.480020121212</v>
-      </c>
-      <c r="AC61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -40546,13 +39196,10 @@
         <v>5006.98426181818</v>
       </c>
       <c r="AB62">
-        <v>2057.154428121212</v>
-      </c>
-      <c r="AC62">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -40635,13 +39282,10 @@
         <v>5000.35630181818</v>
       </c>
       <c r="AB63">
-        <v>2055.828836121212</v>
-      </c>
-      <c r="AC63">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -40724,13 +39368,10 @@
         <v>4993.72834181818</v>
       </c>
       <c r="AB64">
-        <v>2054.503244121212</v>
-      </c>
-      <c r="AC64">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -40813,13 +39454,10 @@
         <v>4987.10038181818</v>
       </c>
       <c r="AB65">
-        <v>2053.177652121212</v>
-      </c>
-      <c r="AC65">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -40902,13 +39540,10 @@
         <v>4980.47242181818</v>
       </c>
       <c r="AB66">
-        <v>2051.852060121212</v>
-      </c>
-      <c r="AC66">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -40991,13 +39626,10 @@
         <v>4973.84446181818</v>
       </c>
       <c r="AB67">
-        <v>2050.526468121212</v>
-      </c>
-      <c r="AC67">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -41080,13 +39712,10 @@
         <v>4967.21650181818</v>
       </c>
       <c r="AB68">
-        <v>2049.200876121212</v>
-      </c>
-      <c r="AC68">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -41169,13 +39798,10 @@
         <v>4960.58854181818</v>
       </c>
       <c r="AB69">
-        <v>2047.875284121212</v>
-      </c>
-      <c r="AC69">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -41258,13 +39884,10 @@
         <v>4953.96058181818</v>
       </c>
       <c r="AB70">
-        <v>2046.549692121212</v>
-      </c>
-      <c r="AC70">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -41347,13 +39970,10 @@
         <v>4680.31498181818</v>
       </c>
       <c r="AB71">
-        <v>1991.820572121212</v>
-      </c>
-      <c r="AC71">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -41436,13 +40056,10 @@
         <v>4406.66938181818</v>
       </c>
       <c r="AB72">
-        <v>1937.091452121212</v>
-      </c>
-      <c r="AC72">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -41525,13 +40142,10 @@
         <v>4133.02378181818</v>
       </c>
       <c r="AB73">
-        <v>1882.362332121212</v>
-      </c>
-      <c r="AC73">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -41614,13 +40228,10 @@
         <v>3967.70758181818</v>
       </c>
       <c r="AB74">
-        <v>1329.299092121213</v>
-      </c>
-      <c r="AC74">
         <v>3967.70758181818</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -41703,13 +40314,10 @@
         <v>3743.43253181818</v>
       </c>
       <c r="AB75">
-        <v>1284.444082121214</v>
-      </c>
-      <c r="AC75">
         <v>3743.43253181818</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -41792,13 +40400,10 @@
         <v>3519.15748181818</v>
       </c>
       <c r="AB76">
-        <v>1239.589072121213</v>
-      </c>
-      <c r="AC76">
         <v>3519.15748181818</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -41881,13 +40486,10 @@
         <v>3294.88243181818</v>
       </c>
       <c r="AB77">
-        <v>1194.734062121213</v>
-      </c>
-      <c r="AC77">
         <v>3294.88243181818</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -41970,13 +40572,10 @@
         <v>2470.60738181818</v>
       </c>
       <c r="AB78">
-        <v>1549.879052121212</v>
-      </c>
-      <c r="AC78">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -42059,13 +40658,10 @@
         <v>2246.33233181818</v>
       </c>
       <c r="AB79">
-        <v>1505.024042121212</v>
-      </c>
-      <c r="AC79">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -42148,13 +40744,10 @@
         <v>2022.05728181818</v>
       </c>
       <c r="AB80">
-        <v>1460.169032121212</v>
-      </c>
-      <c r="AC80">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -42237,13 +40830,10 @@
         <v>1797.78223181818</v>
       </c>
       <c r="AB81">
-        <v>1415.314022121212</v>
-      </c>
-      <c r="AC81">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -42326,13 +40916,10 @@
         <v>1920.43818181818</v>
       </c>
       <c r="AB82">
-        <v>1439.845212121212</v>
-      </c>
-      <c r="AC82">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -42415,13 +41002,10 @@
         <v>2024.86738181818</v>
       </c>
       <c r="AB83">
-        <v>1460.731052121212</v>
-      </c>
-      <c r="AC83">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -42504,13 +41088,10 @@
         <v>1741.57258181818</v>
       </c>
       <c r="AB84">
-        <v>1404.072092121212</v>
-      </c>
-      <c r="AC84">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -42593,13 +41174,10 @@
         <v>1758.27778181818</v>
       </c>
       <c r="AB85">
-        <v>1407.413132121212</v>
-      </c>
-      <c r="AC85">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -42682,13 +41260,10 @@
         <v>1834.98298181818</v>
       </c>
       <c r="AB86">
-        <v>1422.754172121212</v>
-      </c>
-      <c r="AC86">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -42771,13 +41346,10 @@
         <v>1951.68818181818</v>
       </c>
       <c r="AB87">
-        <v>1446.095212121212</v>
-      </c>
-      <c r="AC87">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -42860,13 +41432,10 @@
         <v>1884.39338181819</v>
       </c>
       <c r="AB88">
-        <v>1432.636252121214</v>
-      </c>
-      <c r="AC88">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -42949,13 +41518,10 @@
         <v>1917.09858181819</v>
       </c>
       <c r="AB89">
-        <v>1439.177292121214</v>
-      </c>
-      <c r="AC89">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -43038,13 +41604,10 @@
         <v>1949.8037818182</v>
       </c>
       <c r="AB90">
-        <v>1445.718332121216</v>
-      </c>
-      <c r="AC90">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -43127,13 +41690,10 @@
         <v>1982.50898181821</v>
       </c>
       <c r="AB91">
-        <v>1452.259372121218</v>
-      </c>
-      <c r="AC91">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -43216,13 +41776,10 @@
         <v>2135.21418181822</v>
       </c>
       <c r="AB92">
-        <v>1482.80041212122</v>
-      </c>
-      <c r="AC92">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -43305,13 +41862,10 @@
         <v>2167.91938181822</v>
       </c>
       <c r="AB93">
-        <v>1489.34145212122</v>
-      </c>
-      <c r="AC93">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -43394,13 +41948,10 @@
         <v>2100.62458181823</v>
       </c>
       <c r="AB94">
-        <v>1475.882492121222</v>
-      </c>
-      <c r="AC94">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -43483,13 +42034,10 @@
         <v>2233.32978181824</v>
       </c>
       <c r="AB95">
-        <v>1502.423532121224</v>
-      </c>
-      <c r="AC95">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -43572,13 +42120,10 @@
         <v>2366.03498181825</v>
       </c>
       <c r="AB96">
-        <v>1528.964572121226</v>
-      </c>
-      <c r="AC96">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -43598,7 +42143,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>4943.62393972559</v>
+        <v>5065.71696298141</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -43631,10 +42176,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>51.5479069767544</v>
+        <v>167.826976744196</v>
       </c>
       <c r="S97">
-        <v>221.6560000000439</v>
+        <v>721.6560000000428</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -43643,7 +42188,7 @@
         <v>0</v>
       </c>
       <c r="V97">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -43661,9 +42206,6 @@
         <v>2398.74018181826</v>
       </c>
       <c r="AB97">
-        <v>1535.505612121228</v>
-      </c>
-      <c r="AC97">
         <v>1000</v>
       </c>
     </row>

--- a/DayAhead Heat DR.xlsx
+++ b/DayAhead Heat DR.xlsx
@@ -7445,7 +7445,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>3931.96731388157</v>
+        <v>3932.51083506525</v>
       </c>
       <c r="H82">
         <v>1920.43818181818</v>
@@ -7478,10 +7478,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R82">
-        <v>146.727202125304</v>
+        <v>147.244841347854</v>
       </c>
       <c r="S82">
-        <v>630.9269691388072</v>
+        <v>633.1528177957722</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>418.605830861191</v>
+        <v>416.379982204229</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>308.527355506777</v>
+        <v>309.145646800378</v>
       </c>
       <c r="Y83">
         <v>518.887872</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>307.910300795763</v>
+        <v>308.527355506777</v>
       </c>
       <c r="Y84">
         <v>473.560704</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>307.294480194172</v>
+        <v>307.910300795763</v>
       </c>
       <c r="Y85">
         <v>476.233536</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>306.679891233784</v>
+        <v>307.294480194172</v>
       </c>
       <c r="Y86">
         <v>488.5063680000001</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>306.066531451316</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y87">
         <v>507.1792</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>305.454398388413</v>
+        <v>306.066531451316</v>
       </c>
       <c r="Y88">
         <v>496.4120320000017</v>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>304.843489591636</v>
+        <v>305.454398388413</v>
       </c>
       <c r="Y89">
         <v>501.6448640000016</v>
@@ -8184,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>304.233802612453</v>
+        <v>304.843489591636</v>
       </c>
       <c r="Y90">
         <v>506.8776960000032</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>303.625335007228</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y91">
         <v>512.1105280000048</v>
@@ -8356,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>303.018084337214</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y92">
         <v>536.5433600000064</v>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>302.412048168539</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y93">
         <v>541.7761920000064</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y94">
         <v>531.009024000008</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y95">
         <v>552.2418560000095</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y96">
         <v>573.4746880000112</v>
@@ -8735,7 +8735,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5114.22118679536</v>
+        <v>5127.90539732167</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -8744,13 +8744,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>19.4986374</v>
+        <v>33.1828479263158</v>
       </c>
       <c r="K97">
         <v>1300</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y97">
         <v>578.7075200000128</v>
@@ -15797,7 +15797,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>3931.96731388157</v>
+        <v>3932.51083506525</v>
       </c>
       <c r="H82">
         <v>1920.43818181818</v>
@@ -15830,10 +15830,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R82">
-        <v>146.727202125304</v>
+        <v>147.244841347854</v>
       </c>
       <c r="S82">
-        <v>630.9269691388072</v>
+        <v>633.1528177957722</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>418.605830861191</v>
+        <v>416.379982204229</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -15934,7 +15934,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>308.527355506777</v>
+        <v>309.145646800378</v>
       </c>
       <c r="Y83">
         <v>518.887872</v>
@@ -16020,7 +16020,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>307.910300795763</v>
+        <v>308.527355506777</v>
       </c>
       <c r="Y84">
         <v>473.560704</v>
@@ -16106,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>307.294480194172</v>
+        <v>307.910300795763</v>
       </c>
       <c r="Y85">
         <v>476.233536</v>
@@ -16192,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>306.679891233784</v>
+        <v>307.294480194172</v>
       </c>
       <c r="Y86">
         <v>488.5063680000001</v>
@@ -16278,7 +16278,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>306.066531451316</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y87">
         <v>507.1792</v>
@@ -16364,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>305.454398388413</v>
+        <v>306.066531451316</v>
       </c>
       <c r="Y88">
         <v>496.4120320000017</v>
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>304.843489591636</v>
+        <v>305.454398388413</v>
       </c>
       <c r="Y89">
         <v>501.6448640000016</v>
@@ -16536,7 +16536,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>304.233802612453</v>
+        <v>304.843489591636</v>
       </c>
       <c r="Y90">
         <v>506.8776960000032</v>
@@ -16622,7 +16622,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>303.625335007228</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y91">
         <v>512.1105280000048</v>
@@ -16708,7 +16708,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>303.018084337214</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y92">
         <v>536.5433600000064</v>
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>302.412048168539</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y93">
         <v>541.7761920000064</v>
@@ -16880,7 +16880,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y94">
         <v>531.009024000008</v>
@@ -16966,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y95">
         <v>552.2418560000095</v>
@@ -17052,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y96">
         <v>573.4746880000112</v>
@@ -17087,7 +17087,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5114.22118679536</v>
+        <v>5127.90539732167</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -17096,13 +17096,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>19.4986374</v>
+        <v>33.1828479263158</v>
       </c>
       <c r="K97">
         <v>1300</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y97">
         <v>578.7075200000128</v>
@@ -24149,7 +24149,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>3931.96731388157</v>
+        <v>3932.51083506525</v>
       </c>
       <c r="H82">
         <v>1920.43818181818</v>
@@ -24182,10 +24182,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R82">
-        <v>146.727202125304</v>
+        <v>147.244841347854</v>
       </c>
       <c r="S82">
-        <v>630.9269691388072</v>
+        <v>633.1528177957722</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -24194,7 +24194,7 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>418.605830861191</v>
+        <v>416.379982204229</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>308.527355506777</v>
+        <v>309.145646800378</v>
       </c>
       <c r="Y83">
         <v>518.887872</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>307.910300795763</v>
+        <v>308.527355506777</v>
       </c>
       <c r="Y84">
         <v>473.560704</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>307.294480194172</v>
+        <v>307.910300795763</v>
       </c>
       <c r="Y85">
         <v>476.233536</v>
@@ -24544,7 +24544,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>306.679891233784</v>
+        <v>307.294480194172</v>
       </c>
       <c r="Y86">
         <v>488.5063680000001</v>
@@ -24630,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>306.066531451316</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y87">
         <v>507.1792</v>
@@ -24716,7 +24716,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>305.454398388413</v>
+        <v>306.066531451316</v>
       </c>
       <c r="Y88">
         <v>496.4120320000017</v>
@@ -24802,7 +24802,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>304.843489591636</v>
+        <v>305.454398388413</v>
       </c>
       <c r="Y89">
         <v>501.6448640000016</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>304.233802612453</v>
+        <v>304.843489591636</v>
       </c>
       <c r="Y90">
         <v>506.8776960000032</v>
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>303.625335007228</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y91">
         <v>512.1105280000048</v>
@@ -25060,7 +25060,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>303.018084337214</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y92">
         <v>536.5433600000064</v>
@@ -25146,7 +25146,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>302.412048168539</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y93">
         <v>541.7761920000064</v>
@@ -25232,7 +25232,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y94">
         <v>531.009024000008</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y95">
         <v>552.2418560000095</v>
@@ -25404,7 +25404,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y96">
         <v>573.4746880000112</v>
@@ -25439,7 +25439,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5114.22118679536</v>
+        <v>5127.90539732167</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -25448,13 +25448,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>19.4986374</v>
+        <v>33.1828479263158</v>
       </c>
       <c r="K97">
         <v>1300</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y97">
         <v>578.7075200000128</v>
@@ -31822,13 +31822,13 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>883.527378649028</v>
+        <v>883.527378649026</v>
       </c>
       <c r="K74">
         <v>5383.18743444289</v>
       </c>
       <c r="L74">
-        <v>915.342075149028</v>
+        <v>915.342075149026</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -32501,7 +32501,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>3931.96731388157</v>
+        <v>3932.51083506525</v>
       </c>
       <c r="H82">
         <v>1920.43818181818</v>
@@ -32534,10 +32534,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R82">
-        <v>146.727202125304</v>
+        <v>147.244841347854</v>
       </c>
       <c r="S82">
-        <v>630.9269691388072</v>
+        <v>633.1528177957722</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>418.605830861191</v>
+        <v>416.379982204229</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -32638,7 +32638,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>308.527355506777</v>
+        <v>309.145646800378</v>
       </c>
       <c r="Y83">
         <v>518.887872</v>
@@ -32724,7 +32724,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>307.910300795763</v>
+        <v>308.527355506777</v>
       </c>
       <c r="Y84">
         <v>473.560704</v>
@@ -32810,7 +32810,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>307.294480194172</v>
+        <v>307.910300795763</v>
       </c>
       <c r="Y85">
         <v>476.233536</v>
@@ -32896,7 +32896,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>306.679891233784</v>
+        <v>307.294480194172</v>
       </c>
       <c r="Y86">
         <v>488.5063680000001</v>
@@ -32982,7 +32982,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>306.066531451316</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y87">
         <v>507.1792</v>
@@ -33068,7 +33068,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>305.454398388413</v>
+        <v>306.066531451316</v>
       </c>
       <c r="Y88">
         <v>496.4120320000017</v>
@@ -33154,7 +33154,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>304.843489591636</v>
+        <v>305.454398388413</v>
       </c>
       <c r="Y89">
         <v>501.6448640000016</v>
@@ -33240,7 +33240,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>304.233802612453</v>
+        <v>304.843489591636</v>
       </c>
       <c r="Y90">
         <v>506.8776960000032</v>
@@ -33326,7 +33326,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>303.625335007228</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y91">
         <v>512.1105280000048</v>
@@ -33412,7 +33412,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>303.018084337214</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y92">
         <v>536.5433600000064</v>
@@ -33498,7 +33498,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>302.412048168539</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y93">
         <v>541.7761920000064</v>
@@ -33584,7 +33584,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y94">
         <v>531.009024000008</v>
@@ -33670,7 +33670,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y95">
         <v>552.2418560000095</v>
@@ -33756,7 +33756,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y96">
         <v>573.4746880000112</v>
@@ -33791,7 +33791,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5114.22118679536</v>
+        <v>5127.90539732167</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -33800,13 +33800,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>19.4986374</v>
+        <v>33.1828479263158</v>
       </c>
       <c r="K97">
         <v>1300</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -33842,7 +33842,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y97">
         <v>578.7075200000128</v>
@@ -40174,13 +40174,13 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>883.527378649026</v>
+        <v>883.527378649028</v>
       </c>
       <c r="K74">
         <v>5383.18743444289</v>
       </c>
       <c r="L74">
-        <v>915.342075149026</v>
+        <v>915.342075149028</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -40853,7 +40853,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>3931.96731388157</v>
+        <v>3932.51083506525</v>
       </c>
       <c r="H82">
         <v>1920.43818181818</v>
@@ -40886,10 +40886,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R82">
-        <v>146.727202125304</v>
+        <v>147.244841347854</v>
       </c>
       <c r="S82">
-        <v>630.9269691388072</v>
+        <v>633.1528177957722</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -40898,7 +40898,7 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>418.605830861191</v>
+        <v>416.379982204229</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -40990,7 +40990,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>308.527355506777</v>
+        <v>309.145646800378</v>
       </c>
       <c r="Y83">
         <v>518.887872</v>
@@ -41076,7 +41076,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>307.910300795763</v>
+        <v>308.527355506777</v>
       </c>
       <c r="Y84">
         <v>473.560704</v>
@@ -41162,7 +41162,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>307.294480194172</v>
+        <v>307.910300795763</v>
       </c>
       <c r="Y85">
         <v>476.233536</v>
@@ -41248,7 +41248,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>306.679891233784</v>
+        <v>307.294480194172</v>
       </c>
       <c r="Y86">
         <v>488.5063680000001</v>
@@ -41334,7 +41334,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>306.066531451316</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y87">
         <v>507.1792</v>
@@ -41420,7 +41420,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>305.454398388413</v>
+        <v>306.066531451316</v>
       </c>
       <c r="Y88">
         <v>496.4120320000017</v>
@@ -41506,7 +41506,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>304.843489591636</v>
+        <v>305.454398388413</v>
       </c>
       <c r="Y89">
         <v>501.6448640000016</v>
@@ -41592,7 +41592,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>304.233802612453</v>
+        <v>304.843489591636</v>
       </c>
       <c r="Y90">
         <v>506.8776960000032</v>
@@ -41678,7 +41678,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>303.625335007228</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y91">
         <v>512.1105280000048</v>
@@ -41764,7 +41764,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>303.018084337214</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y92">
         <v>536.5433600000064</v>
@@ -41850,7 +41850,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>302.412048168539</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y93">
         <v>541.7761920000064</v>
@@ -41936,7 +41936,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y94">
         <v>531.009024000008</v>
@@ -42022,7 +42022,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y95">
         <v>552.2418560000095</v>
@@ -42108,7 +42108,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y96">
         <v>573.4746880000112</v>
@@ -42143,7 +42143,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5114.22118679536</v>
+        <v>5127.90539732167</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -42152,13 +42152,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>19.4986374</v>
+        <v>33.1828479263158</v>
       </c>
       <c r="K97">
         <v>1300</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -42194,7 +42194,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y97">
         <v>578.7075200000128</v>

--- a/DayAhead Heat DR.xlsx
+++ b/DayAhead Heat DR.xlsx
@@ -6760,7 +6760,7 @@
         <v>6469.26970423</v>
       </c>
       <c r="H74">
-        <v>5668.71152</v>
+        <v>5585.8894</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -6778,13 +6778,13 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>-4.47960076993e-12</v>
+        <v>6.71940115489e-12</v>
       </c>
       <c r="O74">
-        <v>-5.456968210641999e-12</v>
+        <v>8.185452315956907e-12</v>
       </c>
       <c r="P74">
-        <v>-3.637978807094665e-12</v>
+        <v>5.456968210637938e-12</v>
       </c>
       <c r="Q74">
         <v>37.6022046</v>
@@ -6817,10 +6817,10 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA74">
-        <v>5668.71152</v>
+        <v>5585.8894</v>
       </c>
       <c r="AB74">
-        <v>5668.71152</v>
+        <v>5585.8894</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6846,7 +6846,7 @@
         <v>6182.92246279</v>
       </c>
       <c r="H75">
-        <v>5444.43647</v>
+        <v>5361.61435</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -6864,13 +6864,13 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="Q75">
         <v>27.74133405</v>
@@ -6903,10 +6903,10 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA75">
-        <v>5444.43647</v>
+        <v>5361.61435</v>
       </c>
       <c r="AB75">
-        <v>5444.43647</v>
+        <v>5361.61435</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6932,7 +6932,7 @@
         <v>5561.9172965</v>
       </c>
       <c r="H76">
-        <v>5220.16142</v>
+        <v>5137.3393</v>
       </c>
       <c r="I76">
         <v>10.2639128</v>
@@ -6950,13 +6950,13 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="Q76">
         <v>17.8804635</v>
@@ -6989,10 +6989,10 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA76">
-        <v>5220.16142</v>
+        <v>5137.3393</v>
       </c>
       <c r="AB76">
-        <v>5220.16142</v>
+        <v>5137.3393</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7015,10 +7015,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>5333.18110404</v>
+        <v>5443.64493463</v>
       </c>
       <c r="H77">
-        <v>4995.88637</v>
+        <v>4913.06425</v>
       </c>
       <c r="I77">
         <v>628.6586002499999</v>
@@ -7036,13 +7036,13 @@
         <v>625</v>
       </c>
       <c r="N77">
-        <v>110.463830597</v>
+        <v>5.97280102657e-12</v>
       </c>
       <c r="O77">
-        <v>134.5650299999818</v>
+        <v>7.275957614185271e-12</v>
       </c>
       <c r="P77">
-        <v>89.71001999998786</v>
+        <v>4.850638409456847e-12</v>
       </c>
       <c r="Q77">
         <v>12.8889432</v>
@@ -7075,10 +7075,10 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA77">
-        <v>4995.88637</v>
+        <v>4913.06425</v>
       </c>
       <c r="AB77">
-        <v>4995.88637</v>
+        <v>4913.06425</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7101,10 +7101,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G78">
-        <v>4261.9390692</v>
+        <v>4372.4028998</v>
       </c>
       <c r="H78">
-        <v>2945.13326091</v>
+        <v>3079.69829091</v>
       </c>
       <c r="I78">
         <v>1247.0532877</v>
@@ -7122,13 +7122,13 @@
         <v>1250</v>
       </c>
       <c r="N78">
-        <v>610.463830597</v>
+        <v>500</v>
       </c>
       <c r="O78">
-        <v>743.6559390908907</v>
+        <v>609.0909090909089</v>
       </c>
       <c r="P78">
-        <v>495.7706260605938</v>
+        <v>406.060606060606</v>
       </c>
       <c r="Q78">
         <v>7.8974229</v>
@@ -7161,7 +7161,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA78">
-        <v>2945.13326091</v>
+        <v>3079.69829091</v>
       </c>
       <c r="AB78">
         <v>1000</v>
@@ -8445,7 +8445,7 @@
         <v>303.018084337</v>
       </c>
       <c r="Y93">
-        <v>0.380992000004</v>
+        <v>0.380992000008</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -15023,10 +15023,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G73">
-        <v>5048.5761411</v>
+        <v>5308.3645996</v>
       </c>
       <c r="H73">
-        <v>4364.73602327</v>
+        <v>4681.2056</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -15044,13 +15044,13 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>809.788458507</v>
+        <v>550</v>
       </c>
       <c r="O73">
-        <v>986.4695767267089</v>
+        <v>669.9999999999999</v>
       </c>
       <c r="P73">
-        <v>657.6463844844726</v>
+        <v>446.6666666666666</v>
       </c>
       <c r="Q73">
         <v>48.61932768</v>
@@ -15083,7 +15083,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA73">
-        <v>4364.73602327</v>
+        <v>4681.2056</v>
       </c>
       <c r="AB73">
         <v>1000</v>
@@ -15109,10 +15109,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>6159.48124572</v>
+        <v>6427.88796759</v>
       </c>
       <c r="H74">
-        <v>5208.51073236</v>
+        <v>5142.25303636</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -15130,22 +15130,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>309.788458507</v>
+        <v>50</v>
       </c>
       <c r="O74">
-        <v>377.3786676357998</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P74">
-        <v>251.5857784238666</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q74">
         <v>37.6022046</v>
       </c>
       <c r="R74">
-        <v>300.706976744</v>
+        <v>309.851022748</v>
       </c>
       <c r="S74">
-        <v>1293.0399999992</v>
+        <v>1332.3593978164</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -15163,16 +15163,16 @@
         <v>995.3639666179999</v>
       </c>
       <c r="Y74">
-        <v>800</v>
+        <v>760.6806021816001</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA74">
-        <v>5208.51073236</v>
+        <v>5142.25303636</v>
       </c>
       <c r="AB74">
-        <v>5208.510732363636</v>
+        <v>5142.253036363636</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -15195,10 +15195,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>5873.13400428</v>
+        <v>6149.19558139</v>
       </c>
       <c r="H75">
-        <v>4984.23568236</v>
+        <v>4917.97798636</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -15216,22 +15216,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>309.788458507</v>
+        <v>50</v>
       </c>
       <c r="O75">
-        <v>377.3786676357998</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P75">
-        <v>251.5857784238666</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q75">
         <v>27.74133405</v>
       </c>
       <c r="R75">
-        <v>294.249302326</v>
+        <v>311.515210655</v>
       </c>
       <c r="S75">
-        <v>1265.2720000018</v>
+        <v>1339.5154058165</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -15249,16 +15249,16 @@
         <v>993.373238685</v>
       </c>
       <c r="Y75">
-        <v>800</v>
+        <v>725.7565941816001</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA75">
-        <v>4984.23568236</v>
+        <v>4917.97798636</v>
       </c>
       <c r="AB75">
-        <v>4984.235682363636</v>
+        <v>4917.977986363636</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -15281,10 +15281,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>5252.12883799</v>
+        <v>5535.84527035</v>
       </c>
       <c r="H76">
-        <v>4759.96063236</v>
+        <v>4693.70293636</v>
       </c>
       <c r="I76">
         <v>10.2639128</v>
@@ -15302,22 +15302,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>309.788458507</v>
+        <v>50</v>
       </c>
       <c r="O76">
-        <v>377.3786676357998</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P76">
-        <v>251.5857784238666</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q76">
         <v>17.8804635</v>
       </c>
       <c r="R76">
-        <v>287.791627907</v>
+        <v>313.179398562</v>
       </c>
       <c r="S76">
-        <v>1237.5040000001</v>
+        <v>1346.6714138166</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -15335,16 +15335,16 @@
         <v>991.3864922069999</v>
       </c>
       <c r="Y76">
-        <v>800</v>
+        <v>690.8325861816</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA76">
-        <v>4759.96063236</v>
+        <v>4693.70293636</v>
       </c>
       <c r="AB76">
-        <v>4759.960632363636</v>
+        <v>4693.702936363636</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -15367,10 +15367,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>4955.40433807</v>
+        <v>5079.46583016</v>
       </c>
       <c r="H77">
-        <v>4535.68558236</v>
+        <v>4469.42788636</v>
       </c>
       <c r="I77">
         <v>628.6586002499999</v>
@@ -15388,13 +15388,13 @@
         <v>625</v>
       </c>
       <c r="N77">
-        <v>488.240596567</v>
+        <v>364.179104478</v>
       </c>
       <c r="O77">
-        <v>594.7658176361634</v>
+        <v>443.6363636368363</v>
       </c>
       <c r="P77">
-        <v>396.5105450907757</v>
+        <v>295.7575757578908</v>
       </c>
       <c r="Q77">
         <v>12.8889432</v>
@@ -15424,13 +15424,13 @@
         <v>800</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA77">
-        <v>4535.68558236</v>
+        <v>4469.42788636</v>
       </c>
       <c r="AB77">
-        <v>4535.685582363636</v>
+        <v>4469.427886363636</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -15453,10 +15453,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G78">
-        <v>3884.16230323</v>
+        <v>4008.22379532</v>
       </c>
       <c r="H78">
-        <v>2484.93247327</v>
+        <v>2636.06192727</v>
       </c>
       <c r="I78">
         <v>1247.0532877</v>
@@ -15474,13 +15474,13 @@
         <v>1250</v>
       </c>
       <c r="N78">
-        <v>988.240596567</v>
+        <v>864.179104478</v>
       </c>
       <c r="O78">
-        <v>1203.856726727073</v>
+        <v>1052.727272727745</v>
       </c>
       <c r="P78">
-        <v>802.5711511513817</v>
+        <v>701.8181818184969</v>
       </c>
       <c r="Q78">
         <v>7.8974229</v>
@@ -15513,7 +15513,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA78">
-        <v>2484.93247327</v>
+        <v>2636.06192727</v>
       </c>
       <c r="AB78">
         <v>1000</v>
@@ -16797,7 +16797,7 @@
         <v>303.018084337</v>
       </c>
       <c r="Y93">
-        <v>0.380992000004</v>
+        <v>0.380992000008</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -23375,10 +23375,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G73">
-        <v>4858.3645996</v>
+        <v>5308.3645996</v>
       </c>
       <c r="H73">
-        <v>4133.02378182</v>
+        <v>4681.2056</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -23396,13 +23396,13 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="O73">
-        <v>1218.181818181818</v>
+        <v>669.9999999999999</v>
       </c>
       <c r="P73">
-        <v>812.121212121212</v>
+        <v>446.6666666666666</v>
       </c>
       <c r="Q73">
         <v>48.61932768</v>
@@ -23435,7 +23435,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA73">
-        <v>4133.02378182</v>
+        <v>4681.2056</v>
       </c>
       <c r="AB73">
         <v>1000</v>
@@ -23461,10 +23461,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>5781.70447975</v>
+        <v>6521.2373122</v>
       </c>
       <c r="H74">
-        <v>4748.30994473</v>
+        <v>4698.61667273</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -23482,22 +23482,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>687.565224478</v>
+        <v>50</v>
       </c>
       <c r="O74">
-        <v>837.5794552731998</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P74">
-        <v>558.3863035154666</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q74">
         <v>37.6022046</v>
       </c>
       <c r="R74">
-        <v>300.706976744</v>
+        <v>408.895420211</v>
       </c>
       <c r="S74">
-        <v>1293.0399999992</v>
+        <v>1758.2503069073</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -23515,16 +23515,16 @@
         <v>995.3639666179999</v>
       </c>
       <c r="Y74">
-        <v>800</v>
+        <v>334.7896930912</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA74">
-        <v>4748.30994473</v>
+        <v>4698.61667273</v>
       </c>
       <c r="AB74">
-        <v>4748.309944727272</v>
+        <v>4698.616672727272</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -23547,10 +23547,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>5495.35723831</v>
+        <v>6242.544926</v>
       </c>
       <c r="H75">
-        <v>4524.03489473</v>
+        <v>4474.34162273</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -23568,22 +23568,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>687.565224478</v>
+        <v>50</v>
       </c>
       <c r="O75">
-        <v>837.5794552731998</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P75">
-        <v>558.3863035154666</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q75">
         <v>27.74133405</v>
       </c>
       <c r="R75">
-        <v>294.249302326</v>
+        <v>410.559608118</v>
       </c>
       <c r="S75">
-        <v>1265.2720000018</v>
+        <v>1765.4063149074</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -23601,16 +23601,16 @@
         <v>993.373238685</v>
       </c>
       <c r="Y75">
-        <v>800</v>
+        <v>299.8656850912</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA75">
-        <v>4524.03489473</v>
+        <v>4474.34162273</v>
       </c>
       <c r="AB75">
-        <v>4524.034894727271</v>
+        <v>4474.341622727272</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -23633,10 +23633,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>4874.35207202</v>
+        <v>5629.19461495</v>
       </c>
       <c r="H76">
-        <v>4299.75984473</v>
+        <v>4250.06657273</v>
       </c>
       <c r="I76">
         <v>10.2639128</v>
@@ -23654,22 +23654,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>687.565224478</v>
+        <v>50</v>
       </c>
       <c r="O76">
-        <v>837.5794552731998</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P76">
-        <v>558.3863035154666</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q76">
         <v>17.8804635</v>
       </c>
       <c r="R76">
-        <v>287.791627907</v>
+        <v>412.223796025</v>
       </c>
       <c r="S76">
-        <v>1237.5040000001</v>
+        <v>1772.5623229075</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -23687,16 +23687,16 @@
         <v>991.3864922069999</v>
       </c>
       <c r="Y76">
-        <v>800</v>
+        <v>264.9416770912</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA76">
-        <v>4299.75984473</v>
+        <v>4250.06657273</v>
       </c>
       <c r="AB76">
-        <v>4299.759844727272</v>
+        <v>4250.066572727272</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -23719,10 +23719,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>4756.07971016</v>
+        <v>4953.22945505</v>
       </c>
       <c r="H77">
-        <v>4075.48479473</v>
+        <v>4025.79152273</v>
       </c>
       <c r="I77">
         <v>628.6586002499999</v>
@@ -23740,22 +23740,22 @@
         <v>625</v>
       </c>
       <c r="N77">
-        <v>687.565224478</v>
+        <v>500</v>
       </c>
       <c r="O77">
-        <v>837.5794552731998</v>
+        <v>609.0909090909089</v>
       </c>
       <c r="P77">
-        <v>558.3863035154666</v>
+        <v>406.060606060606</v>
       </c>
       <c r="Q77">
         <v>12.8889432</v>
       </c>
       <c r="R77">
-        <v>264.098604651</v>
+        <v>274.267857082</v>
       </c>
       <c r="S77">
-        <v>1135.6239999993</v>
+        <v>1179.3517854526</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -23773,16 +23773,16 @@
         <v>989.4037192230001</v>
       </c>
       <c r="Y77">
-        <v>800</v>
+        <v>756.2722145456</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA77">
-        <v>4075.48479473</v>
+        <v>4025.79152273</v>
       </c>
       <c r="AB77">
-        <v>4075.484794727272</v>
+        <v>4025.791522727272</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -25149,7 +25149,7 @@
         <v>303.018084337</v>
       </c>
       <c r="Y93">
-        <v>0.380992000004</v>
+        <v>0.380992000008</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -25624,7 +25624,7 @@
         <v>6598.81410477</v>
       </c>
       <c r="H2">
-        <v>3596.21698909</v>
+        <v>3646.21698909</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>3596.21698909</v>
+        <v>3646.21698909</v>
       </c>
       <c r="AB2">
         <v>1000</v>
@@ -25710,7 +25710,7 @@
         <v>6124.08120552</v>
       </c>
       <c r="H3">
-        <v>3619.84098909</v>
+        <v>3669.84098909</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -25764,10 +25764,10 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>3619.84098909</v>
+        <v>3669.84098909</v>
       </c>
       <c r="AB3">
         <v>1000</v>
@@ -25796,7 +25796,7 @@
         <v>5649.34830626</v>
       </c>
       <c r="H4">
-        <v>3643.46498909</v>
+        <v>3693.46498909</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -25850,10 +25850,10 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>3643.46498909</v>
+        <v>3693.46498909</v>
       </c>
       <c r="AB4">
         <v>1000</v>
@@ -25882,7 +25882,7 @@
         <v>6374.87732005</v>
       </c>
       <c r="H5">
-        <v>3667.08898909</v>
+        <v>3717.08898909</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -25936,10 +25936,10 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>3667.08898909</v>
+        <v>3717.08898909</v>
       </c>
       <c r="AB5">
         <v>1000</v>
@@ -25968,7 +25968,7 @@
         <v>7100.40633384</v>
       </c>
       <c r="H6">
-        <v>3670.71298909</v>
+        <v>3720.71298909</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>3670.71298909</v>
+        <v>3720.71298909</v>
       </c>
       <c r="AB6">
         <v>1000</v>
@@ -26054,7 +26054,7 @@
         <v>6875.90908939</v>
       </c>
       <c r="H7">
-        <v>3684.33698909</v>
+        <v>3734.33698909</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -26108,10 +26108,10 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>3684.33698909</v>
+        <v>3734.33698909</v>
       </c>
       <c r="AB7">
         <v>1000</v>
@@ -26140,7 +26140,7 @@
         <v>6651.41184493</v>
       </c>
       <c r="H8">
-        <v>3697.96098909</v>
+        <v>3747.96098909</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -26194,10 +26194,10 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>3697.96098909</v>
+        <v>3747.96098909</v>
       </c>
       <c r="AB8">
         <v>1000</v>
@@ -26226,7 +26226,7 @@
         <v>6619.43717922</v>
       </c>
       <c r="H9">
-        <v>3593.58498909</v>
+        <v>3643.58498909</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -26280,10 +26280,10 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>3593.58498909</v>
+        <v>3643.58498909</v>
       </c>
       <c r="AB9">
         <v>1000</v>
@@ -26312,7 +26312,7 @@
         <v>6629.55258674</v>
       </c>
       <c r="H10">
-        <v>3543.20898909</v>
+        <v>3593.20898909</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>3543.20898909</v>
+        <v>3593.20898909</v>
       </c>
       <c r="AB10">
         <v>1000</v>
@@ -26398,7 +26398,7 @@
         <v>6717.61703342</v>
       </c>
       <c r="H11">
-        <v>3508.83298909</v>
+        <v>3558.83298909</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -26452,10 +26452,10 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>3508.83298909</v>
+        <v>3558.83298909</v>
       </c>
       <c r="AB11">
         <v>1000</v>
@@ -26484,7 +26484,7 @@
         <v>6690.06535177</v>
       </c>
       <c r="H12">
-        <v>3462.45698909</v>
+        <v>3512.45698909</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -26538,10 +26538,10 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>3462.45698909</v>
+        <v>3512.45698909</v>
       </c>
       <c r="AB12">
         <v>1000</v>
@@ -26570,7 +26570,7 @@
         <v>6899.76513708</v>
       </c>
       <c r="H13">
-        <v>3386.08098909</v>
+        <v>3436.08098909</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -26624,10 +26624,10 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>3386.08098909</v>
+        <v>3436.08098909</v>
       </c>
       <c r="AB13">
         <v>1000</v>
@@ -26656,7 +26656,7 @@
         <v>7309.46492238</v>
       </c>
       <c r="H14">
-        <v>3399.70498909</v>
+        <v>3449.70498909</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>3399.70498909</v>
+        <v>3449.70498909</v>
       </c>
       <c r="AB14">
         <v>1000</v>
@@ -26742,7 +26742,7 @@
         <v>6864.19239331</v>
       </c>
       <c r="H15">
-        <v>3325.17898909</v>
+        <v>3375.17898909</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>3325.17898909</v>
+        <v>3375.17898909</v>
       </c>
       <c r="AB15">
         <v>1000</v>
@@ -26828,7 +26828,7 @@
         <v>6590.83846889</v>
       </c>
       <c r="H16">
-        <v>3408.75298909</v>
+        <v>3458.75298909</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -26882,10 +26882,10 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>3408.75298909</v>
+        <v>3458.75298909</v>
       </c>
       <c r="AB16">
         <v>1000</v>
@@ -26914,7 +26914,7 @@
         <v>7084.32779146</v>
       </c>
       <c r="H17">
-        <v>3417.49850909</v>
+        <v>3467.49850909</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>4.137216</v>
       </c>
       <c r="Z17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>3417.49850909</v>
+        <v>3467.49850909</v>
       </c>
       <c r="AB17">
         <v>1000</v>
@@ -27000,7 +27000,7 @@
         <v>6827.9478401</v>
       </c>
       <c r="H18">
-        <v>3444.49850909</v>
+        <v>3494.49850909</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -27054,10 +27054,10 @@
         <v>7.678016</v>
       </c>
       <c r="Z18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>3444.49850909</v>
+        <v>3494.49850909</v>
       </c>
       <c r="AB18">
         <v>1000</v>
@@ -27086,7 +27086,7 @@
         <v>6836.55053989</v>
       </c>
       <c r="H19">
-        <v>3471.49850909</v>
+        <v>3521.49850909</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -27140,10 +27140,10 @@
         <v>14.418816</v>
       </c>
       <c r="Z19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>3471.49850909</v>
+        <v>3521.49850909</v>
       </c>
       <c r="AB19">
         <v>1000</v>
@@ -27172,7 +27172,7 @@
         <v>6170.20858852</v>
       </c>
       <c r="H20">
-        <v>3478.49850909</v>
+        <v>3528.49850909</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -27226,10 +27226,10 @@
         <v>23.559616</v>
       </c>
       <c r="Z20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>3478.49850909</v>
+        <v>3528.49850909</v>
       </c>
       <c r="AB20">
         <v>1000</v>
@@ -27258,7 +27258,7 @@
         <v>6124.72437324</v>
       </c>
       <c r="H21">
-        <v>3425.49850909</v>
+        <v>3475.49850909</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -27312,10 +27312,10 @@
         <v>27.900416</v>
       </c>
       <c r="Z21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>3425.49850909</v>
+        <v>3475.49850909</v>
       </c>
       <c r="AB21">
         <v>1000</v>
@@ -27344,7 +27344,7 @@
         <v>6076.43457658</v>
       </c>
       <c r="H22">
-        <v>3452.49850909</v>
+        <v>3502.49850909</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -27398,10 +27398,10 @@
         <v>45.041216</v>
       </c>
       <c r="Z22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>3452.49850909</v>
+        <v>3502.49850909</v>
       </c>
       <c r="AB22">
         <v>1000</v>
@@ -27430,7 +27430,7 @@
         <v>5824.56167394</v>
       </c>
       <c r="H23">
-        <v>3379.49850909</v>
+        <v>3429.49850909</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -27484,10 +27484,10 @@
         <v>43.782016</v>
       </c>
       <c r="Z23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>3379.49850909</v>
+        <v>3429.49850909</v>
       </c>
       <c r="AB23">
         <v>1000</v>
@@ -27516,7 +27516,7 @@
         <v>5569.88318991</v>
       </c>
       <c r="H24">
-        <v>3406.49850909</v>
+        <v>3456.49850909</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -27570,10 +27570,10 @@
         <v>55.322816</v>
       </c>
       <c r="Z24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>3406.49850909</v>
+        <v>3456.49850909</v>
       </c>
       <c r="AB24">
         <v>1000</v>
@@ -27602,7 +27602,7 @@
         <v>5720.26617518</v>
       </c>
       <c r="H25">
-        <v>3333.49850909</v>
+        <v>3383.49850909</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -27656,10 +27656,10 @@
         <v>42.063616</v>
       </c>
       <c r="Z25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>3333.49850909</v>
+        <v>3383.49850909</v>
       </c>
       <c r="AB25">
         <v>1000</v>
@@ -27688,7 +27688,7 @@
         <v>5867.14218371</v>
       </c>
       <c r="H26">
-        <v>3360.49850909</v>
+        <v>3410.49850909</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>44.804416</v>
       </c>
       <c r="Z26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>3360.49850909</v>
+        <v>3410.49850909</v>
       </c>
       <c r="AB26">
         <v>1000</v>
@@ -27774,7 +27774,7 @@
         <v>5759.24314549</v>
       </c>
       <c r="H27">
-        <v>3287.49850909</v>
+        <v>3337.49850909</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>42.96121600000001</v>
       </c>
       <c r="Z27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>3287.49850909</v>
+        <v>3337.49850909</v>
       </c>
       <c r="AB27">
         <v>1000</v>
@@ -27860,7 +27860,7 @@
         <v>5650.31761519</v>
       </c>
       <c r="H28">
-        <v>3214.49850909</v>
+        <v>3264.49850909</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -27914,10 +27914,10 @@
         <v>45.801216</v>
       </c>
       <c r="Z28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>3214.49850909</v>
+        <v>3264.49850909</v>
       </c>
       <c r="AB28">
         <v>1000</v>
@@ -27946,7 +27946,7 @@
         <v>5622.34742217</v>
       </c>
       <c r="H29">
-        <v>3241.49850909</v>
+        <v>3291.49850909</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -28000,10 +28000,10 @@
         <v>48.641216</v>
       </c>
       <c r="Z29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>3241.49850909</v>
+        <v>3291.49850909</v>
       </c>
       <c r="AB29">
         <v>1000</v>
@@ -28032,7 +28032,7 @@
         <v>5594.37722909</v>
       </c>
       <c r="H30">
-        <v>3268.49850909</v>
+        <v>3318.49850909</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -28086,10 +28086,10 @@
         <v>51.481216</v>
       </c>
       <c r="Z30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>3268.49850909</v>
+        <v>3318.49850909</v>
       </c>
       <c r="AB30">
         <v>1000</v>
@@ -28118,7 +28118,7 @@
         <v>5854.1792177</v>
       </c>
       <c r="H31">
-        <v>3195.49850909</v>
+        <v>3245.49850909</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -28172,10 +28172,10 @@
         <v>38.321216</v>
       </c>
       <c r="Z31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>3195.49850909</v>
+        <v>3245.49850909</v>
       </c>
       <c r="AB31">
         <v>1000</v>
@@ -28204,7 +28204,7 @@
         <v>6134.89283422</v>
       </c>
       <c r="H32">
-        <v>3222.49850909</v>
+        <v>3272.49850909</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -28258,10 +28258,10 @@
         <v>41.161216</v>
       </c>
       <c r="Z32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>3222.49850909</v>
+        <v>3272.49850909</v>
       </c>
       <c r="AB32">
         <v>1000</v>
@@ -28290,7 +28290,7 @@
         <v>6218.59669149</v>
       </c>
       <c r="H33">
-        <v>3249.49850909</v>
+        <v>3299.49850909</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -28344,10 +28344,10 @@
         <v>44.001216</v>
       </c>
       <c r="Z33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>3249.49850909</v>
+        <v>3299.49850909</v>
       </c>
       <c r="AB33">
         <v>1000</v>
@@ -28376,7 +28376,7 @@
         <v>5005.80752561</v>
       </c>
       <c r="H34">
-        <v>2567.4076</v>
+        <v>2617.4076</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -28430,10 +28430,10 @@
         <v>30.841216</v>
       </c>
       <c r="Z34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>2567.4076</v>
+        <v>2617.4076</v>
       </c>
       <c r="AB34">
         <v>1000</v>
@@ -28462,7 +28462,7 @@
         <v>3922.19834642</v>
       </c>
       <c r="H35">
-        <v>1946.22578182</v>
+        <v>1996.22578182</v>
       </c>
       <c r="I35">
         <v>195.68059635</v>
@@ -28516,10 +28516,10 @@
         <v>17.681216</v>
       </c>
       <c r="Z35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>1946.22578182</v>
+        <v>1996.22578182</v>
       </c>
       <c r="AB35">
         <v>1000</v>
@@ -28548,7 +28548,7 @@
         <v>3938.43558594</v>
       </c>
       <c r="H36">
-        <v>1873.22578182</v>
+        <v>1923.22578182</v>
       </c>
       <c r="I36">
         <v>212.6626359</v>
@@ -28602,10 +28602,10 @@
         <v>4.521216</v>
       </c>
       <c r="Z36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>1873.22578182</v>
+        <v>1923.22578182</v>
       </c>
       <c r="AB36">
         <v>1000</v>
@@ -28634,7 +28634,7 @@
         <v>4216.54426087</v>
       </c>
       <c r="H37">
-        <v>1811.02426182</v>
+        <v>1861.02426182</v>
       </c>
       <c r="I37">
         <v>220.6708089</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>1811.02426182</v>
+        <v>1861.02426182</v>
       </c>
       <c r="AB37">
         <v>1000</v>
@@ -28720,7 +28720,7 @@
         <v>4271.42598423</v>
       </c>
       <c r="H38">
-        <v>1927.22578182</v>
+        <v>1977.22578182</v>
       </c>
       <c r="I38">
         <v>228.6789818</v>
@@ -28774,10 +28774,10 @@
         <v>10.201216</v>
       </c>
       <c r="Z38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>1927.22578182</v>
+        <v>1977.22578182</v>
       </c>
       <c r="AB38">
         <v>1000</v>
@@ -28806,7 +28806,7 @@
         <v>4245.62911116</v>
       </c>
       <c r="H39">
-        <v>2012.32018182</v>
+        <v>2062.32018182</v>
       </c>
       <c r="I39">
         <v>243.2988001</v>
@@ -28860,10 +28860,10 @@
         <v>22.33632</v>
       </c>
       <c r="Z39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>2012.32018182</v>
+        <v>2062.32018182</v>
       </c>
       <c r="AB39">
         <v>1000</v>
@@ -28892,7 +28892,7 @@
         <v>4349.17021927</v>
       </c>
       <c r="H40">
-        <v>1979.09018182</v>
+        <v>2029.09018182</v>
       </c>
       <c r="I40">
         <v>257.9186185</v>
@@ -28946,10 +28946,10 @@
         <v>12.33952</v>
       </c>
       <c r="Z40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>1979.09018182</v>
+        <v>2029.09018182</v>
       </c>
       <c r="AB40">
         <v>1000</v>
@@ -28978,7 +28978,7 @@
         <v>4175.00478525</v>
       </c>
       <c r="H41">
-        <v>2145.86018182</v>
+        <v>2195.86018182</v>
       </c>
       <c r="I41">
         <v>268.6624674</v>
@@ -29032,10 +29032,10 @@
         <v>35.14272</v>
       </c>
       <c r="Z41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>2145.86018182</v>
+        <v>2195.86018182</v>
       </c>
       <c r="AB41">
         <v>1000</v>
@@ -29064,7 +29064,7 @@
         <v>4251.78074658</v>
       </c>
       <c r="H42">
-        <v>2312.63018182</v>
+        <v>2362.63018182</v>
       </c>
       <c r="I42">
         <v>279.4063163</v>
@@ -29118,10 +29118,10 @@
         <v>48.34592000000001</v>
       </c>
       <c r="Z42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>2312.63018182</v>
+        <v>2362.63018182</v>
       </c>
       <c r="AB42">
         <v>1000</v>
@@ -29150,7 +29150,7 @@
         <v>4430.9264938</v>
       </c>
       <c r="H43">
-        <v>2479.40018182</v>
+        <v>2529.40018182</v>
       </c>
       <c r="I43">
         <v>286.75172815</v>
@@ -29204,10 +29204,10 @@
         <v>66.34912000000001</v>
       </c>
       <c r="Z43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>2479.40018182</v>
+        <v>2529.40018182</v>
       </c>
       <c r="AB43">
         <v>1000</v>
@@ -29236,7 +29236,7 @@
         <v>4818.68950011</v>
       </c>
       <c r="H44">
-        <v>2450.45258182</v>
+        <v>2500.45258182</v>
       </c>
       <c r="I44">
         <v>294.09714</v>
@@ -29290,10 +29290,10 @@
         <v>45.03750400000001</v>
       </c>
       <c r="Z44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>2450.45258182</v>
+        <v>2500.45258182</v>
       </c>
       <c r="AB44">
         <v>1000</v>
@@ -29322,7 +29322,7 @@
         <v>4557.17687128</v>
       </c>
       <c r="H45">
-        <v>2621.08450182</v>
+        <v>2671.08450182</v>
       </c>
       <c r="I45">
         <v>296.11326825</v>
@@ -29376,10 +29376,10 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>2621.08450182</v>
+        <v>2671.08450182</v>
       </c>
       <c r="AB45">
         <v>1000</v>
@@ -29408,7 +29408,7 @@
         <v>4483.58909729</v>
       </c>
       <c r="H46">
-        <v>2767.31558182</v>
+        <v>2817.31558182</v>
       </c>
       <c r="I46">
         <v>298.1293965</v>
@@ -29462,10 +29462,10 @@
         <v>10.053344</v>
       </c>
       <c r="Z46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>2767.31558182</v>
+        <v>2817.31558182</v>
       </c>
       <c r="AB46">
         <v>1000</v>
@@ -29494,7 +29494,7 @@
         <v>4804.62002543</v>
       </c>
       <c r="H47">
-        <v>2925.74708182</v>
+        <v>2975.74708182</v>
       </c>
       <c r="I47">
         <v>304.8120885</v>
@@ -29548,10 +29548,10 @@
         <v>28.715024</v>
       </c>
       <c r="Z47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>2925.74708182</v>
+        <v>2975.74708182</v>
       </c>
       <c r="AB47">
         <v>1000</v>
@@ -29580,7 +29580,7 @@
         <v>4725.65095357</v>
       </c>
       <c r="H48">
-        <v>3084.17858182</v>
+        <v>3134.17858182</v>
       </c>
       <c r="I48">
         <v>311.4947805</v>
@@ -29634,10 +29634,10 @@
         <v>47.376704</v>
       </c>
       <c r="Z48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>3084.17858182</v>
+        <v>3134.17858182</v>
       </c>
       <c r="AB48">
         <v>1000</v>
@@ -29666,7 +29666,7 @@
         <v>4603.63798739</v>
       </c>
       <c r="H49">
-        <v>3242.61008182</v>
+        <v>3292.61008182</v>
       </c>
       <c r="I49">
         <v>318.9141817</v>
@@ -29720,10 +29720,10 @@
         <v>59.817584</v>
       </c>
       <c r="Z49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>3242.61008182</v>
+        <v>3292.61008182</v>
       </c>
       <c r="AB49">
         <v>1000</v>
@@ -29752,7 +29752,7 @@
         <v>4463.13576577</v>
       </c>
       <c r="H50">
-        <v>3928.25510182</v>
+        <v>3978.25510182</v>
       </c>
       <c r="I50">
         <v>326.3335828</v>
@@ -29806,10 +29806,10 @@
         <v>156.6126272</v>
       </c>
       <c r="Z50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>3928.25510182</v>
+        <v>3978.25510182</v>
       </c>
       <c r="AB50">
         <v>1000</v>
@@ -29838,7 +29838,7 @@
         <v>4322.29385339</v>
       </c>
       <c r="H51">
-        <v>4044.76766182</v>
+        <v>4094.76766182</v>
       </c>
       <c r="I51">
         <v>327.3638722</v>
@@ -29892,10 +29892,10 @@
         <v>163.7115968</v>
       </c>
       <c r="Z51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>4044.76766182</v>
+        <v>4094.76766182</v>
       </c>
       <c r="AB51">
         <v>1000</v>
@@ -29924,7 +29924,7 @@
         <v>4174.43798751</v>
       </c>
       <c r="H52">
-        <v>4161.28022182</v>
+        <v>4211.28022182</v>
       </c>
       <c r="I52">
         <v>328.3941616</v>
@@ -29978,10 +29978,10 @@
         <v>202.8105664</v>
       </c>
       <c r="Z52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>4161.28022182</v>
+        <v>4211.28022182</v>
       </c>
       <c r="AB52">
         <v>1000</v>
@@ -30010,7 +30010,7 @@
         <v>4281.7266067</v>
       </c>
       <c r="H53">
-        <v>4277.79278182</v>
+        <v>4327.79278182</v>
       </c>
       <c r="I53">
         <v>328.359253</v>
@@ -30064,10 +30064,10 @@
         <v>212.282656</v>
       </c>
       <c r="Z53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>4277.79278182</v>
+        <v>4327.79278182</v>
       </c>
       <c r="AB53">
         <v>1000</v>
@@ -30096,7 +30096,7 @@
         <v>4287.75271437</v>
       </c>
       <c r="H54">
-        <v>4394.30534182</v>
+        <v>4444.30534182</v>
       </c>
       <c r="I54">
         <v>328.3243443</v>
@@ -30150,10 +30150,10 @@
         <v>227.5147456</v>
       </c>
       <c r="Z54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>4394.30534182</v>
+        <v>4444.30534182</v>
       </c>
       <c r="AB54">
         <v>1000</v>
@@ -30182,7 +30182,7 @@
         <v>4347.22744317</v>
       </c>
       <c r="H55">
-        <v>4510.81790182</v>
+        <v>4560.81790182</v>
       </c>
       <c r="I55">
         <v>324.834954</v>
@@ -30236,10 +30236,10 @@
         <v>242.7468352</v>
       </c>
       <c r="Z55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>4510.81790182</v>
+        <v>4560.81790182</v>
       </c>
       <c r="AB55">
         <v>1000</v>
@@ -30268,7 +30268,7 @@
         <v>4406.70217207</v>
       </c>
       <c r="H56">
-        <v>4627.33046182</v>
+        <v>4677.33046182</v>
       </c>
       <c r="I56">
         <v>321.3455636</v>
@@ -30322,10 +30322,10 @@
         <v>257.9789248</v>
       </c>
       <c r="Z56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>4627.33046182</v>
+        <v>4677.33046182</v>
       </c>
       <c r="AB56">
         <v>1000</v>
@@ -30354,7 +30354,7 @@
         <v>3792.77317305</v>
       </c>
       <c r="H57">
-        <v>4743.84302182</v>
+        <v>4793.84302182</v>
       </c>
       <c r="I57">
         <v>934.46762205</v>
@@ -30408,10 +30408,10 @@
         <v>273.2110144</v>
       </c>
       <c r="Z57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>4743.84302182</v>
+        <v>4793.84302182</v>
       </c>
       <c r="AB57">
         <v>1000</v>
@@ -30440,7 +30440,7 @@
         <v>3656.55504063</v>
       </c>
       <c r="H58">
-        <v>4860.35558182</v>
+        <v>4910.35558182</v>
       </c>
       <c r="I58">
         <v>1547.5896805</v>
@@ -30494,10 +30494,10 @@
         <v>289.337824</v>
       </c>
       <c r="Z58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>4860.35558182</v>
+        <v>4910.35558182</v>
       </c>
       <c r="AB58">
         <v>1000</v>
@@ -30526,7 +30526,7 @@
         <v>3715.32908243</v>
       </c>
       <c r="H59">
-        <v>4976.86814182</v>
+        <v>5026.86814182</v>
       </c>
       <c r="I59">
         <v>1542.79416195</v>
@@ -30580,10 +30580,10 @@
         <v>288.0310336</v>
       </c>
       <c r="Z59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>4976.86814182</v>
+        <v>5026.86814182</v>
       </c>
       <c r="AB59">
         <v>1000</v>
@@ -30612,7 +30612,7 @@
         <v>3772.7403314</v>
       </c>
       <c r="H60">
-        <v>4970.24018182</v>
+        <v>5020.24018182</v>
       </c>
       <c r="I60">
         <v>1537.9986433</v>
@@ -30666,10 +30666,10 @@
         <v>292.94176</v>
       </c>
       <c r="Z60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>4970.24018182</v>
+        <v>5020.24018182</v>
       </c>
       <c r="AB60">
         <v>1000</v>
@@ -30698,7 +30698,7 @@
         <v>3951.29275918</v>
       </c>
       <c r="H61">
-        <v>4963.61222182</v>
+        <v>5013.61222182</v>
       </c>
       <c r="I61">
         <v>1516.58460035</v>
@@ -30752,10 +30752,10 @@
         <v>288.9296064</v>
       </c>
       <c r="Z61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>4963.61222182</v>
+        <v>5013.61222182</v>
       </c>
       <c r="AB61">
         <v>1000</v>
@@ -30784,7 +30784,7 @@
         <v>4036.85914055</v>
       </c>
       <c r="H62">
-        <v>4956.98426182</v>
+        <v>5006.98426182</v>
       </c>
       <c r="I62">
         <v>1495.1705573</v>
@@ -30838,10 +30838,10 @@
         <v>252.9174528</v>
       </c>
       <c r="Z62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>4956.98426182</v>
+        <v>5006.98426182</v>
       </c>
       <c r="AB62">
         <v>1000</v>
@@ -30870,7 +30870,7 @@
         <v>4121.01780813</v>
       </c>
       <c r="H63">
-        <v>4950.35630182</v>
+        <v>5000.35630182</v>
       </c>
       <c r="I63">
         <v>1479.27287845</v>
@@ -30924,10 +30924,10 @@
         <v>197.7859392</v>
       </c>
       <c r="Z63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>4950.35630182</v>
+        <v>5000.35630182</v>
       </c>
       <c r="AB63">
         <v>1000</v>
@@ -30956,7 +30956,7 @@
         <v>4194.65554559</v>
       </c>
       <c r="H64">
-        <v>4943.72834182</v>
+        <v>4993.72834182</v>
       </c>
       <c r="I64">
         <v>1463.3751995</v>
@@ -31010,10 +31010,10 @@
         <v>190.6544256</v>
       </c>
       <c r="Z64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>4943.72834182</v>
+        <v>4993.72834182</v>
       </c>
       <c r="AB64">
         <v>1000</v>
@@ -31042,7 +31042,7 @@
         <v>4150.38074262</v>
       </c>
       <c r="H65">
-        <v>4937.10038182</v>
+        <v>4987.10038182</v>
       </c>
       <c r="I65">
         <v>1450.38907195</v>
@@ -31096,10 +31096,10 @@
         <v>195.653472</v>
       </c>
       <c r="Z65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>4937.10038182</v>
+        <v>4987.10038182</v>
       </c>
       <c r="AB65">
         <v>1000</v>
@@ -31128,7 +31128,7 @@
         <v>4106.10593975</v>
       </c>
       <c r="H66">
-        <v>4930.47242182</v>
+        <v>4980.47242182</v>
       </c>
       <c r="I66">
         <v>1437.4029443</v>
@@ -31182,10 +31182,10 @@
         <v>200.6525184</v>
       </c>
       <c r="Z66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>4930.47242182</v>
+        <v>4980.47242182</v>
       </c>
       <c r="AB66">
         <v>1000</v>
@@ -31214,7 +31214,7 @@
         <v>4054.74605567</v>
       </c>
       <c r="H67">
-        <v>4923.84446182</v>
+        <v>4973.84446182</v>
       </c>
       <c r="I67">
         <v>1420.85275405</v>
@@ -31268,10 +31268,10 @@
         <v>253.7552448</v>
       </c>
       <c r="Z67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>4923.84446182</v>
+        <v>4973.84446182</v>
       </c>
       <c r="AB67">
         <v>1000</v>
@@ -31300,7 +31300,7 @@
         <v>4013.90710171</v>
       </c>
       <c r="H68">
-        <v>4917.21650182</v>
+        <v>4967.21650182</v>
       </c>
       <c r="I68">
         <v>1404.3025639</v>
@@ -31354,10 +31354,10 @@
         <v>258.8579712</v>
       </c>
       <c r="Z68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>4917.21650182</v>
+        <v>4967.21650182</v>
       </c>
       <c r="AB68">
         <v>1000</v>
@@ -31386,7 +31386,7 @@
         <v>2965.87982118</v>
       </c>
       <c r="H69">
-        <v>4910.58854182</v>
+        <v>4960.58854182</v>
       </c>
       <c r="I69">
         <v>1379.9265954</v>
@@ -31440,10 +31440,10 @@
         <v>260.2109376</v>
       </c>
       <c r="Z69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>4910.58854182</v>
+        <v>4960.58854182</v>
       </c>
       <c r="AB69">
         <v>1000</v>
@@ -31472,7 +31472,7 @@
         <v>3358.63300577</v>
       </c>
       <c r="H70">
-        <v>4903.96058182</v>
+        <v>4953.96058182</v>
       </c>
       <c r="I70">
         <v>730.5506269</v>
@@ -31526,10 +31526,10 @@
         <v>290.363904</v>
       </c>
       <c r="Z70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>4903.96058182</v>
+        <v>4953.96058182</v>
       </c>
       <c r="AB70">
         <v>1000</v>
@@ -31558,7 +31558,7 @@
         <v>4216.98416982</v>
       </c>
       <c r="H71">
-        <v>4630.31498182</v>
+        <v>4680.31498182</v>
       </c>
       <c r="I71">
         <v>80.49037403</v>
@@ -31612,10 +31612,10 @@
         <v>311.388288</v>
       </c>
       <c r="Z71">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>4630.31498182</v>
+        <v>4680.31498182</v>
       </c>
       <c r="AB71">
         <v>1000</v>
@@ -31644,7 +31644,7 @@
         <v>4460.85626412</v>
       </c>
       <c r="H72">
-        <v>4356.66938182</v>
+        <v>4406.66938182</v>
       </c>
       <c r="I72">
         <v>55.43012115</v>
@@ -31698,10 +31698,10 @@
         <v>284.412672</v>
       </c>
       <c r="Z72">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>4356.66938182</v>
+        <v>4406.66938182</v>
       </c>
       <c r="AB72">
         <v>1000</v>
@@ -31727,10 +31727,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G73">
-        <v>4858.3645996</v>
+        <v>5230.46399513</v>
       </c>
       <c r="H73">
-        <v>4083.02378182</v>
+        <v>4586.3085</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -31748,13 +31748,13 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>1000</v>
+        <v>627.900604478</v>
       </c>
       <c r="O73">
-        <v>1218.181818181818</v>
+        <v>764.8971000004725</v>
       </c>
       <c r="P73">
-        <v>812.121212121212</v>
+        <v>509.931400000315</v>
       </c>
       <c r="Q73">
         <v>48.61932768</v>
@@ -31784,10 +31784,10 @@
         <v>265.589376</v>
       </c>
       <c r="Z73">
-        <v>50</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA73">
-        <v>4083.02378182</v>
+        <v>4586.3085</v>
       </c>
       <c r="AB73">
         <v>1000</v>
@@ -31813,10 +31813,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>5469.26970423</v>
+        <v>6516.71793696</v>
       </c>
       <c r="H74">
-        <v>4288.10915709</v>
+        <v>4254.98030909</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -31834,22 +31834,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>1000</v>
+        <v>127.900604478</v>
       </c>
       <c r="O74">
-        <v>1218.181818181818</v>
+        <v>155.8061909095636</v>
       </c>
       <c r="P74">
-        <v>812.121212121212</v>
+        <v>103.8707939397091</v>
       </c>
       <c r="Q74">
         <v>37.6022046</v>
       </c>
       <c r="R74">
-        <v>300.706976744</v>
+        <v>486.753488372</v>
       </c>
       <c r="S74">
-        <v>1293.0399999992</v>
+        <v>2093.0399999996</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -31867,16 +31867,16 @@
         <v>995.3639666179999</v>
       </c>
       <c r="Y74">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z74">
-        <v>79.5984247273</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>4288.10915709</v>
+        <v>4254.98030909</v>
       </c>
       <c r="AB74">
-        <v>4288.109157090908</v>
+        <v>4254.980309090908</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -31899,10 +31899,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>5182.92246279</v>
+        <v>6200.50719366</v>
       </c>
       <c r="H75">
-        <v>4063.83410709</v>
+        <v>4030.70525909</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -31920,22 +31920,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>1000</v>
+        <v>157.764106343</v>
       </c>
       <c r="O75">
-        <v>1218.181818181818</v>
+        <v>192.1853659087454</v>
       </c>
       <c r="P75">
-        <v>812.121212121212</v>
+        <v>128.1235772724969</v>
       </c>
       <c r="Q75">
         <v>27.74133405</v>
       </c>
       <c r="R75">
-        <v>294.249302326</v>
+        <v>480.295813953</v>
       </c>
       <c r="S75">
-        <v>1265.2720000018</v>
+        <v>2065.2719999979</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -31953,16 +31953,16 @@
         <v>993.373238685</v>
       </c>
       <c r="Y75">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z75">
-        <v>79.5984247273</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>4063.83410709</v>
+        <v>4030.70525909</v>
       </c>
       <c r="AB75">
-        <v>4063.834107090908</v>
+        <v>4030.705259090908</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -31985,10 +31985,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>4561.9172965</v>
+        <v>5549.6385255</v>
       </c>
       <c r="H76">
-        <v>3839.55905709</v>
+        <v>3806.43020909</v>
       </c>
       <c r="I76">
         <v>10.2639128</v>
@@ -32006,22 +32006,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>1000</v>
+        <v>187.627608209</v>
       </c>
       <c r="O76">
-        <v>1218.181818181818</v>
+        <v>228.5645409091454</v>
       </c>
       <c r="P76">
-        <v>812.121212121212</v>
+        <v>152.3763606060969</v>
       </c>
       <c r="Q76">
         <v>17.8804635</v>
       </c>
       <c r="R76">
-        <v>287.791627907</v>
+        <v>473.838139535</v>
       </c>
       <c r="S76">
-        <v>1237.5040000001</v>
+        <v>2037.5040000005</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -32039,16 +32039,16 @@
         <v>991.3864922069999</v>
       </c>
       <c r="Y76">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>79.5984247273</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>3839.55905709</v>
+        <v>3806.43020909</v>
       </c>
       <c r="AB76">
-        <v>3839.559057090908</v>
+        <v>3806.430209090908</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -32071,10 +32071,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>4443.64493463</v>
+        <v>5046.57879966</v>
       </c>
       <c r="H77">
-        <v>3615.28400709</v>
+        <v>3582.15515909</v>
       </c>
       <c r="I77">
         <v>628.6586002499999</v>
@@ -32092,22 +32092,22 @@
         <v>625</v>
       </c>
       <c r="N77">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="O77">
-        <v>1218.181818181818</v>
+        <v>609.0909090909089</v>
       </c>
       <c r="P77">
-        <v>812.121212121212</v>
+        <v>406.060606060606</v>
       </c>
       <c r="Q77">
         <v>12.8889432</v>
       </c>
       <c r="R77">
-        <v>264.098604651</v>
+        <v>373.312254545</v>
       </c>
       <c r="S77">
-        <v>1135.6239999993</v>
+        <v>1605.2426945435</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -32125,16 +32125,16 @@
         <v>989.4037192230001</v>
       </c>
       <c r="Y77">
-        <v>800</v>
+        <v>330.3813054544</v>
       </c>
       <c r="Z77">
-        <v>79.5984247273</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>3615.28400709</v>
+        <v>3582.15515909</v>
       </c>
       <c r="AB77">
-        <v>3615.284007090908</v>
+        <v>3582.155159090908</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -32160,7 +32160,7 @@
         <v>3872.4028998</v>
       </c>
       <c r="H78">
-        <v>2420.60738182</v>
+        <v>2470.60738182</v>
       </c>
       <c r="I78">
         <v>1247.0532877</v>
@@ -32214,10 +32214,10 @@
         <v>28.402752</v>
       </c>
       <c r="Z78">
-        <v>50</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA78">
-        <v>2420.60738182</v>
+        <v>2470.60738182</v>
       </c>
       <c r="AB78">
         <v>1000</v>
@@ -32246,7 +32246,7 @@
         <v>4055.4760231</v>
       </c>
       <c r="H79">
-        <v>2199.98870182</v>
+        <v>2249.98870182</v>
       </c>
       <c r="I79">
         <v>1242.3279769</v>
@@ -32300,10 +32300,10 @@
         <v>0</v>
       </c>
       <c r="Z79">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>2199.98870182</v>
+        <v>2249.98870182</v>
       </c>
       <c r="AB79">
         <v>1000</v>
@@ -32332,7 +32332,7 @@
         <v>3878.32365948</v>
       </c>
       <c r="H80">
-        <v>2035.00466182</v>
+        <v>2085.00466182</v>
       </c>
       <c r="I80">
         <v>1237.6026661</v>
@@ -32386,10 +32386,10 @@
         <v>0</v>
       </c>
       <c r="Z80">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>2035.00466182</v>
+        <v>2085.00466182</v>
       </c>
       <c r="AB80">
         <v>1000</v>
@@ -32418,7 +32418,7 @@
         <v>3938.03386091</v>
       </c>
       <c r="H81">
-        <v>1828.84382182</v>
+        <v>1878.84382182</v>
       </c>
       <c r="I81">
         <v>1236.12669723</v>
@@ -32472,10 +32472,10 @@
         <v>0</v>
       </c>
       <c r="Z81">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>1828.84382182</v>
+        <v>1878.84382182</v>
       </c>
       <c r="AB81">
         <v>1000</v>
@@ -32504,7 +32504,7 @@
         <v>4042.58150855</v>
       </c>
       <c r="H82">
-        <v>1918.22778182</v>
+        <v>1968.22778182</v>
       </c>
       <c r="I82">
         <v>1234.65072835</v>
@@ -32558,10 +32558,10 @@
         <v>0</v>
       </c>
       <c r="Z82">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>1918.22778182</v>
+        <v>1968.22778182</v>
       </c>
       <c r="AB82">
         <v>1000</v>
@@ -32590,7 +32590,7 @@
         <v>4248.02838189</v>
       </c>
       <c r="H83">
-        <v>1975.03034182</v>
+        <v>2025.03034182</v>
       </c>
       <c r="I83">
         <v>1233.53087392</v>
@@ -32644,10 +32644,10 @@
         <v>0</v>
       </c>
       <c r="Z83">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>1975.03034182</v>
+        <v>2025.03034182</v>
       </c>
       <c r="AB83">
         <v>1000</v>
@@ -32676,7 +32676,7 @@
         <v>4401.80107352</v>
       </c>
       <c r="H84">
-        <v>1821.65370182</v>
+        <v>1871.65370182</v>
       </c>
       <c r="I84">
         <v>1232.4110195</v>
@@ -32730,10 +32730,10 @@
         <v>0</v>
       </c>
       <c r="Z84">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>1821.65370182</v>
+        <v>1871.65370182</v>
       </c>
       <c r="AB84">
         <v>1000</v>
@@ -32762,7 +32762,7 @@
         <v>4005.69540668</v>
       </c>
       <c r="H85">
-        <v>1829.98586182</v>
+        <v>1879.98586182</v>
       </c>
       <c r="I85">
         <v>1231.4137096</v>
@@ -32816,10 +32816,10 @@
         <v>0</v>
       </c>
       <c r="Z85">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>1829.98586182</v>
+        <v>1879.98586182</v>
       </c>
       <c r="AB85">
         <v>1000</v>
@@ -32848,7 +32848,7 @@
         <v>4105.39755379</v>
       </c>
       <c r="H86">
-        <v>1886.31802182</v>
+        <v>1936.31802182</v>
       </c>
       <c r="I86">
         <v>1230.4163997</v>
@@ -32902,10 +32902,10 @@
         <v>0</v>
       </c>
       <c r="Z86">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>1886.31802182</v>
+        <v>1936.31802182</v>
       </c>
       <c r="AB86">
         <v>1000</v>
@@ -32934,7 +32934,7 @@
         <v>4304.00204115</v>
       </c>
       <c r="H87">
-        <v>1974.65018182</v>
+        <v>2024.65018182</v>
       </c>
       <c r="I87">
         <v>1230.51674955</v>
@@ -32988,10 +32988,10 @@
         <v>0</v>
       </c>
       <c r="Z87">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>1974.65018182</v>
+        <v>2024.65018182</v>
       </c>
       <c r="AB87">
         <v>1000</v>
@@ -33020,7 +33020,7 @@
         <v>3902.60652851</v>
       </c>
       <c r="H88">
-        <v>1915.78234182</v>
+        <v>1965.78234182</v>
       </c>
       <c r="I88">
         <v>1230.6170994</v>
@@ -33074,10 +33074,10 @@
         <v>0</v>
       </c>
       <c r="Z88">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>1915.78234182</v>
+        <v>1965.78234182</v>
       </c>
       <c r="AB88">
         <v>1000</v>
@@ -33106,7 +33106,7 @@
         <v>3651.41924177</v>
       </c>
       <c r="H89">
-        <v>1936.91450182</v>
+        <v>1986.91450182</v>
       </c>
       <c r="I89">
         <v>1230.50922335</v>
@@ -33160,10 +33160,10 @@
         <v>0</v>
       </c>
       <c r="Z89">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>1936.91450182</v>
+        <v>1986.91450182</v>
       </c>
       <c r="AB89">
         <v>1000</v>
@@ -33192,7 +33192,7 @@
         <v>4525.23195503</v>
       </c>
       <c r="H90">
-        <v>1958.04666182</v>
+        <v>2008.04666182</v>
       </c>
       <c r="I90">
         <v>605.4013473</v>
@@ -33246,10 +33246,10 @@
         <v>0</v>
       </c>
       <c r="Z90">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>1958.04666182</v>
+        <v>2008.04666182</v>
       </c>
       <c r="AB90">
         <v>1000</v>
@@ -33278,7 +33278,7 @@
         <v>5473.81001698</v>
       </c>
       <c r="H91">
-        <v>1979.17882182</v>
+        <v>2029.17882182</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="Z91">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>1979.17882182</v>
+        <v>2029.17882182</v>
       </c>
       <c r="AB91">
         <v>1000</v>
@@ -33364,7 +33364,7 @@
         <v>5811.07228947</v>
       </c>
       <c r="H92">
-        <v>2096.31098182</v>
+        <v>2146.31098182</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -33418,10 +33418,10 @@
         <v>0</v>
       </c>
       <c r="Z92">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>2096.31098182</v>
+        <v>2146.31098182</v>
       </c>
       <c r="AB92">
         <v>1000</v>
@@ -33450,7 +33450,7 @@
         <v>5434.738107</v>
       </c>
       <c r="H93">
-        <v>2117.91938182</v>
+        <v>2167.91938182</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -33501,13 +33501,13 @@
         <v>303.018084337</v>
       </c>
       <c r="Y93">
-        <v>0.380992000004</v>
+        <v>0.380992000008</v>
       </c>
       <c r="Z93">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>2117.91938182</v>
+        <v>2167.91938182</v>
       </c>
       <c r="AB93">
         <v>1000</v>
@@ -33536,7 +33536,7 @@
         <v>5058.57094079</v>
       </c>
       <c r="H94">
-        <v>2058.57530182</v>
+        <v>2108.57530182</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -33590,10 +33590,10 @@
         <v>0</v>
       </c>
       <c r="Z94">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>2058.57530182</v>
+        <v>2108.57530182</v>
       </c>
       <c r="AB94">
         <v>1000</v>
@@ -33622,7 +33622,7 @@
         <v>5153.1659108</v>
       </c>
       <c r="H95">
-        <v>2183.32978182</v>
+        <v>2233.32978182</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -33676,10 +33676,10 @@
         <v>18.897856</v>
       </c>
       <c r="Z95">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>2183.32978182</v>
+        <v>2233.32978182</v>
       </c>
       <c r="AB95">
         <v>1000</v>
@@ -33708,7 +33708,7 @@
         <v>5196.36673131</v>
       </c>
       <c r="H96">
-        <v>2316.03498182</v>
+        <v>2366.03498182</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -33762,10 +33762,10 @@
         <v>44.156288</v>
       </c>
       <c r="Z96">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA96">
-        <v>2316.03498182</v>
+        <v>2366.03498182</v>
       </c>
       <c r="AB96">
         <v>1000</v>
@@ -33794,7 +33794,7 @@
         <v>5243.04224941</v>
       </c>
       <c r="H97">
-        <v>2348.74018182</v>
+        <v>2398.74018182</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -33848,10 +33848,10 @@
         <v>53.41472</v>
       </c>
       <c r="Z97">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>2348.74018182</v>
+        <v>2398.74018182</v>
       </c>
       <c r="AB97">
         <v>1000</v>
@@ -33976,7 +33976,7 @@
         <v>6598.81410477</v>
       </c>
       <c r="H2">
-        <v>3596.21698909</v>
+        <v>3646.21698909</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -34030,10 +34030,10 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>3596.21698909</v>
+        <v>3646.21698909</v>
       </c>
       <c r="AB2">
         <v>1000</v>
@@ -34062,7 +34062,7 @@
         <v>6124.08120552</v>
       </c>
       <c r="H3">
-        <v>3619.84098909</v>
+        <v>3669.84098909</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -34116,10 +34116,10 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>3619.84098909</v>
+        <v>3669.84098909</v>
       </c>
       <c r="AB3">
         <v>1000</v>
@@ -34148,7 +34148,7 @@
         <v>5649.34830626</v>
       </c>
       <c r="H4">
-        <v>3643.46498909</v>
+        <v>3693.46498909</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>3643.46498909</v>
+        <v>3693.46498909</v>
       </c>
       <c r="AB4">
         <v>1000</v>
@@ -34234,7 +34234,7 @@
         <v>6374.87732005</v>
       </c>
       <c r="H5">
-        <v>3667.08898909</v>
+        <v>3717.08898909</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -34288,10 +34288,10 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>3667.08898909</v>
+        <v>3717.08898909</v>
       </c>
       <c r="AB5">
         <v>1000</v>
@@ -34320,7 +34320,7 @@
         <v>7100.40633384</v>
       </c>
       <c r="H6">
-        <v>3670.71298909</v>
+        <v>3720.71298909</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -34374,10 +34374,10 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>3670.71298909</v>
+        <v>3720.71298909</v>
       </c>
       <c r="AB6">
         <v>1000</v>
@@ -34406,7 +34406,7 @@
         <v>6875.90908939</v>
       </c>
       <c r="H7">
-        <v>3684.33698909</v>
+        <v>3734.33698909</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -34460,10 +34460,10 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>3684.33698909</v>
+        <v>3734.33698909</v>
       </c>
       <c r="AB7">
         <v>1000</v>
@@ -34492,7 +34492,7 @@
         <v>6651.41184493</v>
       </c>
       <c r="H8">
-        <v>3697.96098909</v>
+        <v>3747.96098909</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -34546,10 +34546,10 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>3697.96098909</v>
+        <v>3747.96098909</v>
       </c>
       <c r="AB8">
         <v>1000</v>
@@ -34578,7 +34578,7 @@
         <v>6619.43717922</v>
       </c>
       <c r="H9">
-        <v>3593.58498909</v>
+        <v>3643.58498909</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -34632,10 +34632,10 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>3593.58498909</v>
+        <v>3643.58498909</v>
       </c>
       <c r="AB9">
         <v>1000</v>
@@ -34664,7 +34664,7 @@
         <v>6629.55258674</v>
       </c>
       <c r="H10">
-        <v>3543.20898909</v>
+        <v>3593.20898909</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -34718,10 +34718,10 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>3543.20898909</v>
+        <v>3593.20898909</v>
       </c>
       <c r="AB10">
         <v>1000</v>
@@ -34750,7 +34750,7 @@
         <v>6717.61703342</v>
       </c>
       <c r="H11">
-        <v>3508.83298909</v>
+        <v>3558.83298909</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -34804,10 +34804,10 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>3508.83298909</v>
+        <v>3558.83298909</v>
       </c>
       <c r="AB11">
         <v>1000</v>
@@ -34836,7 +34836,7 @@
         <v>6690.06535177</v>
       </c>
       <c r="H12">
-        <v>3462.45698909</v>
+        <v>3512.45698909</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -34890,10 +34890,10 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>3462.45698909</v>
+        <v>3512.45698909</v>
       </c>
       <c r="AB12">
         <v>1000</v>
@@ -34922,7 +34922,7 @@
         <v>6899.76513708</v>
       </c>
       <c r="H13">
-        <v>3386.08098909</v>
+        <v>3436.08098909</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -34976,10 +34976,10 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>3386.08098909</v>
+        <v>3436.08098909</v>
       </c>
       <c r="AB13">
         <v>1000</v>
@@ -35008,7 +35008,7 @@
         <v>7309.46492238</v>
       </c>
       <c r="H14">
-        <v>3399.70498909</v>
+        <v>3449.70498909</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -35062,10 +35062,10 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>3399.70498909</v>
+        <v>3449.70498909</v>
       </c>
       <c r="AB14">
         <v>1000</v>
@@ -35094,7 +35094,7 @@
         <v>6864.19239331</v>
       </c>
       <c r="H15">
-        <v>3325.17898909</v>
+        <v>3375.17898909</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -35148,10 +35148,10 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>3325.17898909</v>
+        <v>3375.17898909</v>
       </c>
       <c r="AB15">
         <v>1000</v>
@@ -35180,7 +35180,7 @@
         <v>6590.83846889</v>
       </c>
       <c r="H16">
-        <v>3408.75298909</v>
+        <v>3458.75298909</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -35234,10 +35234,10 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>3408.75298909</v>
+        <v>3458.75298909</v>
       </c>
       <c r="AB16">
         <v>1000</v>
@@ -35266,7 +35266,7 @@
         <v>7084.32779146</v>
       </c>
       <c r="H17">
-        <v>3417.49850909</v>
+        <v>3467.49850909</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -35320,10 +35320,10 @@
         <v>4.137216</v>
       </c>
       <c r="Z17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>3417.49850909</v>
+        <v>3467.49850909</v>
       </c>
       <c r="AB17">
         <v>1000</v>
@@ -35352,7 +35352,7 @@
         <v>6827.9478401</v>
       </c>
       <c r="H18">
-        <v>3444.49850909</v>
+        <v>3494.49850909</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -35406,10 +35406,10 @@
         <v>7.678016</v>
       </c>
       <c r="Z18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>3444.49850909</v>
+        <v>3494.49850909</v>
       </c>
       <c r="AB18">
         <v>1000</v>
@@ -35438,7 +35438,7 @@
         <v>6836.55053989</v>
       </c>
       <c r="H19">
-        <v>3471.49850909</v>
+        <v>3521.49850909</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>14.418816</v>
       </c>
       <c r="Z19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>3471.49850909</v>
+        <v>3521.49850909</v>
       </c>
       <c r="AB19">
         <v>1000</v>
@@ -35524,7 +35524,7 @@
         <v>6170.20858852</v>
       </c>
       <c r="H20">
-        <v>3478.49850909</v>
+        <v>3528.49850909</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -35578,10 +35578,10 @@
         <v>23.559616</v>
       </c>
       <c r="Z20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>3478.49850909</v>
+        <v>3528.49850909</v>
       </c>
       <c r="AB20">
         <v>1000</v>
@@ -35610,7 +35610,7 @@
         <v>6124.72437324</v>
       </c>
       <c r="H21">
-        <v>3425.49850909</v>
+        <v>3475.49850909</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -35664,10 +35664,10 @@
         <v>27.900416</v>
       </c>
       <c r="Z21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>3425.49850909</v>
+        <v>3475.49850909</v>
       </c>
       <c r="AB21">
         <v>1000</v>
@@ -35696,7 +35696,7 @@
         <v>6076.43457658</v>
       </c>
       <c r="H22">
-        <v>3452.49850909</v>
+        <v>3502.49850909</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -35750,10 +35750,10 @@
         <v>45.041216</v>
       </c>
       <c r="Z22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>3452.49850909</v>
+        <v>3502.49850909</v>
       </c>
       <c r="AB22">
         <v>1000</v>
@@ -35782,7 +35782,7 @@
         <v>5824.56167394</v>
       </c>
       <c r="H23">
-        <v>3379.49850909</v>
+        <v>3429.49850909</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -35836,10 +35836,10 @@
         <v>43.782016</v>
       </c>
       <c r="Z23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>3379.49850909</v>
+        <v>3429.49850909</v>
       </c>
       <c r="AB23">
         <v>1000</v>
@@ -35868,7 +35868,7 @@
         <v>5569.88318991</v>
       </c>
       <c r="H24">
-        <v>3406.49850909</v>
+        <v>3456.49850909</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -35922,10 +35922,10 @@
         <v>55.322816</v>
       </c>
       <c r="Z24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>3406.49850909</v>
+        <v>3456.49850909</v>
       </c>
       <c r="AB24">
         <v>1000</v>
@@ -35954,7 +35954,7 @@
         <v>5720.26617518</v>
       </c>
       <c r="H25">
-        <v>3333.49850909</v>
+        <v>3383.49850909</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>1230.69663055</v>
       </c>
       <c r="K25">
-        <v>7870.86700652</v>
+        <v>7870.86700651</v>
       </c>
       <c r="L25">
         <v>1250</v>
@@ -36008,10 +36008,10 @@
         <v>42.063616</v>
       </c>
       <c r="Z25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>3333.49850909</v>
+        <v>3383.49850909</v>
       </c>
       <c r="AB25">
         <v>1000</v>
@@ -36040,7 +36040,7 @@
         <v>5867.14218371</v>
       </c>
       <c r="H26">
-        <v>3360.49850909</v>
+        <v>3410.49850909</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -36094,10 +36094,10 @@
         <v>44.804416</v>
       </c>
       <c r="Z26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>3360.49850909</v>
+        <v>3410.49850909</v>
       </c>
       <c r="AB26">
         <v>1000</v>
@@ -36126,7 +36126,7 @@
         <v>5759.24314549</v>
       </c>
       <c r="H27">
-        <v>3287.49850909</v>
+        <v>3337.49850909</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -36180,10 +36180,10 @@
         <v>42.96121600000001</v>
       </c>
       <c r="Z27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>3287.49850909</v>
+        <v>3337.49850909</v>
       </c>
       <c r="AB27">
         <v>1000</v>
@@ -36212,7 +36212,7 @@
         <v>5650.31761519</v>
       </c>
       <c r="H28">
-        <v>3214.49850909</v>
+        <v>3264.49850909</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -36266,10 +36266,10 @@
         <v>45.801216</v>
       </c>
       <c r="Z28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>3214.49850909</v>
+        <v>3264.49850909</v>
       </c>
       <c r="AB28">
         <v>1000</v>
@@ -36298,7 +36298,7 @@
         <v>5622.34742217</v>
       </c>
       <c r="H29">
-        <v>3241.49850909</v>
+        <v>3291.49850909</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>48.641216</v>
       </c>
       <c r="Z29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>3241.49850909</v>
+        <v>3291.49850909</v>
       </c>
       <c r="AB29">
         <v>1000</v>
@@ -36384,7 +36384,7 @@
         <v>5594.37722909</v>
       </c>
       <c r="H30">
-        <v>3268.49850909</v>
+        <v>3318.49850909</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -36438,10 +36438,10 @@
         <v>51.481216</v>
       </c>
       <c r="Z30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>3268.49850909</v>
+        <v>3318.49850909</v>
       </c>
       <c r="AB30">
         <v>1000</v>
@@ -36470,7 +36470,7 @@
         <v>5854.1792177</v>
       </c>
       <c r="H31">
-        <v>3195.49850909</v>
+        <v>3245.49850909</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -36524,10 +36524,10 @@
         <v>38.321216</v>
       </c>
       <c r="Z31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>3195.49850909</v>
+        <v>3245.49850909</v>
       </c>
       <c r="AB31">
         <v>1000</v>
@@ -36556,7 +36556,7 @@
         <v>6134.89283422</v>
       </c>
       <c r="H32">
-        <v>3222.49850909</v>
+        <v>3272.49850909</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -36610,10 +36610,10 @@
         <v>41.161216</v>
       </c>
       <c r="Z32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>3222.49850909</v>
+        <v>3272.49850909</v>
       </c>
       <c r="AB32">
         <v>1000</v>
@@ -36642,7 +36642,7 @@
         <v>6218.59669149</v>
       </c>
       <c r="H33">
-        <v>3249.49850909</v>
+        <v>3299.49850909</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -36696,10 +36696,10 @@
         <v>44.001216</v>
       </c>
       <c r="Z33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>3249.49850909</v>
+        <v>3299.49850909</v>
       </c>
       <c r="AB33">
         <v>1000</v>
@@ -36728,7 +36728,7 @@
         <v>5005.80752561</v>
       </c>
       <c r="H34">
-        <v>2567.4076</v>
+        <v>2617.4076</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -36782,10 +36782,10 @@
         <v>30.841216</v>
       </c>
       <c r="Z34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>2567.4076</v>
+        <v>2617.4076</v>
       </c>
       <c r="AB34">
         <v>1000</v>
@@ -36814,7 +36814,7 @@
         <v>3922.19834642</v>
       </c>
       <c r="H35">
-        <v>1946.22578182</v>
+        <v>1996.22578182</v>
       </c>
       <c r="I35">
         <v>195.68059635</v>
@@ -36868,10 +36868,10 @@
         <v>17.681216</v>
       </c>
       <c r="Z35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>1946.22578182</v>
+        <v>1996.22578182</v>
       </c>
       <c r="AB35">
         <v>1000</v>
@@ -36900,7 +36900,7 @@
         <v>3938.43558594</v>
       </c>
       <c r="H36">
-        <v>1873.22578182</v>
+        <v>1923.22578182</v>
       </c>
       <c r="I36">
         <v>212.6626359</v>
@@ -36954,10 +36954,10 @@
         <v>4.521216</v>
       </c>
       <c r="Z36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>1873.22578182</v>
+        <v>1923.22578182</v>
       </c>
       <c r="AB36">
         <v>1000</v>
@@ -36986,7 +36986,7 @@
         <v>4216.54426087</v>
       </c>
       <c r="H37">
-        <v>1811.02426182</v>
+        <v>1861.02426182</v>
       </c>
       <c r="I37">
         <v>220.6708089</v>
@@ -37040,10 +37040,10 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>1811.02426182</v>
+        <v>1861.02426182</v>
       </c>
       <c r="AB37">
         <v>1000</v>
@@ -37072,7 +37072,7 @@
         <v>4271.42598423</v>
       </c>
       <c r="H38">
-        <v>1927.22578182</v>
+        <v>1977.22578182</v>
       </c>
       <c r="I38">
         <v>228.6789818</v>
@@ -37126,10 +37126,10 @@
         <v>10.201216</v>
       </c>
       <c r="Z38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>1927.22578182</v>
+        <v>1977.22578182</v>
       </c>
       <c r="AB38">
         <v>1000</v>
@@ -37158,7 +37158,7 @@
         <v>4245.62911116</v>
       </c>
       <c r="H39">
-        <v>2012.32018182</v>
+        <v>2062.32018182</v>
       </c>
       <c r="I39">
         <v>243.2988001</v>
@@ -37212,10 +37212,10 @@
         <v>22.33632</v>
       </c>
       <c r="Z39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>2012.32018182</v>
+        <v>2062.32018182</v>
       </c>
       <c r="AB39">
         <v>1000</v>
@@ -37244,7 +37244,7 @@
         <v>4349.17021927</v>
       </c>
       <c r="H40">
-        <v>1979.09018182</v>
+        <v>2029.09018182</v>
       </c>
       <c r="I40">
         <v>257.9186185</v>
@@ -37298,10 +37298,10 @@
         <v>12.33952</v>
       </c>
       <c r="Z40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>1979.09018182</v>
+        <v>2029.09018182</v>
       </c>
       <c r="AB40">
         <v>1000</v>
@@ -37330,7 +37330,7 @@
         <v>4175.00478525</v>
       </c>
       <c r="H41">
-        <v>2145.86018182</v>
+        <v>2195.86018182</v>
       </c>
       <c r="I41">
         <v>268.6624674</v>
@@ -37384,10 +37384,10 @@
         <v>35.14272</v>
       </c>
       <c r="Z41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>2145.86018182</v>
+        <v>2195.86018182</v>
       </c>
       <c r="AB41">
         <v>1000</v>
@@ -37416,7 +37416,7 @@
         <v>4251.78074658</v>
       </c>
       <c r="H42">
-        <v>2312.63018182</v>
+        <v>2362.63018182</v>
       </c>
       <c r="I42">
         <v>279.4063163</v>
@@ -37470,10 +37470,10 @@
         <v>48.34592000000001</v>
       </c>
       <c r="Z42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>2312.63018182</v>
+        <v>2362.63018182</v>
       </c>
       <c r="AB42">
         <v>1000</v>
@@ -37502,7 +37502,7 @@
         <v>4430.9264938</v>
       </c>
       <c r="H43">
-        <v>2479.40018182</v>
+        <v>2529.40018182</v>
       </c>
       <c r="I43">
         <v>286.75172815</v>
@@ -37556,10 +37556,10 @@
         <v>66.34912000000001</v>
       </c>
       <c r="Z43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>2479.40018182</v>
+        <v>2529.40018182</v>
       </c>
       <c r="AB43">
         <v>1000</v>
@@ -37588,7 +37588,7 @@
         <v>4818.68950011</v>
       </c>
       <c r="H44">
-        <v>2450.45258182</v>
+        <v>2500.45258182</v>
       </c>
       <c r="I44">
         <v>294.09714</v>
@@ -37642,10 +37642,10 @@
         <v>45.03750400000001</v>
       </c>
       <c r="Z44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>2450.45258182</v>
+        <v>2500.45258182</v>
       </c>
       <c r="AB44">
         <v>1000</v>
@@ -37674,7 +37674,7 @@
         <v>4557.17687128</v>
       </c>
       <c r="H45">
-        <v>2621.08450182</v>
+        <v>2671.08450182</v>
       </c>
       <c r="I45">
         <v>296.11326825</v>
@@ -37728,10 +37728,10 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>2621.08450182</v>
+        <v>2671.08450182</v>
       </c>
       <c r="AB45">
         <v>1000</v>
@@ -37760,7 +37760,7 @@
         <v>4483.58909729</v>
       </c>
       <c r="H46">
-        <v>2767.31558182</v>
+        <v>2817.31558182</v>
       </c>
       <c r="I46">
         <v>298.1293965</v>
@@ -37814,10 +37814,10 @@
         <v>10.053344</v>
       </c>
       <c r="Z46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>2767.31558182</v>
+        <v>2817.31558182</v>
       </c>
       <c r="AB46">
         <v>1000</v>
@@ -37846,7 +37846,7 @@
         <v>4804.62002543</v>
       </c>
       <c r="H47">
-        <v>2925.74708182</v>
+        <v>2975.74708182</v>
       </c>
       <c r="I47">
         <v>304.8120885</v>
@@ -37900,10 +37900,10 @@
         <v>28.715024</v>
       </c>
       <c r="Z47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>2925.74708182</v>
+        <v>2975.74708182</v>
       </c>
       <c r="AB47">
         <v>1000</v>
@@ -37932,7 +37932,7 @@
         <v>4725.65095357</v>
       </c>
       <c r="H48">
-        <v>3084.17858182</v>
+        <v>3134.17858182</v>
       </c>
       <c r="I48">
         <v>311.4947805</v>
@@ -37986,10 +37986,10 @@
         <v>47.376704</v>
       </c>
       <c r="Z48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>3084.17858182</v>
+        <v>3134.17858182</v>
       </c>
       <c r="AB48">
         <v>1000</v>
@@ -38018,7 +38018,7 @@
         <v>4603.63798739</v>
       </c>
       <c r="H49">
-        <v>3242.61008182</v>
+        <v>3292.61008182</v>
       </c>
       <c r="I49">
         <v>318.9141817</v>
@@ -38072,10 +38072,10 @@
         <v>59.817584</v>
       </c>
       <c r="Z49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>3242.61008182</v>
+        <v>3292.61008182</v>
       </c>
       <c r="AB49">
         <v>1000</v>
@@ -38104,7 +38104,7 @@
         <v>4463.13576577</v>
       </c>
       <c r="H50">
-        <v>3928.25510182</v>
+        <v>3978.25510182</v>
       </c>
       <c r="I50">
         <v>326.3335828</v>
@@ -38158,10 +38158,10 @@
         <v>156.6126272</v>
       </c>
       <c r="Z50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>3928.25510182</v>
+        <v>3978.25510182</v>
       </c>
       <c r="AB50">
         <v>1000</v>
@@ -38190,7 +38190,7 @@
         <v>4322.29385339</v>
       </c>
       <c r="H51">
-        <v>4044.76766182</v>
+        <v>4094.76766182</v>
       </c>
       <c r="I51">
         <v>327.3638722</v>
@@ -38244,10 +38244,10 @@
         <v>163.7115968</v>
       </c>
       <c r="Z51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>4044.76766182</v>
+        <v>4094.76766182</v>
       </c>
       <c r="AB51">
         <v>1000</v>
@@ -38276,7 +38276,7 @@
         <v>4174.43798751</v>
       </c>
       <c r="H52">
-        <v>4161.28022182</v>
+        <v>4211.28022182</v>
       </c>
       <c r="I52">
         <v>328.3941616</v>
@@ -38330,10 +38330,10 @@
         <v>202.8105664</v>
       </c>
       <c r="Z52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>4161.28022182</v>
+        <v>4211.28022182</v>
       </c>
       <c r="AB52">
         <v>1000</v>
@@ -38362,7 +38362,7 @@
         <v>4281.7266067</v>
       </c>
       <c r="H53">
-        <v>4277.79278182</v>
+        <v>4327.79278182</v>
       </c>
       <c r="I53">
         <v>328.359253</v>
@@ -38416,10 +38416,10 @@
         <v>212.282656</v>
       </c>
       <c r="Z53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>4277.79278182</v>
+        <v>4327.79278182</v>
       </c>
       <c r="AB53">
         <v>1000</v>
@@ -38448,7 +38448,7 @@
         <v>4287.75271437</v>
       </c>
       <c r="H54">
-        <v>4394.30534182</v>
+        <v>4444.30534182</v>
       </c>
       <c r="I54">
         <v>328.3243443</v>
@@ -38502,10 +38502,10 @@
         <v>227.5147456</v>
       </c>
       <c r="Z54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>4394.30534182</v>
+        <v>4444.30534182</v>
       </c>
       <c r="AB54">
         <v>1000</v>
@@ -38534,7 +38534,7 @@
         <v>4347.22744317</v>
       </c>
       <c r="H55">
-        <v>4510.81790182</v>
+        <v>4560.81790182</v>
       </c>
       <c r="I55">
         <v>324.834954</v>
@@ -38588,10 +38588,10 @@
         <v>242.7468352</v>
       </c>
       <c r="Z55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>4510.81790182</v>
+        <v>4560.81790182</v>
       </c>
       <c r="AB55">
         <v>1000</v>
@@ -38620,7 +38620,7 @@
         <v>4406.70217207</v>
       </c>
       <c r="H56">
-        <v>4627.33046182</v>
+        <v>4677.33046182</v>
       </c>
       <c r="I56">
         <v>321.3455636</v>
@@ -38674,10 +38674,10 @@
         <v>257.9789248</v>
       </c>
       <c r="Z56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>4627.33046182</v>
+        <v>4677.33046182</v>
       </c>
       <c r="AB56">
         <v>1000</v>
@@ -38706,7 +38706,7 @@
         <v>3792.77317305</v>
       </c>
       <c r="H57">
-        <v>4743.84302182</v>
+        <v>4793.84302182</v>
       </c>
       <c r="I57">
         <v>934.46762205</v>
@@ -38760,10 +38760,10 @@
         <v>273.2110144</v>
       </c>
       <c r="Z57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>4743.84302182</v>
+        <v>4793.84302182</v>
       </c>
       <c r="AB57">
         <v>1000</v>
@@ -38792,7 +38792,7 @@
         <v>3656.55504063</v>
       </c>
       <c r="H58">
-        <v>4860.35558182</v>
+        <v>4910.35558182</v>
       </c>
       <c r="I58">
         <v>1547.5896805</v>
@@ -38846,10 +38846,10 @@
         <v>289.337824</v>
       </c>
       <c r="Z58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>4860.35558182</v>
+        <v>4910.35558182</v>
       </c>
       <c r="AB58">
         <v>1000</v>
@@ -38878,7 +38878,7 @@
         <v>3715.32908243</v>
       </c>
       <c r="H59">
-        <v>4976.86814182</v>
+        <v>5026.86814182</v>
       </c>
       <c r="I59">
         <v>1542.79416195</v>
@@ -38932,10 +38932,10 @@
         <v>288.0310336</v>
       </c>
       <c r="Z59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>4976.86814182</v>
+        <v>5026.86814182</v>
       </c>
       <c r="AB59">
         <v>1000</v>
@@ -38964,7 +38964,7 @@
         <v>3772.7403314</v>
       </c>
       <c r="H60">
-        <v>4970.24018182</v>
+        <v>5020.24018182</v>
       </c>
       <c r="I60">
         <v>1537.9986433</v>
@@ -39018,10 +39018,10 @@
         <v>292.94176</v>
       </c>
       <c r="Z60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>4970.24018182</v>
+        <v>5020.24018182</v>
       </c>
       <c r="AB60">
         <v>1000</v>
@@ -39050,7 +39050,7 @@
         <v>3951.29275918</v>
       </c>
       <c r="H61">
-        <v>4963.61222182</v>
+        <v>5013.61222182</v>
       </c>
       <c r="I61">
         <v>1516.58460035</v>
@@ -39104,10 +39104,10 @@
         <v>288.9296064</v>
       </c>
       <c r="Z61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>4963.61222182</v>
+        <v>5013.61222182</v>
       </c>
       <c r="AB61">
         <v>1000</v>
@@ -39136,7 +39136,7 @@
         <v>4036.85914055</v>
       </c>
       <c r="H62">
-        <v>4956.98426182</v>
+        <v>5006.98426182</v>
       </c>
       <c r="I62">
         <v>1495.1705573</v>
@@ -39190,10 +39190,10 @@
         <v>252.9174528</v>
       </c>
       <c r="Z62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>4956.98426182</v>
+        <v>5006.98426182</v>
       </c>
       <c r="AB62">
         <v>1000</v>
@@ -39222,7 +39222,7 @@
         <v>4121.01780813</v>
       </c>
       <c r="H63">
-        <v>4950.35630182</v>
+        <v>5000.35630182</v>
       </c>
       <c r="I63">
         <v>1479.27287845</v>
@@ -39276,10 +39276,10 @@
         <v>197.7859392</v>
       </c>
       <c r="Z63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>4950.35630182</v>
+        <v>5000.35630182</v>
       </c>
       <c r="AB63">
         <v>1000</v>
@@ -39308,7 +39308,7 @@
         <v>4194.65554559</v>
       </c>
       <c r="H64">
-        <v>4943.72834182</v>
+        <v>4993.72834182</v>
       </c>
       <c r="I64">
         <v>1463.3751995</v>
@@ -39362,10 +39362,10 @@
         <v>190.6544256</v>
       </c>
       <c r="Z64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>4943.72834182</v>
+        <v>4993.72834182</v>
       </c>
       <c r="AB64">
         <v>1000</v>
@@ -39394,7 +39394,7 @@
         <v>4150.38074262</v>
       </c>
       <c r="H65">
-        <v>4937.10038182</v>
+        <v>4987.10038182</v>
       </c>
       <c r="I65">
         <v>1450.38907195</v>
@@ -39448,10 +39448,10 @@
         <v>195.653472</v>
       </c>
       <c r="Z65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>4937.10038182</v>
+        <v>4987.10038182</v>
       </c>
       <c r="AB65">
         <v>1000</v>
@@ -39480,7 +39480,7 @@
         <v>4106.10593975</v>
       </c>
       <c r="H66">
-        <v>4930.47242182</v>
+        <v>4980.47242182</v>
       </c>
       <c r="I66">
         <v>1437.4029443</v>
@@ -39534,10 +39534,10 @@
         <v>200.6525184</v>
       </c>
       <c r="Z66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>4930.47242182</v>
+        <v>4980.47242182</v>
       </c>
       <c r="AB66">
         <v>1000</v>
@@ -39566,7 +39566,7 @@
         <v>4054.74605567</v>
       </c>
       <c r="H67">
-        <v>4923.84446182</v>
+        <v>4973.84446182</v>
       </c>
       <c r="I67">
         <v>1420.85275405</v>
@@ -39620,10 +39620,10 @@
         <v>253.7552448</v>
       </c>
       <c r="Z67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>4923.84446182</v>
+        <v>4973.84446182</v>
       </c>
       <c r="AB67">
         <v>1000</v>
@@ -39652,7 +39652,7 @@
         <v>4013.90710171</v>
       </c>
       <c r="H68">
-        <v>4917.21650182</v>
+        <v>4967.21650182</v>
       </c>
       <c r="I68">
         <v>1404.3025639</v>
@@ -39706,10 +39706,10 @@
         <v>258.8579712</v>
       </c>
       <c r="Z68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>4917.21650182</v>
+        <v>4967.21650182</v>
       </c>
       <c r="AB68">
         <v>1000</v>
@@ -39738,7 +39738,7 @@
         <v>2965.87982118</v>
       </c>
       <c r="H69">
-        <v>4910.58854182</v>
+        <v>4960.58854182</v>
       </c>
       <c r="I69">
         <v>1379.9265954</v>
@@ -39792,10 +39792,10 @@
         <v>260.2109376</v>
       </c>
       <c r="Z69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>4910.58854182</v>
+        <v>4960.58854182</v>
       </c>
       <c r="AB69">
         <v>1000</v>
@@ -39824,7 +39824,7 @@
         <v>3358.63300577</v>
       </c>
       <c r="H70">
-        <v>4903.96058182</v>
+        <v>4953.96058182</v>
       </c>
       <c r="I70">
         <v>730.5506269</v>
@@ -39878,10 +39878,10 @@
         <v>290.363904</v>
       </c>
       <c r="Z70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>4903.96058182</v>
+        <v>4953.96058182</v>
       </c>
       <c r="AB70">
         <v>1000</v>
@@ -39910,7 +39910,7 @@
         <v>4216.98416982</v>
       </c>
       <c r="H71">
-        <v>4630.31498182</v>
+        <v>4680.31498182</v>
       </c>
       <c r="I71">
         <v>80.49037403</v>
@@ -39964,10 +39964,10 @@
         <v>311.388288</v>
       </c>
       <c r="Z71">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>4630.31498182</v>
+        <v>4680.31498182</v>
       </c>
       <c r="AB71">
         <v>1000</v>
@@ -39996,7 +39996,7 @@
         <v>4460.85626412</v>
       </c>
       <c r="H72">
-        <v>4356.66938182</v>
+        <v>4406.66938182</v>
       </c>
       <c r="I72">
         <v>55.43012115</v>
@@ -40050,10 +40050,10 @@
         <v>284.412672</v>
       </c>
       <c r="Z72">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>4356.66938182</v>
+        <v>4406.66938182</v>
       </c>
       <c r="AB72">
         <v>1000</v>
@@ -40079,10 +40079,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G73">
-        <v>4858.3645996</v>
+        <v>4866.28489065</v>
       </c>
       <c r="H73">
-        <v>4083.02378182</v>
+        <v>4142.67213636</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -40100,13 +40100,13 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>1000</v>
+        <v>992.079708955</v>
       </c>
       <c r="O73">
-        <v>1218.181818181818</v>
+        <v>1208.533463636091</v>
       </c>
       <c r="P73">
-        <v>812.121212121212</v>
+        <v>805.6889757573938</v>
       </c>
       <c r="Q73">
         <v>48.61932768</v>
@@ -40136,10 +40136,10 @@
         <v>265.589376</v>
       </c>
       <c r="Z73">
-        <v>50</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA73">
-        <v>4083.02378182</v>
+        <v>4142.67213636</v>
       </c>
       <c r="AB73">
         <v>1000</v>
@@ -40165,10 +40165,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>5469.26970423</v>
+        <v>6152.53883248</v>
       </c>
       <c r="H74">
-        <v>3827.90836945</v>
+        <v>3811.34394545</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -40186,22 +40186,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>1000</v>
+        <v>492.079708955</v>
       </c>
       <c r="O74">
-        <v>1218.181818181818</v>
+        <v>599.4425545451817</v>
       </c>
       <c r="P74">
-        <v>812.121212121212</v>
+        <v>399.6283696967878</v>
       </c>
       <c r="Q74">
         <v>37.6022046</v>
       </c>
       <c r="R74">
-        <v>300.706976744</v>
+        <v>486.753488372</v>
       </c>
       <c r="S74">
-        <v>1293.0399999992</v>
+        <v>2093.0399999996</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -40219,16 +40219,16 @@
         <v>995.3639666179999</v>
       </c>
       <c r="Y74">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z74">
-        <v>539.799212364</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>3827.90836945</v>
+        <v>3811.34394545</v>
       </c>
       <c r="AB74">
-        <v>3827.908369454544</v>
+        <v>3811.343945454544</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -40251,10 +40251,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>5182.92246279</v>
+        <v>5836.32808918</v>
       </c>
       <c r="H75">
-        <v>3603.63331945</v>
+        <v>3587.06889545</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -40272,22 +40272,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>1000</v>
+        <v>521.943210821</v>
       </c>
       <c r="O75">
-        <v>1218.181818181818</v>
+        <v>635.8217295455817</v>
       </c>
       <c r="P75">
-        <v>812.121212121212</v>
+        <v>423.8811530303878</v>
       </c>
       <c r="Q75">
         <v>27.74133405</v>
       </c>
       <c r="R75">
-        <v>294.249302326</v>
+        <v>480.295813953</v>
       </c>
       <c r="S75">
-        <v>1265.2720000018</v>
+        <v>2065.2719999979</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -40305,16 +40305,16 @@
         <v>993.373238685</v>
       </c>
       <c r="Y75">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z75">
-        <v>539.799212364</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>3603.63331945</v>
+        <v>3587.06889545</v>
       </c>
       <c r="AB75">
-        <v>3603.633319454544</v>
+        <v>3587.068895454544</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -40337,10 +40337,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>4561.9172965</v>
+        <v>5185.45942103</v>
       </c>
       <c r="H76">
-        <v>3379.35826945</v>
+        <v>3362.79384545</v>
       </c>
       <c r="I76">
         <v>10.2639128</v>
@@ -40358,22 +40358,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>1000</v>
+        <v>551.806712687</v>
       </c>
       <c r="O76">
-        <v>1218.181818181818</v>
+        <v>672.2009045459816</v>
       </c>
       <c r="P76">
-        <v>812.121212121212</v>
+        <v>448.1339363639878</v>
       </c>
       <c r="Q76">
         <v>17.8804635</v>
       </c>
       <c r="R76">
-        <v>287.791627907</v>
+        <v>473.838139535</v>
       </c>
       <c r="S76">
-        <v>1237.5040000001</v>
+        <v>2037.5040000005</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -40391,16 +40391,16 @@
         <v>991.3864922069999</v>
       </c>
       <c r="Y76">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>539.799212364</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>3379.35826945</v>
+        <v>3362.79384545</v>
       </c>
       <c r="AB76">
-        <v>3379.358269454544</v>
+        <v>3362.793845454544</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -40423,10 +40423,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>4443.64493463</v>
+        <v>5037.32355729</v>
       </c>
       <c r="H77">
-        <v>3155.08321945</v>
+        <v>3138.51879545</v>
       </c>
       <c r="I77">
         <v>628.6586002499999</v>
@@ -40444,22 +40444,22 @@
         <v>625</v>
       </c>
       <c r="N77">
-        <v>1000</v>
+        <v>581.6702145519999</v>
       </c>
       <c r="O77">
-        <v>1218.181818181818</v>
+        <v>708.5800795451634</v>
       </c>
       <c r="P77">
-        <v>812.121212121212</v>
+        <v>472.3867196967756</v>
       </c>
       <c r="Q77">
         <v>12.8889432</v>
       </c>
       <c r="R77">
-        <v>264.098604651</v>
+        <v>450.145116279</v>
       </c>
       <c r="S77">
-        <v>1135.6239999993</v>
+        <v>1935.6239999997</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -40477,16 +40477,16 @@
         <v>989.4037192230001</v>
       </c>
       <c r="Y77">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z77">
-        <v>539.799212364</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>3155.08321945</v>
+        <v>3138.51879545</v>
       </c>
       <c r="AB77">
-        <v>3155.083219454544</v>
+        <v>3138.518795454544</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -40512,7 +40512,7 @@
         <v>3872.4028998</v>
       </c>
       <c r="H78">
-        <v>2420.60738182</v>
+        <v>2470.60738182</v>
       </c>
       <c r="I78">
         <v>1247.0532877</v>
@@ -40566,10 +40566,10 @@
         <v>28.402752</v>
       </c>
       <c r="Z78">
-        <v>50</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA78">
-        <v>2420.60738182</v>
+        <v>2470.60738182</v>
       </c>
       <c r="AB78">
         <v>1000</v>
@@ -40598,7 +40598,7 @@
         <v>4055.4760231</v>
       </c>
       <c r="H79">
-        <v>2199.98870182</v>
+        <v>2249.98870182</v>
       </c>
       <c r="I79">
         <v>1242.3279769</v>
@@ -40652,10 +40652,10 @@
         <v>0</v>
       </c>
       <c r="Z79">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>2199.98870182</v>
+        <v>2249.98870182</v>
       </c>
       <c r="AB79">
         <v>1000</v>
@@ -40684,7 +40684,7 @@
         <v>3878.32365948</v>
       </c>
       <c r="H80">
-        <v>2035.00466182</v>
+        <v>2085.00466182</v>
       </c>
       <c r="I80">
         <v>1237.6026661</v>
@@ -40738,10 +40738,10 @@
         <v>0</v>
       </c>
       <c r="Z80">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>2035.00466182</v>
+        <v>2085.00466182</v>
       </c>
       <c r="AB80">
         <v>1000</v>
@@ -40770,7 +40770,7 @@
         <v>3938.03386091</v>
       </c>
       <c r="H81">
-        <v>1828.84382182</v>
+        <v>1878.84382182</v>
       </c>
       <c r="I81">
         <v>1236.12669723</v>
@@ -40824,10 +40824,10 @@
         <v>0</v>
       </c>
       <c r="Z81">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>1828.84382182</v>
+        <v>1878.84382182</v>
       </c>
       <c r="AB81">
         <v>1000</v>
@@ -40856,7 +40856,7 @@
         <v>4042.58150855</v>
       </c>
       <c r="H82">
-        <v>1918.22778182</v>
+        <v>1968.22778182</v>
       </c>
       <c r="I82">
         <v>1234.65072835</v>
@@ -40910,10 +40910,10 @@
         <v>0</v>
       </c>
       <c r="Z82">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>1918.22778182</v>
+        <v>1968.22778182</v>
       </c>
       <c r="AB82">
         <v>1000</v>
@@ -40942,7 +40942,7 @@
         <v>4248.02838189</v>
       </c>
       <c r="H83">
-        <v>1975.03034182</v>
+        <v>2025.03034182</v>
       </c>
       <c r="I83">
         <v>1233.53087392</v>
@@ -40996,10 +40996,10 @@
         <v>0</v>
       </c>
       <c r="Z83">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>1975.03034182</v>
+        <v>2025.03034182</v>
       </c>
       <c r="AB83">
         <v>1000</v>
@@ -41028,7 +41028,7 @@
         <v>4401.80107352</v>
       </c>
       <c r="H84">
-        <v>1821.65370182</v>
+        <v>1871.65370182</v>
       </c>
       <c r="I84">
         <v>1232.4110195</v>
@@ -41082,10 +41082,10 @@
         <v>0</v>
       </c>
       <c r="Z84">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>1821.65370182</v>
+        <v>1871.65370182</v>
       </c>
       <c r="AB84">
         <v>1000</v>
@@ -41114,7 +41114,7 @@
         <v>4005.69540668</v>
       </c>
       <c r="H85">
-        <v>1829.98586182</v>
+        <v>1879.98586182</v>
       </c>
       <c r="I85">
         <v>1231.4137096</v>
@@ -41168,10 +41168,10 @@
         <v>0</v>
       </c>
       <c r="Z85">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>1829.98586182</v>
+        <v>1879.98586182</v>
       </c>
       <c r="AB85">
         <v>1000</v>
@@ -41200,7 +41200,7 @@
         <v>4105.39755379</v>
       </c>
       <c r="H86">
-        <v>1886.31802182</v>
+        <v>1936.31802182</v>
       </c>
       <c r="I86">
         <v>1230.4163997</v>
@@ -41254,10 +41254,10 @@
         <v>0</v>
       </c>
       <c r="Z86">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>1886.31802182</v>
+        <v>1936.31802182</v>
       </c>
       <c r="AB86">
         <v>1000</v>
@@ -41286,7 +41286,7 @@
         <v>4304.00204115</v>
       </c>
       <c r="H87">
-        <v>1974.65018182</v>
+        <v>2024.65018182</v>
       </c>
       <c r="I87">
         <v>1230.51674955</v>
@@ -41340,10 +41340,10 @@
         <v>0</v>
       </c>
       <c r="Z87">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>1974.65018182</v>
+        <v>2024.65018182</v>
       </c>
       <c r="AB87">
         <v>1000</v>
@@ -41372,7 +41372,7 @@
         <v>3902.60652851</v>
       </c>
       <c r="H88">
-        <v>1915.78234182</v>
+        <v>1965.78234182</v>
       </c>
       <c r="I88">
         <v>1230.6170994</v>
@@ -41426,10 +41426,10 @@
         <v>0</v>
       </c>
       <c r="Z88">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>1915.78234182</v>
+        <v>1965.78234182</v>
       </c>
       <c r="AB88">
         <v>1000</v>
@@ -41458,7 +41458,7 @@
         <v>3651.41924177</v>
       </c>
       <c r="H89">
-        <v>1936.91450182</v>
+        <v>1986.91450182</v>
       </c>
       <c r="I89">
         <v>1230.50922335</v>
@@ -41512,10 +41512,10 @@
         <v>0</v>
       </c>
       <c r="Z89">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>1936.91450182</v>
+        <v>1986.91450182</v>
       </c>
       <c r="AB89">
         <v>1000</v>
@@ -41544,7 +41544,7 @@
         <v>4525.23195503</v>
       </c>
       <c r="H90">
-        <v>1958.04666182</v>
+        <v>2008.04666182</v>
       </c>
       <c r="I90">
         <v>605.4013473</v>
@@ -41598,10 +41598,10 @@
         <v>0</v>
       </c>
       <c r="Z90">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>1958.04666182</v>
+        <v>2008.04666182</v>
       </c>
       <c r="AB90">
         <v>1000</v>
@@ -41630,7 +41630,7 @@
         <v>5473.81001698</v>
       </c>
       <c r="H91">
-        <v>1979.17882182</v>
+        <v>2029.17882182</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -41684,10 +41684,10 @@
         <v>0</v>
       </c>
       <c r="Z91">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>1979.17882182</v>
+        <v>2029.17882182</v>
       </c>
       <c r="AB91">
         <v>1000</v>
@@ -41716,7 +41716,7 @@
         <v>5811.07228947</v>
       </c>
       <c r="H92">
-        <v>2096.31098182</v>
+        <v>2146.31098182</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -41770,10 +41770,10 @@
         <v>0</v>
       </c>
       <c r="Z92">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>2096.31098182</v>
+        <v>2146.31098182</v>
       </c>
       <c r="AB92">
         <v>1000</v>
@@ -41802,7 +41802,7 @@
         <v>5434.738107</v>
       </c>
       <c r="H93">
-        <v>2117.91938182</v>
+        <v>2167.91938182</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -41853,13 +41853,13 @@
         <v>303.018084337</v>
       </c>
       <c r="Y93">
-        <v>0.380992000004</v>
+        <v>0.380992000008</v>
       </c>
       <c r="Z93">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>2117.91938182</v>
+        <v>2167.91938182</v>
       </c>
       <c r="AB93">
         <v>1000</v>
@@ -41888,7 +41888,7 @@
         <v>5058.57094079</v>
       </c>
       <c r="H94">
-        <v>2058.57530182</v>
+        <v>2108.57530182</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -41942,10 +41942,10 @@
         <v>0</v>
       </c>
       <c r="Z94">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>2058.57530182</v>
+        <v>2108.57530182</v>
       </c>
       <c r="AB94">
         <v>1000</v>
@@ -41974,7 +41974,7 @@
         <v>5153.1659108</v>
       </c>
       <c r="H95">
-        <v>2183.32978182</v>
+        <v>2233.32978182</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -42028,10 +42028,10 @@
         <v>18.897856</v>
       </c>
       <c r="Z95">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>2183.32978182</v>
+        <v>2233.32978182</v>
       </c>
       <c r="AB95">
         <v>1000</v>
@@ -42060,7 +42060,7 @@
         <v>5196.36673131</v>
       </c>
       <c r="H96">
-        <v>2316.03498182</v>
+        <v>2366.03498182</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -42114,10 +42114,10 @@
         <v>44.156288</v>
       </c>
       <c r="Z96">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA96">
-        <v>2316.03498182</v>
+        <v>2366.03498182</v>
       </c>
       <c r="AB96">
         <v>1000</v>
@@ -42146,7 +42146,7 @@
         <v>5243.04224941</v>
       </c>
       <c r="H97">
-        <v>2348.74018182</v>
+        <v>2398.74018182</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -42200,10 +42200,10 @@
         <v>53.41472</v>
       </c>
       <c r="Z97">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>2348.74018182</v>
+        <v>2398.74018182</v>
       </c>
       <c r="AB97">
         <v>1000</v>

--- a/DayAhead Heat DR.xlsx
+++ b/DayAhead Heat DR.xlsx
@@ -568,7 +568,7 @@
         <v>6598.81410477</v>
       </c>
       <c r="H2">
-        <v>3646.21698909</v>
+        <v>4370.89850909</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>3646.21698909</v>
+        <v>4370.89850909</v>
       </c>
       <c r="AB2">
         <v>1000</v>
@@ -654,7 +654,7 @@
         <v>6124.08120552</v>
       </c>
       <c r="H3">
-        <v>3669.84098909</v>
+        <v>4399.92250909</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>3669.84098909</v>
+        <v>4399.92250909</v>
       </c>
       <c r="AB3">
         <v>1000</v>
@@ -740,7 +740,7 @@
         <v>5649.34830626</v>
       </c>
       <c r="H4">
-        <v>3693.46498909</v>
+        <v>4428.94650909</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>3693.46498909</v>
+        <v>4428.94650909</v>
       </c>
       <c r="AB4">
         <v>1000</v>
@@ -826,7 +826,7 @@
         <v>6374.87732005</v>
       </c>
       <c r="H5">
-        <v>3717.08898909</v>
+        <v>4457.97050909</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>3717.08898909</v>
+        <v>4457.97050909</v>
       </c>
       <c r="AB5">
         <v>1000</v>
@@ -912,7 +912,7 @@
         <v>7100.40633384</v>
       </c>
       <c r="H6">
-        <v>3720.71298909</v>
+        <v>4466.99450909</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>3720.71298909</v>
+        <v>4466.99450909</v>
       </c>
       <c r="AB6">
         <v>1000</v>
@@ -998,7 +998,7 @@
         <v>6875.90908939</v>
       </c>
       <c r="H7">
-        <v>3734.33698909</v>
+        <v>4486.01850909</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>3734.33698909</v>
+        <v>4486.01850909</v>
       </c>
       <c r="AB7">
         <v>1000</v>
@@ -1084,7 +1084,7 @@
         <v>6651.41184493</v>
       </c>
       <c r="H8">
-        <v>3747.96098909</v>
+        <v>4505.04250909</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>3747.96098909</v>
+        <v>4505.04250909</v>
       </c>
       <c r="AB8">
         <v>1000</v>
@@ -1170,7 +1170,7 @@
         <v>6619.43717922</v>
       </c>
       <c r="H9">
-        <v>3643.58498909</v>
+        <v>4374.06650909</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>3643.58498909</v>
+        <v>4374.06650909</v>
       </c>
       <c r="AB9">
         <v>1000</v>
@@ -1256,7 +1256,7 @@
         <v>6629.55258674</v>
       </c>
       <c r="H10">
-        <v>3593.20898909</v>
+        <v>4313.09050909</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>3593.20898909</v>
+        <v>4313.09050909</v>
       </c>
       <c r="AB10">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         <v>6717.61703342</v>
       </c>
       <c r="H11">
-        <v>3558.83298909</v>
+        <v>4272.11450909</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>3558.83298909</v>
+        <v>4272.11450909</v>
       </c>
       <c r="AB11">
         <v>1000</v>
@@ -1428,7 +1428,7 @@
         <v>6690.06535177</v>
       </c>
       <c r="H12">
-        <v>3512.45698909</v>
+        <v>4211.13850909</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>3512.45698909</v>
+        <v>4211.13850909</v>
       </c>
       <c r="AB12">
         <v>1000</v>
@@ -1514,7 +1514,7 @@
         <v>6899.76513708</v>
       </c>
       <c r="H13">
-        <v>3436.08098909</v>
+        <v>4120.16250909</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>3436.08098909</v>
+        <v>4120.16250909</v>
       </c>
       <c r="AB13">
         <v>1000</v>
@@ -1600,7 +1600,7 @@
         <v>7309.46492238</v>
       </c>
       <c r="H14">
-        <v>3449.70498909</v>
+        <v>4139.18650909</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>3449.70498909</v>
+        <v>4139.18650909</v>
       </c>
       <c r="AB14">
         <v>1000</v>
@@ -1686,7 +1686,7 @@
         <v>6864.19239331</v>
       </c>
       <c r="H15">
-        <v>3375.17898909</v>
+        <v>4050.06050909</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>3375.17898909</v>
+        <v>4050.06050909</v>
       </c>
       <c r="AB15">
         <v>1000</v>
@@ -1772,7 +1772,7 @@
         <v>6590.83846889</v>
       </c>
       <c r="H16">
-        <v>3458.75298909</v>
+        <v>4159.03450909</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>3458.75298909</v>
+        <v>4159.03450909</v>
       </c>
       <c r="AB16">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
         <v>7084.32779146</v>
       </c>
       <c r="H17">
-        <v>3467.49850909</v>
+        <v>4173.18002909</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1909,13 +1909,13 @@
         <v>1001.3010686</v>
       </c>
       <c r="Y17">
-        <v>4.137216</v>
+        <v>4.137216000008</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>3467.49850909</v>
+        <v>4173.18002909</v>
       </c>
       <c r="AB17">
         <v>1000</v>
@@ -1944,7 +1944,7 @@
         <v>6827.9478401</v>
       </c>
       <c r="H18">
-        <v>3494.49850909</v>
+        <v>4205.58002909</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>3494.49850909</v>
+        <v>4205.58002909</v>
       </c>
       <c r="AB18">
         <v>1000</v>
@@ -2030,7 +2030,7 @@
         <v>6836.55053989</v>
       </c>
       <c r="H19">
-        <v>3521.49850909</v>
+        <v>4237.98002909</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>3521.49850909</v>
+        <v>4237.98002909</v>
       </c>
       <c r="AB19">
         <v>1000</v>
@@ -2116,7 +2116,7 @@
         <v>6170.20858852</v>
       </c>
       <c r="H20">
-        <v>3528.49850909</v>
+        <v>4246.38002909</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>3528.49850909</v>
+        <v>4246.38002909</v>
       </c>
       <c r="AB20">
         <v>1000</v>
@@ -2202,7 +2202,7 @@
         <v>6124.72437324</v>
       </c>
       <c r="H21">
-        <v>3475.49850909</v>
+        <v>4182.78002909</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>3475.49850909</v>
+        <v>4182.78002909</v>
       </c>
       <c r="AB21">
         <v>1000</v>
@@ -2288,7 +2288,7 @@
         <v>6076.43457658</v>
       </c>
       <c r="H22">
-        <v>3502.49850909</v>
+        <v>4215.18002909</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>3502.49850909</v>
+        <v>4215.18002909</v>
       </c>
       <c r="AB22">
         <v>1000</v>
@@ -2374,7 +2374,7 @@
         <v>5824.56167394</v>
       </c>
       <c r="H23">
-        <v>3429.49850909</v>
+        <v>4127.58002909</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>3429.49850909</v>
+        <v>4127.58002909</v>
       </c>
       <c r="AB23">
         <v>1000</v>
@@ -2460,7 +2460,7 @@
         <v>5569.88318991</v>
       </c>
       <c r="H24">
-        <v>3456.49850909</v>
+        <v>4159.98002909</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>3456.49850909</v>
+        <v>4159.98002909</v>
       </c>
       <c r="AB24">
         <v>1000</v>
@@ -2546,7 +2546,7 @@
         <v>5720.26617518</v>
       </c>
       <c r="H25">
-        <v>3383.49850909</v>
+        <v>4072.38002909</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1230.69663055</v>
       </c>
       <c r="K25">
-        <v>7870.86700651</v>
+        <v>7870.86700652</v>
       </c>
       <c r="L25">
         <v>1250</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>3383.49850909</v>
+        <v>4072.38002909</v>
       </c>
       <c r="AB25">
         <v>1000</v>
@@ -2632,7 +2632,7 @@
         <v>5867.14218371</v>
       </c>
       <c r="H26">
-        <v>3410.49850909</v>
+        <v>4104.78002909</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>3410.49850909</v>
+        <v>4104.78002909</v>
       </c>
       <c r="AB26">
         <v>1000</v>
@@ -2718,7 +2718,7 @@
         <v>5759.24314549</v>
       </c>
       <c r="H27">
-        <v>3337.49850909</v>
+        <v>4017.18002909</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>3337.49850909</v>
+        <v>4017.18002909</v>
       </c>
       <c r="AB27">
         <v>1000</v>
@@ -2804,7 +2804,7 @@
         <v>5650.31761519</v>
       </c>
       <c r="H28">
-        <v>3264.49850909</v>
+        <v>3929.58002909</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>3264.49850909</v>
+        <v>3929.58002909</v>
       </c>
       <c r="AB28">
         <v>1000</v>
@@ -2890,7 +2890,7 @@
         <v>5622.34742217</v>
       </c>
       <c r="H29">
-        <v>3291.49850909</v>
+        <v>3961.98002909</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>3291.49850909</v>
+        <v>3961.98002909</v>
       </c>
       <c r="AB29">
         <v>1000</v>
@@ -2976,7 +2976,7 @@
         <v>5594.37722909</v>
       </c>
       <c r="H30">
-        <v>3318.49850909</v>
+        <v>3994.38002909</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>3318.49850909</v>
+        <v>3994.38002909</v>
       </c>
       <c r="AB30">
         <v>1000</v>
@@ -3062,7 +3062,7 @@
         <v>5854.1792177</v>
       </c>
       <c r="H31">
-        <v>3245.49850909</v>
+        <v>3906.78002909</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>3245.49850909</v>
+        <v>3906.78002909</v>
       </c>
       <c r="AB31">
         <v>1000</v>
@@ -3148,7 +3148,7 @@
         <v>6134.89283422</v>
       </c>
       <c r="H32">
-        <v>3272.49850909</v>
+        <v>3939.18002909</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>3272.49850909</v>
+        <v>3939.18002909</v>
       </c>
       <c r="AB32">
         <v>1000</v>
@@ -3234,7 +3234,7 @@
         <v>6218.59669149</v>
       </c>
       <c r="H33">
-        <v>3299.49850909</v>
+        <v>3971.58002909</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>3299.49850909</v>
+        <v>3971.58002909</v>
       </c>
       <c r="AB33">
         <v>1000</v>
@@ -3320,7 +3320,7 @@
         <v>5005.80752561</v>
       </c>
       <c r="H34">
-        <v>2617.4076</v>
+        <v>3274.88912</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>2617.4076</v>
+        <v>3274.88912</v>
       </c>
       <c r="AB34">
         <v>1000</v>
@@ -3406,7 +3406,7 @@
         <v>3922.19834642</v>
       </c>
       <c r="H35">
-        <v>1996.22578182</v>
+        <v>2639.10730182</v>
       </c>
       <c r="I35">
         <v>195.68059635</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>1996.22578182</v>
+        <v>2639.10730182</v>
       </c>
       <c r="AB35">
         <v>1000</v>
@@ -3492,7 +3492,7 @@
         <v>3938.43558594</v>
       </c>
       <c r="H36">
-        <v>1923.22578182</v>
+        <v>2551.50730182</v>
       </c>
       <c r="I36">
         <v>212.6626359</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>1923.22578182</v>
+        <v>2551.50730182</v>
       </c>
       <c r="AB36">
         <v>1000</v>
@@ -3578,7 +3578,7 @@
         <v>4216.54426087</v>
       </c>
       <c r="H37">
-        <v>1861.02426182</v>
+        <v>2474.70578182</v>
       </c>
       <c r="I37">
         <v>220.6708089</v>
@@ -3614,7 +3614,7 @@
         <v>1380.9759999986</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>3.3348139065e-12</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1.00044417195e-11</v>
       </c>
       <c r="X37">
         <v>2832.9341772</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>1861.02426182</v>
+        <v>2474.70578182</v>
       </c>
       <c r="AB37">
         <v>1000</v>
@@ -3664,7 +3664,7 @@
         <v>4271.42598423</v>
       </c>
       <c r="H38">
-        <v>1977.22578182</v>
+        <v>2616.30730182</v>
       </c>
       <c r="I38">
         <v>228.6789818</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>1977.22578182</v>
+        <v>2616.30730182</v>
       </c>
       <c r="AB38">
         <v>1000</v>
@@ -3750,7 +3750,7 @@
         <v>4245.62911116</v>
       </c>
       <c r="H39">
-        <v>2062.32018182</v>
+        <v>2718.42058182</v>
       </c>
       <c r="I39">
         <v>243.2988001</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>2062.32018182</v>
+        <v>2718.42058182</v>
       </c>
       <c r="AB39">
         <v>1000</v>
@@ -3836,7 +3836,7 @@
         <v>4349.17021927</v>
       </c>
       <c r="H40">
-        <v>2029.09018182</v>
+        <v>2678.54458182</v>
       </c>
       <c r="I40">
         <v>257.9186185</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>2029.09018182</v>
+        <v>2678.54458182</v>
       </c>
       <c r="AB40">
         <v>1000</v>
@@ -3922,7 +3922,7 @@
         <v>4175.00478525</v>
       </c>
       <c r="H41">
-        <v>2195.86018182</v>
+        <v>2878.66858182</v>
       </c>
       <c r="I41">
         <v>268.6624674</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>2195.86018182</v>
+        <v>2878.66858182</v>
       </c>
       <c r="AB41">
         <v>1000</v>
@@ -4008,7 +4008,7 @@
         <v>4251.78074658</v>
       </c>
       <c r="H42">
-        <v>2362.63018182</v>
+        <v>3078.79258182</v>
       </c>
       <c r="I42">
         <v>279.4063163</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>2362.63018182</v>
+        <v>3078.79258182</v>
       </c>
       <c r="AB42">
         <v>1000</v>
@@ -4094,7 +4094,7 @@
         <v>4430.9264938</v>
       </c>
       <c r="H43">
-        <v>2529.40018182</v>
+        <v>3278.91658182</v>
       </c>
       <c r="I43">
         <v>286.75172815</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>2529.40018182</v>
+        <v>3278.91658182</v>
       </c>
       <c r="AB43">
         <v>1000</v>
@@ -4180,7 +4180,7 @@
         <v>4818.68950011</v>
       </c>
       <c r="H44">
-        <v>2500.45258182</v>
+        <v>3244.17946182</v>
       </c>
       <c r="I44">
         <v>294.09714</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>2500.45258182</v>
+        <v>3244.17946182</v>
       </c>
       <c r="AB44">
         <v>1000</v>
@@ -4266,7 +4266,7 @@
         <v>4557.17687128</v>
       </c>
       <c r="H45">
-        <v>2671.08450182</v>
+        <v>3446.49768182</v>
       </c>
       <c r="I45">
         <v>296.11326825</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>2671.08450182</v>
+        <v>3446.49768182</v>
       </c>
       <c r="AB45">
         <v>1000</v>
@@ -4352,7 +4352,7 @@
         <v>4483.58909729</v>
       </c>
       <c r="H46">
-        <v>2817.31558182</v>
+        <v>3624.41506182</v>
       </c>
       <c r="I46">
         <v>298.1293965</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>2817.31558182</v>
+        <v>3624.41506182</v>
       </c>
       <c r="AB46">
         <v>1000</v>
@@ -4438,7 +4438,7 @@
         <v>4804.62002543</v>
       </c>
       <c r="H47">
-        <v>2975.74708182</v>
+        <v>3814.53286182</v>
       </c>
       <c r="I47">
         <v>304.8120885</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>2975.74708182</v>
+        <v>3814.53286182</v>
       </c>
       <c r="AB47">
         <v>1000</v>
@@ -4524,7 +4524,7 @@
         <v>4725.65095357</v>
       </c>
       <c r="H48">
-        <v>3134.17858182</v>
+        <v>4004.65066182</v>
       </c>
       <c r="I48">
         <v>311.4947805</v>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>3134.17858182</v>
+        <v>4004.65066182</v>
       </c>
       <c r="AB48">
         <v>1000</v>
@@ -4610,7 +4610,7 @@
         <v>4603.63798739</v>
       </c>
       <c r="H49">
-        <v>3292.61008182</v>
+        <v>4194.76846182</v>
       </c>
       <c r="I49">
         <v>318.9141817</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>3292.61008182</v>
+        <v>4194.76846182</v>
       </c>
       <c r="AB49">
         <v>1000</v>
@@ -4696,7 +4696,7 @@
         <v>4463.13576577</v>
       </c>
       <c r="H50">
-        <v>3978.25510182</v>
+        <v>5017.54248582</v>
       </c>
       <c r="I50">
         <v>326.3335828</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>3978.25510182</v>
+        <v>5017.54248582</v>
       </c>
       <c r="AB50">
         <v>1000</v>
@@ -4782,7 +4782,7 @@
         <v>4322.29385339</v>
       </c>
       <c r="H51">
-        <v>4094.76766182</v>
+        <v>5157.35755782</v>
       </c>
       <c r="I51">
         <v>327.3638722</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>4094.76766182</v>
+        <v>5157.35755782</v>
       </c>
       <c r="AB51">
         <v>1000</v>
@@ -4868,7 +4868,7 @@
         <v>4174.43798751</v>
       </c>
       <c r="H52">
-        <v>4211.28022182</v>
+        <v>5297.17262982</v>
       </c>
       <c r="I52">
         <v>328.3941616</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>4211.28022182</v>
+        <v>5297.17262982</v>
       </c>
       <c r="AB52">
         <v>1000</v>
@@ -4954,7 +4954,7 @@
         <v>4281.7266067</v>
       </c>
       <c r="H53">
-        <v>4327.79278182</v>
+        <v>5436.98770182</v>
       </c>
       <c r="I53">
         <v>328.359253</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>4327.79278182</v>
+        <v>5436.98770182</v>
       </c>
       <c r="AB53">
         <v>1000</v>
@@ -5040,7 +5040,7 @@
         <v>4287.75271437</v>
       </c>
       <c r="H54">
-        <v>4444.30534182</v>
+        <v>5576.80277382</v>
       </c>
       <c r="I54">
         <v>328.3243443</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>4444.30534182</v>
+        <v>5576.80277382</v>
       </c>
       <c r="AB54">
         <v>1000</v>
@@ -5126,7 +5126,7 @@
         <v>4347.22744317</v>
       </c>
       <c r="H55">
-        <v>4560.81790182</v>
+        <v>5716.61784582</v>
       </c>
       <c r="I55">
         <v>324.834954</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>4560.81790182</v>
+        <v>5716.61784582</v>
       </c>
       <c r="AB55">
         <v>1000</v>
@@ -5212,7 +5212,7 @@
         <v>4406.70217207</v>
       </c>
       <c r="H56">
-        <v>4677.33046182</v>
+        <v>5856.43291782</v>
       </c>
       <c r="I56">
         <v>321.3455636</v>
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>4677.33046182</v>
+        <v>5856.43291782</v>
       </c>
       <c r="AB56">
         <v>1000</v>
@@ -5298,7 +5298,7 @@
         <v>3792.77317305</v>
       </c>
       <c r="H57">
-        <v>4793.84302182</v>
+        <v>5996.24798982</v>
       </c>
       <c r="I57">
         <v>934.46762205</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>4793.84302182</v>
+        <v>5996.24798982</v>
       </c>
       <c r="AB57">
         <v>1000</v>
@@ -5384,7 +5384,7 @@
         <v>3656.55504063</v>
       </c>
       <c r="H58">
-        <v>4910.35558182</v>
+        <v>6136.06306182</v>
       </c>
       <c r="I58">
         <v>1547.5896805</v>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>4910.35558182</v>
+        <v>6136.06306182</v>
       </c>
       <c r="AB58">
         <v>1000</v>
@@ -5470,7 +5470,7 @@
         <v>3715.32908243</v>
       </c>
       <c r="H59">
-        <v>5026.86814182</v>
+        <v>6275.87813382</v>
       </c>
       <c r="I59">
         <v>1542.79416195</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>5026.86814182</v>
+        <v>6275.87813382</v>
       </c>
       <c r="AB59">
         <v>1000</v>
@@ -5556,7 +5556,7 @@
         <v>3772.7403314</v>
       </c>
       <c r="H60">
-        <v>5020.24018182</v>
+        <v>6267.92458182</v>
       </c>
       <c r="I60">
         <v>1537.9986433</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>5020.24018182</v>
+        <v>6267.92458182</v>
       </c>
       <c r="AB60">
         <v>1000</v>
@@ -5642,7 +5642,7 @@
         <v>3951.29275918</v>
       </c>
       <c r="H61">
-        <v>5013.61222182</v>
+        <v>6259.97102982</v>
       </c>
       <c r="I61">
         <v>1516.58460035</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>5013.61222182</v>
+        <v>6259.97102982</v>
       </c>
       <c r="AB61">
         <v>1000</v>
@@ -5728,7 +5728,7 @@
         <v>4036.85914055</v>
       </c>
       <c r="H62">
-        <v>5006.98426182</v>
+        <v>6252.01747782</v>
       </c>
       <c r="I62">
         <v>1495.1705573</v>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>5006.98426182</v>
+        <v>6252.01747782</v>
       </c>
       <c r="AB62">
         <v>1000</v>
@@ -5814,7 +5814,7 @@
         <v>4121.01780813</v>
       </c>
       <c r="H63">
-        <v>5000.35630182</v>
+        <v>6244.06392582</v>
       </c>
       <c r="I63">
         <v>1479.27287845</v>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>5000.35630182</v>
+        <v>6244.06392582</v>
       </c>
       <c r="AB63">
         <v>1000</v>
@@ -5900,7 +5900,7 @@
         <v>4194.65554559</v>
       </c>
       <c r="H64">
-        <v>4993.72834182</v>
+        <v>6236.11037382</v>
       </c>
       <c r="I64">
         <v>1463.3751995</v>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>4993.72834182</v>
+        <v>6236.11037382</v>
       </c>
       <c r="AB64">
         <v>1000</v>
@@ -5986,7 +5986,7 @@
         <v>4150.38074262</v>
       </c>
       <c r="H65">
-        <v>4987.10038182</v>
+        <v>6228.15682182</v>
       </c>
       <c r="I65">
         <v>1450.38907195</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>4987.10038182</v>
+        <v>6228.15682182</v>
       </c>
       <c r="AB65">
         <v>1000</v>
@@ -6072,7 +6072,7 @@
         <v>4106.10593975</v>
       </c>
       <c r="H66">
-        <v>4980.47242182</v>
+        <v>6220.20326982</v>
       </c>
       <c r="I66">
         <v>1437.4029443</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>4980.47242182</v>
+        <v>6220.20326982</v>
       </c>
       <c r="AB66">
         <v>1000</v>
@@ -6158,7 +6158,7 @@
         <v>4054.74605567</v>
       </c>
       <c r="H67">
-        <v>4973.84446182</v>
+        <v>6212.24971782</v>
       </c>
       <c r="I67">
         <v>1420.85275405</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>4973.84446182</v>
+        <v>6212.24971782</v>
       </c>
       <c r="AB67">
         <v>1000</v>
@@ -6244,7 +6244,7 @@
         <v>4013.90710171</v>
       </c>
       <c r="H68">
-        <v>4967.21650182</v>
+        <v>6204.29616582</v>
       </c>
       <c r="I68">
         <v>1404.3025639</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>4967.21650182</v>
+        <v>6204.29616582</v>
       </c>
       <c r="AB68">
         <v>1000</v>
@@ -6330,7 +6330,7 @@
         <v>2965.87982118</v>
       </c>
       <c r="H69">
-        <v>4960.58854182</v>
+        <v>6196.34261382</v>
       </c>
       <c r="I69">
         <v>1379.9265954</v>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>4960.58854182</v>
+        <v>6196.34261382</v>
       </c>
       <c r="AB69">
         <v>1000</v>
@@ -6416,7 +6416,7 @@
         <v>3358.63300577</v>
       </c>
       <c r="H70">
-        <v>4953.96058182</v>
+        <v>6188.38906182</v>
       </c>
       <c r="I70">
         <v>730.5506269</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>4953.96058182</v>
+        <v>6188.38906182</v>
       </c>
       <c r="AB70">
         <v>1000</v>
@@ -6502,7 +6502,7 @@
         <v>4216.98416982</v>
       </c>
       <c r="H71">
-        <v>4680.31498182</v>
+        <v>5860.01434182</v>
       </c>
       <c r="I71">
         <v>80.49037403</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>4680.31498182</v>
+        <v>5860.01434182</v>
       </c>
       <c r="AB71">
         <v>1000</v>
@@ -6588,7 +6588,7 @@
         <v>4460.85626412</v>
       </c>
       <c r="H72">
-        <v>4406.66938182</v>
+        <v>5531.63962182</v>
       </c>
       <c r="I72">
         <v>55.43012115</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>4406.66938182</v>
+        <v>5531.63962182</v>
       </c>
       <c r="AB72">
         <v>1000</v>
@@ -6674,7 +6674,7 @@
         <v>5358.3645996</v>
       </c>
       <c r="H73">
-        <v>4742.11469091</v>
+        <v>5812.35581091</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6731,7 +6731,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA73">
-        <v>4742.11469091</v>
+        <v>5812.35581091</v>
       </c>
       <c r="AB73">
         <v>1000</v>
@@ -6760,7 +6760,7 @@
         <v>6469.26970423</v>
       </c>
       <c r="H74">
-        <v>5585.8894</v>
+        <v>6175.76592</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -6778,13 +6778,13 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>6.71940115489e-12</v>
+        <v>-1.30655022456e-12</v>
       </c>
       <c r="O74">
-        <v>8.185452315956907e-12</v>
+        <v>-1.591615728100363e-12</v>
       </c>
       <c r="P74">
-        <v>5.456968210637938e-12</v>
+        <v>-1.061077152066909e-12</v>
       </c>
       <c r="Q74">
         <v>37.6022046</v>
@@ -6817,10 +6817,10 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA74">
-        <v>5585.8894</v>
+        <v>6175.76592</v>
       </c>
       <c r="AB74">
-        <v>5585.8894</v>
+        <v>6175.76592</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6846,7 +6846,7 @@
         <v>6182.92246279</v>
       </c>
       <c r="H75">
-        <v>5361.61435</v>
+        <v>5951.49087</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -6864,13 +6864,13 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="O75">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="P75">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="Q75">
         <v>27.74133405</v>
@@ -6903,10 +6903,10 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA75">
-        <v>5361.61435</v>
+        <v>5951.49087</v>
       </c>
       <c r="AB75">
-        <v>5361.61435</v>
+        <v>5951.49087</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6932,7 +6932,7 @@
         <v>5561.9172965</v>
       </c>
       <c r="H76">
-        <v>5137.3393</v>
+        <v>5727.21582</v>
       </c>
       <c r="I76">
         <v>10.2639128</v>
@@ -6950,13 +6950,13 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="P76">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="Q76">
         <v>17.8804635</v>
@@ -6989,10 +6989,10 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA76">
-        <v>5137.3393</v>
+        <v>5727.21582</v>
       </c>
       <c r="AB76">
-        <v>5137.3393</v>
+        <v>5727.21582</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7015,10 +7015,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>5443.64493463</v>
+        <v>5336.13632792</v>
       </c>
       <c r="H77">
-        <v>4913.06425</v>
+        <v>5502.94077</v>
       </c>
       <c r="I77">
         <v>628.6586002499999</v>
@@ -7036,13 +7036,13 @@
         <v>625</v>
       </c>
       <c r="N77">
-        <v>5.97280102657e-12</v>
+        <v>107.508606716</v>
       </c>
       <c r="O77">
-        <v>7.275957614185271e-12</v>
+        <v>130.9650299994909</v>
       </c>
       <c r="P77">
-        <v>4.850638409456847e-12</v>
+        <v>87.3100199996606</v>
       </c>
       <c r="Q77">
         <v>12.8889432</v>
@@ -7075,10 +7075,10 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA77">
-        <v>4913.06425</v>
+        <v>5502.94077</v>
       </c>
       <c r="AB77">
-        <v>4913.06425</v>
+        <v>5502.94077</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7101,10 +7101,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G78">
-        <v>4372.4028998</v>
+        <v>4264.89429308</v>
       </c>
       <c r="H78">
-        <v>3079.69829091</v>
+        <v>3686.49110091</v>
       </c>
       <c r="I78">
         <v>1247.0532877</v>
@@ -7122,13 +7122,13 @@
         <v>1250</v>
       </c>
       <c r="N78">
-        <v>500</v>
+        <v>607.508606716</v>
       </c>
       <c r="O78">
-        <v>609.0909090909089</v>
+        <v>740.0559390903999</v>
       </c>
       <c r="P78">
-        <v>406.060606060606</v>
+        <v>493.3706260602666</v>
       </c>
       <c r="Q78">
         <v>7.8974229</v>
@@ -7161,7 +7161,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA78">
-        <v>3079.69829091</v>
+        <v>3686.49110091</v>
       </c>
       <c r="AB78">
         <v>1000</v>
@@ -7190,7 +7190,7 @@
         <v>4055.4760231</v>
       </c>
       <c r="H79">
-        <v>2249.98870182</v>
+        <v>2942.89153182</v>
       </c>
       <c r="I79">
         <v>1242.3279769</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>2249.98870182</v>
+        <v>2942.89153182</v>
       </c>
       <c r="AB79">
         <v>1000</v>
@@ -7276,7 +7276,7 @@
         <v>3878.32365948</v>
       </c>
       <c r="H80">
-        <v>2085.00466182</v>
+        <v>2733.05248182</v>
       </c>
       <c r="I80">
         <v>1237.6026661</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>2085.00466182</v>
+        <v>2733.05248182</v>
       </c>
       <c r="AB80">
         <v>1000</v>
@@ -7362,10 +7362,10 @@
         <v>3938.03386091</v>
       </c>
       <c r="H81">
-        <v>1878.84382182</v>
+        <v>2482.03663182</v>
       </c>
       <c r="I81">
-        <v>1236.12669723</v>
+        <v>1236.12669722</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>1878.84382182</v>
+        <v>2482.03663182</v>
       </c>
       <c r="AB81">
         <v>1000</v>
@@ -7448,7 +7448,7 @@
         <v>4042.58150855</v>
       </c>
       <c r="H82">
-        <v>1968.22778182</v>
+        <v>2595.95178182</v>
       </c>
       <c r="I82">
         <v>1234.65072835</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>1968.22778182</v>
+        <v>2595.95178182</v>
       </c>
       <c r="AB82">
         <v>1000</v>
@@ -7534,7 +7534,7 @@
         <v>4248.02838189</v>
       </c>
       <c r="H83">
-        <v>2025.03034182</v>
+        <v>2673.64018182</v>
       </c>
       <c r="I83">
         <v>1233.53087392</v>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>2025.03034182</v>
+        <v>2673.64018182</v>
       </c>
       <c r="AB83">
         <v>1000</v>
@@ -7620,7 +7620,7 @@
         <v>4401.80107352</v>
       </c>
       <c r="H84">
-        <v>1871.65370182</v>
+        <v>2463.60458182</v>
       </c>
       <c r="I84">
         <v>1232.4110195</v>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>1871.65370182</v>
+        <v>2463.60458182</v>
       </c>
       <c r="AB84">
         <v>1000</v>
@@ -7706,7 +7706,7 @@
         <v>4005.69540668</v>
       </c>
       <c r="H85">
-        <v>1879.98586182</v>
+        <v>2475.27778182</v>
       </c>
       <c r="I85">
         <v>1231.4137096</v>
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>1879.98586182</v>
+        <v>2475.27778182</v>
       </c>
       <c r="AB85">
         <v>1000</v>
@@ -7792,7 +7792,7 @@
         <v>4105.39755379</v>
       </c>
       <c r="H86">
-        <v>1936.31802182</v>
+        <v>2546.95098182</v>
       </c>
       <c r="I86">
         <v>1230.4163997</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="AA86">
-        <v>1936.31802182</v>
+        <v>2546.95098182</v>
       </c>
       <c r="AB86">
         <v>1000</v>
@@ -7878,7 +7878,7 @@
         <v>4304.00204115</v>
       </c>
       <c r="H87">
-        <v>2024.65018182</v>
+        <v>2658.62418182</v>
       </c>
       <c r="I87">
         <v>1230.51674955</v>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>2024.65018182</v>
+        <v>2658.62418182</v>
       </c>
       <c r="AB87">
         <v>1000</v>
@@ -7964,7 +7964,7 @@
         <v>3902.60652851</v>
       </c>
       <c r="H88">
-        <v>1965.78234182</v>
+        <v>2586.29738182</v>
       </c>
       <c r="I88">
         <v>1230.6170994</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>1965.78234182</v>
+        <v>2586.29738182</v>
       </c>
       <c r="AB88">
         <v>1000</v>
@@ -8050,7 +8050,7 @@
         <v>3651.41924177</v>
       </c>
       <c r="H89">
-        <v>1986.91450182</v>
+        <v>2613.97058182</v>
       </c>
       <c r="I89">
         <v>1230.50922335</v>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>1986.91450182</v>
+        <v>2613.97058182</v>
       </c>
       <c r="AB89">
         <v>1000</v>
@@ -8136,7 +8136,7 @@
         <v>4525.23195503</v>
       </c>
       <c r="H90">
-        <v>2008.04666182</v>
+        <v>2641.64378182</v>
       </c>
       <c r="I90">
         <v>605.4013473</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>2008.04666182</v>
+        <v>2641.64378182</v>
       </c>
       <c r="AB90">
         <v>1000</v>
@@ -8222,7 +8222,7 @@
         <v>5473.81001698</v>
       </c>
       <c r="H91">
-        <v>2029.17882182</v>
+        <v>2669.31698182</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>2029.17882182</v>
+        <v>2669.31698182</v>
       </c>
       <c r="AB91">
         <v>1000</v>
@@ -8308,7 +8308,7 @@
         <v>5811.07228947</v>
       </c>
       <c r="H92">
-        <v>2146.31098182</v>
+        <v>2816.99018182</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>2146.31098182</v>
+        <v>2816.99018182</v>
       </c>
       <c r="AB92">
         <v>1000</v>
@@ -8394,7 +8394,7 @@
         <v>5434.738107</v>
       </c>
       <c r="H93">
-        <v>2167.91938182</v>
+        <v>2845.13962182</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -8445,13 +8445,13 @@
         <v>303.018084337</v>
       </c>
       <c r="Y93">
-        <v>0.380992000008</v>
+        <v>0.3809920000088</v>
       </c>
       <c r="Z93">
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>2167.91938182</v>
+        <v>2845.13962182</v>
       </c>
       <c r="AB93">
         <v>1000</v>
@@ -8480,7 +8480,7 @@
         <v>5058.57094079</v>
       </c>
       <c r="H94">
-        <v>2108.57530182</v>
+        <v>2772.33658182</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>2108.57530182</v>
+        <v>2772.33658182</v>
       </c>
       <c r="AB94">
         <v>1000</v>
@@ -8566,7 +8566,7 @@
         <v>5153.1659108</v>
       </c>
       <c r="H95">
-        <v>2233.32978182</v>
+        <v>2923.63210182</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>2233.32978182</v>
+        <v>2923.63210182</v>
       </c>
       <c r="AB95">
         <v>1000</v>
@@ -8652,7 +8652,7 @@
         <v>5196.36673131</v>
       </c>
       <c r="H96">
-        <v>2366.03498182</v>
+        <v>3082.87834182</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>2366.03498182</v>
+        <v>3082.87834182</v>
       </c>
       <c r="AB96">
         <v>1000</v>
@@ -8738,7 +8738,7 @@
         <v>5243.04224941</v>
       </c>
       <c r="H97">
-        <v>2398.74018182</v>
+        <v>3122.12458182</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>2398.74018182</v>
+        <v>3122.12458182</v>
       </c>
       <c r="AB97">
         <v>1000</v>
@@ -8920,7 +8920,7 @@
         <v>6598.81410477</v>
       </c>
       <c r="H2">
-        <v>3646.21698909</v>
+        <v>4370.89850909</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -8977,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>3646.21698909</v>
+        <v>4370.89850909</v>
       </c>
       <c r="AB2">
         <v>1000</v>
@@ -9006,7 +9006,7 @@
         <v>6124.08120552</v>
       </c>
       <c r="H3">
-        <v>3669.84098909</v>
+        <v>4399.92250909</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -9063,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>3669.84098909</v>
+        <v>4399.92250909</v>
       </c>
       <c r="AB3">
         <v>1000</v>
@@ -9092,7 +9092,7 @@
         <v>5649.34830626</v>
       </c>
       <c r="H4">
-        <v>3693.46498909</v>
+        <v>4428.94650909</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -9149,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>3693.46498909</v>
+        <v>4428.94650909</v>
       </c>
       <c r="AB4">
         <v>1000</v>
@@ -9178,7 +9178,7 @@
         <v>6374.87732005</v>
       </c>
       <c r="H5">
-        <v>3717.08898909</v>
+        <v>4457.97050909</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>3717.08898909</v>
+        <v>4457.97050909</v>
       </c>
       <c r="AB5">
         <v>1000</v>
@@ -9264,7 +9264,7 @@
         <v>7100.40633384</v>
       </c>
       <c r="H6">
-        <v>3720.71298909</v>
+        <v>4466.99450909</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>3720.71298909</v>
+        <v>4466.99450909</v>
       </c>
       <c r="AB6">
         <v>1000</v>
@@ -9350,7 +9350,7 @@
         <v>6875.90908939</v>
       </c>
       <c r="H7">
-        <v>3734.33698909</v>
+        <v>4486.01850909</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>3734.33698909</v>
+        <v>4486.01850909</v>
       </c>
       <c r="AB7">
         <v>1000</v>
@@ -9436,7 +9436,7 @@
         <v>6651.41184493</v>
       </c>
       <c r="H8">
-        <v>3747.96098909</v>
+        <v>4505.04250909</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -9493,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>3747.96098909</v>
+        <v>4505.04250909</v>
       </c>
       <c r="AB8">
         <v>1000</v>
@@ -9522,7 +9522,7 @@
         <v>6619.43717922</v>
       </c>
       <c r="H9">
-        <v>3643.58498909</v>
+        <v>4374.06650909</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>3643.58498909</v>
+        <v>4374.06650909</v>
       </c>
       <c r="AB9">
         <v>1000</v>
@@ -9608,7 +9608,7 @@
         <v>6629.55258674</v>
       </c>
       <c r="H10">
-        <v>3593.20898909</v>
+        <v>4313.09050909</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>3593.20898909</v>
+        <v>4313.09050909</v>
       </c>
       <c r="AB10">
         <v>1000</v>
@@ -9694,7 +9694,7 @@
         <v>6717.61703342</v>
       </c>
       <c r="H11">
-        <v>3558.83298909</v>
+        <v>4272.11450909</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>3558.83298909</v>
+        <v>4272.11450909</v>
       </c>
       <c r="AB11">
         <v>1000</v>
@@ -9780,7 +9780,7 @@
         <v>6690.06535177</v>
       </c>
       <c r="H12">
-        <v>3512.45698909</v>
+        <v>4211.13850909</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>3512.45698909</v>
+        <v>4211.13850909</v>
       </c>
       <c r="AB12">
         <v>1000</v>
@@ -9866,7 +9866,7 @@
         <v>6899.76513708</v>
       </c>
       <c r="H13">
-        <v>3436.08098909</v>
+        <v>4120.16250909</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -9923,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>3436.08098909</v>
+        <v>4120.16250909</v>
       </c>
       <c r="AB13">
         <v>1000</v>
@@ -9952,7 +9952,7 @@
         <v>7309.46492238</v>
       </c>
       <c r="H14">
-        <v>3449.70498909</v>
+        <v>4139.18650909</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>3449.70498909</v>
+        <v>4139.18650909</v>
       </c>
       <c r="AB14">
         <v>1000</v>
@@ -10038,7 +10038,7 @@
         <v>6864.19239331</v>
       </c>
       <c r="H15">
-        <v>3375.17898909</v>
+        <v>4050.06050909</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>3375.17898909</v>
+        <v>4050.06050909</v>
       </c>
       <c r="AB15">
         <v>1000</v>
@@ -10124,7 +10124,7 @@
         <v>6590.83846889</v>
       </c>
       <c r="H16">
-        <v>3458.75298909</v>
+        <v>4159.03450909</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>3458.75298909</v>
+        <v>4159.03450909</v>
       </c>
       <c r="AB16">
         <v>1000</v>
@@ -10210,7 +10210,7 @@
         <v>7084.32779146</v>
       </c>
       <c r="H17">
-        <v>3467.49850909</v>
+        <v>4173.18002909</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -10261,13 +10261,13 @@
         <v>1001.3010686</v>
       </c>
       <c r="Y17">
-        <v>4.137216</v>
+        <v>4.137216000008</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>3467.49850909</v>
+        <v>4173.18002909</v>
       </c>
       <c r="AB17">
         <v>1000</v>
@@ -10296,7 +10296,7 @@
         <v>6827.9478401</v>
       </c>
       <c r="H18">
-        <v>3494.49850909</v>
+        <v>4205.58002909</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>3494.49850909</v>
+        <v>4205.58002909</v>
       </c>
       <c r="AB18">
         <v>1000</v>
@@ -10382,7 +10382,7 @@
         <v>6836.55053989</v>
       </c>
       <c r="H19">
-        <v>3521.49850909</v>
+        <v>4237.98002909</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>3521.49850909</v>
+        <v>4237.98002909</v>
       </c>
       <c r="AB19">
         <v>1000</v>
@@ -10468,7 +10468,7 @@
         <v>6170.20858852</v>
       </c>
       <c r="H20">
-        <v>3528.49850909</v>
+        <v>4246.38002909</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>3528.49850909</v>
+        <v>4246.38002909</v>
       </c>
       <c r="AB20">
         <v>1000</v>
@@ -10554,7 +10554,7 @@
         <v>6124.72437324</v>
       </c>
       <c r="H21">
-        <v>3475.49850909</v>
+        <v>4182.78002909</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>3475.49850909</v>
+        <v>4182.78002909</v>
       </c>
       <c r="AB21">
         <v>1000</v>
@@ -10640,7 +10640,7 @@
         <v>6076.43457658</v>
       </c>
       <c r="H22">
-        <v>3502.49850909</v>
+        <v>4215.18002909</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>3502.49850909</v>
+        <v>4215.18002909</v>
       </c>
       <c r="AB22">
         <v>1000</v>
@@ -10726,7 +10726,7 @@
         <v>5824.56167394</v>
       </c>
       <c r="H23">
-        <v>3429.49850909</v>
+        <v>4127.58002909</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>3429.49850909</v>
+        <v>4127.58002909</v>
       </c>
       <c r="AB23">
         <v>1000</v>
@@ -10812,7 +10812,7 @@
         <v>5569.88318991</v>
       </c>
       <c r="H24">
-        <v>3456.49850909</v>
+        <v>4159.98002909</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>3456.49850909</v>
+        <v>4159.98002909</v>
       </c>
       <c r="AB24">
         <v>1000</v>
@@ -10898,7 +10898,7 @@
         <v>5720.26617518</v>
       </c>
       <c r="H25">
-        <v>3383.49850909</v>
+        <v>4072.38002909</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>3383.49850909</v>
+        <v>4072.38002909</v>
       </c>
       <c r="AB25">
         <v>1000</v>
@@ -10984,7 +10984,7 @@
         <v>5867.14218371</v>
       </c>
       <c r="H26">
-        <v>3410.49850909</v>
+        <v>4104.78002909</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>3410.49850909</v>
+        <v>4104.78002909</v>
       </c>
       <c r="AB26">
         <v>1000</v>
@@ -11070,7 +11070,7 @@
         <v>5759.24314549</v>
       </c>
       <c r="H27">
-        <v>3337.49850909</v>
+        <v>4017.18002909</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>3337.49850909</v>
+        <v>4017.18002909</v>
       </c>
       <c r="AB27">
         <v>1000</v>
@@ -11156,7 +11156,7 @@
         <v>5650.31761519</v>
       </c>
       <c r="H28">
-        <v>3264.49850909</v>
+        <v>3929.58002909</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -11213,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>3264.49850909</v>
+        <v>3929.58002909</v>
       </c>
       <c r="AB28">
         <v>1000</v>
@@ -11242,7 +11242,7 @@
         <v>5622.34742217</v>
       </c>
       <c r="H29">
-        <v>3291.49850909</v>
+        <v>3961.98002909</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>3291.49850909</v>
+        <v>3961.98002909</v>
       </c>
       <c r="AB29">
         <v>1000</v>
@@ -11328,7 +11328,7 @@
         <v>5594.37722909</v>
       </c>
       <c r="H30">
-        <v>3318.49850909</v>
+        <v>3994.38002909</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>3318.49850909</v>
+        <v>3994.38002909</v>
       </c>
       <c r="AB30">
         <v>1000</v>
@@ -11414,7 +11414,7 @@
         <v>5854.1792177</v>
       </c>
       <c r="H31">
-        <v>3245.49850909</v>
+        <v>3906.78002909</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>3245.49850909</v>
+        <v>3906.78002909</v>
       </c>
       <c r="AB31">
         <v>1000</v>
@@ -11500,7 +11500,7 @@
         <v>6134.89283422</v>
       </c>
       <c r="H32">
-        <v>3272.49850909</v>
+        <v>3939.18002909</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>3272.49850909</v>
+        <v>3939.18002909</v>
       </c>
       <c r="AB32">
         <v>1000</v>
@@ -11586,7 +11586,7 @@
         <v>6218.59669149</v>
       </c>
       <c r="H33">
-        <v>3299.49850909</v>
+        <v>3971.58002909</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -11643,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>3299.49850909</v>
+        <v>3971.58002909</v>
       </c>
       <c r="AB33">
         <v>1000</v>
@@ -11672,7 +11672,7 @@
         <v>5005.80752561</v>
       </c>
       <c r="H34">
-        <v>2617.4076</v>
+        <v>3274.88912</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>2617.4076</v>
+        <v>3274.88912</v>
       </c>
       <c r="AB34">
         <v>1000</v>
@@ -11758,7 +11758,7 @@
         <v>3922.19834642</v>
       </c>
       <c r="H35">
-        <v>1996.22578182</v>
+        <v>2639.10730182</v>
       </c>
       <c r="I35">
         <v>195.68059635</v>
@@ -11815,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>1996.22578182</v>
+        <v>2639.10730182</v>
       </c>
       <c r="AB35">
         <v>1000</v>
@@ -11844,7 +11844,7 @@
         <v>3938.43558594</v>
       </c>
       <c r="H36">
-        <v>1923.22578182</v>
+        <v>2551.50730182</v>
       </c>
       <c r="I36">
         <v>212.6626359</v>
@@ -11901,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>1923.22578182</v>
+        <v>2551.50730182</v>
       </c>
       <c r="AB36">
         <v>1000</v>
@@ -11930,7 +11930,7 @@
         <v>4216.54426087</v>
       </c>
       <c r="H37">
-        <v>1861.02426182</v>
+        <v>2474.70578182</v>
       </c>
       <c r="I37">
         <v>220.6708089</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>1861.02426182</v>
+        <v>2474.70578182</v>
       </c>
       <c r="AB37">
         <v>1000</v>
@@ -12016,7 +12016,7 @@
         <v>4271.42598423</v>
       </c>
       <c r="H38">
-        <v>1977.22578182</v>
+        <v>2616.30730182</v>
       </c>
       <c r="I38">
         <v>228.6789818</v>
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>1977.22578182</v>
+        <v>2616.30730182</v>
       </c>
       <c r="AB38">
         <v>1000</v>
@@ -12102,7 +12102,7 @@
         <v>4245.62911116</v>
       </c>
       <c r="H39">
-        <v>2062.32018182</v>
+        <v>2718.42058182</v>
       </c>
       <c r="I39">
         <v>243.2988001</v>
@@ -12159,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>2062.32018182</v>
+        <v>2718.42058182</v>
       </c>
       <c r="AB39">
         <v>1000</v>
@@ -12188,7 +12188,7 @@
         <v>4349.17021927</v>
       </c>
       <c r="H40">
-        <v>2029.09018182</v>
+        <v>2678.54458182</v>
       </c>
       <c r="I40">
         <v>257.9186185</v>
@@ -12245,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>2029.09018182</v>
+        <v>2678.54458182</v>
       </c>
       <c r="AB40">
         <v>1000</v>
@@ -12274,7 +12274,7 @@
         <v>4175.00478525</v>
       </c>
       <c r="H41">
-        <v>2195.86018182</v>
+        <v>2878.66858182</v>
       </c>
       <c r="I41">
         <v>268.6624674</v>
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>2195.86018182</v>
+        <v>2878.66858182</v>
       </c>
       <c r="AB41">
         <v>1000</v>
@@ -12360,7 +12360,7 @@
         <v>4251.78074658</v>
       </c>
       <c r="H42">
-        <v>2362.63018182</v>
+        <v>3078.79258182</v>
       </c>
       <c r="I42">
         <v>279.4063163</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>2362.63018182</v>
+        <v>3078.79258182</v>
       </c>
       <c r="AB42">
         <v>1000</v>
@@ -12446,7 +12446,7 @@
         <v>4430.9264938</v>
       </c>
       <c r="H43">
-        <v>2529.40018182</v>
+        <v>3278.91658182</v>
       </c>
       <c r="I43">
         <v>286.75172815</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>2529.40018182</v>
+        <v>3278.91658182</v>
       </c>
       <c r="AB43">
         <v>1000</v>
@@ -12532,7 +12532,7 @@
         <v>4818.68950011</v>
       </c>
       <c r="H44">
-        <v>2500.45258182</v>
+        <v>3244.17946182</v>
       </c>
       <c r="I44">
         <v>294.09714</v>
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>2500.45258182</v>
+        <v>3244.17946182</v>
       </c>
       <c r="AB44">
         <v>1000</v>
@@ -12618,7 +12618,7 @@
         <v>4557.17687128</v>
       </c>
       <c r="H45">
-        <v>2671.08450182</v>
+        <v>3446.49768182</v>
       </c>
       <c r="I45">
         <v>296.11326825</v>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>2671.08450182</v>
+        <v>3446.49768182</v>
       </c>
       <c r="AB45">
         <v>1000</v>
@@ -12704,7 +12704,7 @@
         <v>4483.58909729</v>
       </c>
       <c r="H46">
-        <v>2817.31558182</v>
+        <v>3624.41506182</v>
       </c>
       <c r="I46">
         <v>298.1293965</v>
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>2817.31558182</v>
+        <v>3624.41506182</v>
       </c>
       <c r="AB46">
         <v>1000</v>
@@ -12790,7 +12790,7 @@
         <v>4804.62002543</v>
       </c>
       <c r="H47">
-        <v>2975.74708182</v>
+        <v>3814.53286182</v>
       </c>
       <c r="I47">
         <v>304.8120885</v>
@@ -12847,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>2975.74708182</v>
+        <v>3814.53286182</v>
       </c>
       <c r="AB47">
         <v>1000</v>
@@ -12876,7 +12876,7 @@
         <v>4725.65095357</v>
       </c>
       <c r="H48">
-        <v>3134.17858182</v>
+        <v>4004.65066182</v>
       </c>
       <c r="I48">
         <v>311.4947805</v>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>3134.17858182</v>
+        <v>4004.65066182</v>
       </c>
       <c r="AB48">
         <v>1000</v>
@@ -12962,7 +12962,7 @@
         <v>4603.63798739</v>
       </c>
       <c r="H49">
-        <v>3292.61008182</v>
+        <v>4194.76846182</v>
       </c>
       <c r="I49">
         <v>318.9141817</v>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>3292.61008182</v>
+        <v>4194.76846182</v>
       </c>
       <c r="AB49">
         <v>1000</v>
@@ -13048,7 +13048,7 @@
         <v>4463.13576577</v>
       </c>
       <c r="H50">
-        <v>3978.25510182</v>
+        <v>5017.54248582</v>
       </c>
       <c r="I50">
         <v>326.3335828</v>
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>3978.25510182</v>
+        <v>5017.54248582</v>
       </c>
       <c r="AB50">
         <v>1000</v>
@@ -13134,7 +13134,7 @@
         <v>4322.29385339</v>
       </c>
       <c r="H51">
-        <v>4094.76766182</v>
+        <v>5157.35755782</v>
       </c>
       <c r="I51">
         <v>327.3638722</v>
@@ -13191,7 +13191,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>4094.76766182</v>
+        <v>5157.35755782</v>
       </c>
       <c r="AB51">
         <v>1000</v>
@@ -13220,7 +13220,7 @@
         <v>4174.43798751</v>
       </c>
       <c r="H52">
-        <v>4211.28022182</v>
+        <v>5297.17262982</v>
       </c>
       <c r="I52">
         <v>328.3941616</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>4211.28022182</v>
+        <v>5297.17262982</v>
       </c>
       <c r="AB52">
         <v>1000</v>
@@ -13306,7 +13306,7 @@
         <v>4281.7266067</v>
       </c>
       <c r="H53">
-        <v>4327.79278182</v>
+        <v>5436.98770182</v>
       </c>
       <c r="I53">
         <v>328.359253</v>
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>4327.79278182</v>
+        <v>5436.98770182</v>
       </c>
       <c r="AB53">
         <v>1000</v>
@@ -13392,7 +13392,7 @@
         <v>4287.75271437</v>
       </c>
       <c r="H54">
-        <v>4444.30534182</v>
+        <v>5576.80277382</v>
       </c>
       <c r="I54">
         <v>328.3243443</v>
@@ -13449,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>4444.30534182</v>
+        <v>5576.80277382</v>
       </c>
       <c r="AB54">
         <v>1000</v>
@@ -13478,7 +13478,7 @@
         <v>4347.22744317</v>
       </c>
       <c r="H55">
-        <v>4560.81790182</v>
+        <v>5716.61784582</v>
       </c>
       <c r="I55">
         <v>324.834954</v>
@@ -13535,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>4560.81790182</v>
+        <v>5716.61784582</v>
       </c>
       <c r="AB55">
         <v>1000</v>
@@ -13564,7 +13564,7 @@
         <v>4406.70217207</v>
       </c>
       <c r="H56">
-        <v>4677.33046182</v>
+        <v>5856.43291782</v>
       </c>
       <c r="I56">
         <v>321.3455636</v>
@@ -13621,7 +13621,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>4677.33046182</v>
+        <v>5856.43291782</v>
       </c>
       <c r="AB56">
         <v>1000</v>
@@ -13650,7 +13650,7 @@
         <v>3792.77317305</v>
       </c>
       <c r="H57">
-        <v>4793.84302182</v>
+        <v>5996.24798982</v>
       </c>
       <c r="I57">
         <v>934.46762205</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>4793.84302182</v>
+        <v>5996.24798982</v>
       </c>
       <c r="AB57">
         <v>1000</v>
@@ -13736,7 +13736,7 @@
         <v>3656.55504063</v>
       </c>
       <c r="H58">
-        <v>4910.35558182</v>
+        <v>6136.06306182</v>
       </c>
       <c r="I58">
         <v>1547.5896805</v>
@@ -13793,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>4910.35558182</v>
+        <v>6136.06306182</v>
       </c>
       <c r="AB58">
         <v>1000</v>
@@ -13822,7 +13822,7 @@
         <v>3715.32908243</v>
       </c>
       <c r="H59">
-        <v>5026.86814182</v>
+        <v>6275.87813382</v>
       </c>
       <c r="I59">
         <v>1542.79416195</v>
@@ -13879,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>5026.86814182</v>
+        <v>6275.87813382</v>
       </c>
       <c r="AB59">
         <v>1000</v>
@@ -13908,7 +13908,7 @@
         <v>3772.7403314</v>
       </c>
       <c r="H60">
-        <v>5020.24018182</v>
+        <v>6267.92458182</v>
       </c>
       <c r="I60">
         <v>1537.9986433</v>
@@ -13965,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>5020.24018182</v>
+        <v>6267.92458182</v>
       </c>
       <c r="AB60">
         <v>1000</v>
@@ -13994,7 +13994,7 @@
         <v>3951.29275918</v>
       </c>
       <c r="H61">
-        <v>5013.61222182</v>
+        <v>6259.97102982</v>
       </c>
       <c r="I61">
         <v>1516.58460035</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>5013.61222182</v>
+        <v>6259.97102982</v>
       </c>
       <c r="AB61">
         <v>1000</v>
@@ -14080,7 +14080,7 @@
         <v>4036.85914055</v>
       </c>
       <c r="H62">
-        <v>5006.98426182</v>
+        <v>6252.01747782</v>
       </c>
       <c r="I62">
         <v>1495.1705573</v>
@@ -14137,7 +14137,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>5006.98426182</v>
+        <v>6252.01747782</v>
       </c>
       <c r="AB62">
         <v>1000</v>
@@ -14166,7 +14166,7 @@
         <v>4121.01780813</v>
       </c>
       <c r="H63">
-        <v>5000.35630182</v>
+        <v>6244.06392582</v>
       </c>
       <c r="I63">
         <v>1479.27287845</v>
@@ -14223,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>5000.35630182</v>
+        <v>6244.06392582</v>
       </c>
       <c r="AB63">
         <v>1000</v>
@@ -14252,7 +14252,7 @@
         <v>4194.65554559</v>
       </c>
       <c r="H64">
-        <v>4993.72834182</v>
+        <v>6236.11037382</v>
       </c>
       <c r="I64">
         <v>1463.3751995</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>4993.72834182</v>
+        <v>6236.11037382</v>
       </c>
       <c r="AB64">
         <v>1000</v>
@@ -14338,7 +14338,7 @@
         <v>4150.38074262</v>
       </c>
       <c r="H65">
-        <v>4987.10038182</v>
+        <v>6228.15682182</v>
       </c>
       <c r="I65">
         <v>1450.38907195</v>
@@ -14395,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>4987.10038182</v>
+        <v>6228.15682182</v>
       </c>
       <c r="AB65">
         <v>1000</v>
@@ -14424,7 +14424,7 @@
         <v>4106.10593975</v>
       </c>
       <c r="H66">
-        <v>4980.47242182</v>
+        <v>6220.20326982</v>
       </c>
       <c r="I66">
         <v>1437.4029443</v>
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>4980.47242182</v>
+        <v>6220.20326982</v>
       </c>
       <c r="AB66">
         <v>1000</v>
@@ -14510,7 +14510,7 @@
         <v>4054.74605567</v>
       </c>
       <c r="H67">
-        <v>4973.84446182</v>
+        <v>6212.24971782</v>
       </c>
       <c r="I67">
         <v>1420.85275405</v>
@@ -14567,7 +14567,7 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>4973.84446182</v>
+        <v>6212.24971782</v>
       </c>
       <c r="AB67">
         <v>1000</v>
@@ -14596,7 +14596,7 @@
         <v>4013.90710171</v>
       </c>
       <c r="H68">
-        <v>4967.21650182</v>
+        <v>6204.29616582</v>
       </c>
       <c r="I68">
         <v>1404.3025639</v>
@@ -14653,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>4967.21650182</v>
+        <v>6204.29616582</v>
       </c>
       <c r="AB68">
         <v>1000</v>
@@ -14682,7 +14682,7 @@
         <v>2965.87982118</v>
       </c>
       <c r="H69">
-        <v>4960.58854182</v>
+        <v>6196.34261382</v>
       </c>
       <c r="I69">
         <v>1379.9265954</v>
@@ -14739,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>4960.58854182</v>
+        <v>6196.34261382</v>
       </c>
       <c r="AB69">
         <v>1000</v>
@@ -14768,7 +14768,7 @@
         <v>3358.63300577</v>
       </c>
       <c r="H70">
-        <v>4953.96058182</v>
+        <v>6188.38906182</v>
       </c>
       <c r="I70">
         <v>730.5506269</v>
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>4953.96058182</v>
+        <v>6188.38906182</v>
       </c>
       <c r="AB70">
         <v>1000</v>
@@ -14854,7 +14854,7 @@
         <v>4216.98416982</v>
       </c>
       <c r="H71">
-        <v>4680.31498182</v>
+        <v>5860.01434182</v>
       </c>
       <c r="I71">
         <v>80.49037403</v>
@@ -14911,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>4680.31498182</v>
+        <v>5860.01434182</v>
       </c>
       <c r="AB71">
         <v>1000</v>
@@ -14940,7 +14940,7 @@
         <v>4460.85626412</v>
       </c>
       <c r="H72">
-        <v>4406.66938182</v>
+        <v>5531.63962182</v>
       </c>
       <c r="I72">
         <v>55.43012115</v>
@@ -14997,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>4406.66938182</v>
+        <v>5531.63962182</v>
       </c>
       <c r="AB72">
         <v>1000</v>
@@ -15026,7 +15026,7 @@
         <v>5308.3645996</v>
       </c>
       <c r="H73">
-        <v>4681.2056</v>
+        <v>5751.44672</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -15083,7 +15083,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA73">
-        <v>4681.2056</v>
+        <v>5751.44672</v>
       </c>
       <c r="AB73">
         <v>1000</v>
@@ -15109,10 +15109,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>6427.88796759</v>
+        <v>6419.26970423</v>
       </c>
       <c r="H74">
-        <v>5142.25303636</v>
+        <v>5614.15425236</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -15142,10 +15142,10 @@
         <v>37.6022046</v>
       </c>
       <c r="R74">
-        <v>309.851022748</v>
+        <v>300.706976744</v>
       </c>
       <c r="S74">
-        <v>1332.3593978164</v>
+        <v>1293.0399999992</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -15163,16 +15163,16 @@
         <v>995.3639666179999</v>
       </c>
       <c r="Y74">
-        <v>760.6806021816001</v>
+        <v>800</v>
       </c>
       <c r="Z74">
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA74">
-        <v>5142.25303636</v>
+        <v>5614.15425236</v>
       </c>
       <c r="AB74">
-        <v>5142.253036363636</v>
+        <v>5614.154252363636</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -15195,10 +15195,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>6149.19558139</v>
+        <v>6132.92246279</v>
       </c>
       <c r="H75">
-        <v>4917.97798636</v>
+        <v>5389.87920236</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -15228,10 +15228,10 @@
         <v>27.74133405</v>
       </c>
       <c r="R75">
-        <v>311.515210655</v>
+        <v>294.249302326</v>
       </c>
       <c r="S75">
-        <v>1339.5154058165</v>
+        <v>1265.2720000018</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -15249,16 +15249,16 @@
         <v>993.373238685</v>
       </c>
       <c r="Y75">
-        <v>725.7565941816001</v>
+        <v>800</v>
       </c>
       <c r="Z75">
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA75">
-        <v>4917.97798636</v>
+        <v>5389.87920236</v>
       </c>
       <c r="AB75">
-        <v>4917.977986363636</v>
+        <v>5389.879202363636</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -15281,10 +15281,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>5535.84527035</v>
+        <v>5511.9172965</v>
       </c>
       <c r="H76">
-        <v>4693.70293636</v>
+        <v>5165.60415236</v>
       </c>
       <c r="I76">
         <v>10.2639128</v>
@@ -15314,10 +15314,10 @@
         <v>17.8804635</v>
       </c>
       <c r="R76">
-        <v>313.179398562</v>
+        <v>287.791627907</v>
       </c>
       <c r="S76">
-        <v>1346.6714138166</v>
+        <v>1237.5040000001</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -15335,16 +15335,16 @@
         <v>991.3864922069999</v>
       </c>
       <c r="Y76">
-        <v>690.8325861816</v>
+        <v>800</v>
       </c>
       <c r="Z76">
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA76">
-        <v>4693.70293636</v>
+        <v>5165.60415236</v>
       </c>
       <c r="AB76">
-        <v>4693.702936363636</v>
+        <v>5165.604152363636</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -15367,10 +15367,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>5079.46583016</v>
+        <v>4943.64493463</v>
       </c>
       <c r="H77">
-        <v>4469.42788636</v>
+        <v>4941.32910236</v>
       </c>
       <c r="I77">
         <v>628.6586002499999</v>
@@ -15388,13 +15388,13 @@
         <v>625</v>
       </c>
       <c r="N77">
-        <v>364.179104478</v>
+        <v>500</v>
       </c>
       <c r="O77">
-        <v>443.6363636368363</v>
+        <v>609.0909090909089</v>
       </c>
       <c r="P77">
-        <v>295.7575757578908</v>
+        <v>406.060606060606</v>
       </c>
       <c r="Q77">
         <v>12.8889432</v>
@@ -15427,10 +15427,10 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA77">
-        <v>4469.42788636</v>
+        <v>4941.32910236</v>
       </c>
       <c r="AB77">
-        <v>4469.427886363636</v>
+        <v>4941.329102363636</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -15453,10 +15453,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G78">
-        <v>4008.22379532</v>
+        <v>3872.4028998</v>
       </c>
       <c r="H78">
-        <v>2636.06192727</v>
+        <v>3208.36522182</v>
       </c>
       <c r="I78">
         <v>1247.0532877</v>
@@ -15474,13 +15474,13 @@
         <v>1250</v>
       </c>
       <c r="N78">
-        <v>864.179104478</v>
+        <v>1000</v>
       </c>
       <c r="O78">
-        <v>1052.727272727745</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P78">
-        <v>701.8181818184969</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q78">
         <v>7.8974229</v>
@@ -15513,7 +15513,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA78">
-        <v>2636.06192727</v>
+        <v>3208.36522182</v>
       </c>
       <c r="AB78">
         <v>1000</v>
@@ -15542,7 +15542,7 @@
         <v>4055.4760231</v>
       </c>
       <c r="H79">
-        <v>2249.98870182</v>
+        <v>2942.89153182</v>
       </c>
       <c r="I79">
         <v>1242.3279769</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>2249.98870182</v>
+        <v>2942.89153182</v>
       </c>
       <c r="AB79">
         <v>1000</v>
@@ -15628,7 +15628,7 @@
         <v>3878.32365948</v>
       </c>
       <c r="H80">
-        <v>2085.00466182</v>
+        <v>2733.05248182</v>
       </c>
       <c r="I80">
         <v>1237.6026661</v>
@@ -15685,7 +15685,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>2085.00466182</v>
+        <v>2733.05248182</v>
       </c>
       <c r="AB80">
         <v>1000</v>
@@ -15714,10 +15714,10 @@
         <v>3938.03386091</v>
       </c>
       <c r="H81">
-        <v>1878.84382182</v>
+        <v>2482.03663182</v>
       </c>
       <c r="I81">
-        <v>1236.12669723</v>
+        <v>1236.12669722</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -15771,7 +15771,7 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>1878.84382182</v>
+        <v>2482.03663182</v>
       </c>
       <c r="AB81">
         <v>1000</v>
@@ -15800,7 +15800,7 @@
         <v>4042.58150855</v>
       </c>
       <c r="H82">
-        <v>1968.22778182</v>
+        <v>2595.95178182</v>
       </c>
       <c r="I82">
         <v>1234.65072835</v>
@@ -15857,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>1968.22778182</v>
+        <v>2595.95178182</v>
       </c>
       <c r="AB82">
         <v>1000</v>
@@ -15886,7 +15886,7 @@
         <v>4248.02838189</v>
       </c>
       <c r="H83">
-        <v>2025.03034182</v>
+        <v>2673.64018182</v>
       </c>
       <c r="I83">
         <v>1233.53087392</v>
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>2025.03034182</v>
+        <v>2673.64018182</v>
       </c>
       <c r="AB83">
         <v>1000</v>
@@ -15972,7 +15972,7 @@
         <v>4401.80107352</v>
       </c>
       <c r="H84">
-        <v>1871.65370182</v>
+        <v>2463.60458182</v>
       </c>
       <c r="I84">
         <v>1232.4110195</v>
@@ -16029,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>1871.65370182</v>
+        <v>2463.60458182</v>
       </c>
       <c r="AB84">
         <v>1000</v>
@@ -16058,7 +16058,7 @@
         <v>4005.69540668</v>
       </c>
       <c r="H85">
-        <v>1879.98586182</v>
+        <v>2475.27778182</v>
       </c>
       <c r="I85">
         <v>1231.4137096</v>
@@ -16115,7 +16115,7 @@
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>1879.98586182</v>
+        <v>2475.27778182</v>
       </c>
       <c r="AB85">
         <v>1000</v>
@@ -16144,7 +16144,7 @@
         <v>4105.39755379</v>
       </c>
       <c r="H86">
-        <v>1936.31802182</v>
+        <v>2546.95098182</v>
       </c>
       <c r="I86">
         <v>1230.4163997</v>
@@ -16201,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="AA86">
-        <v>1936.31802182</v>
+        <v>2546.95098182</v>
       </c>
       <c r="AB86">
         <v>1000</v>
@@ -16230,7 +16230,7 @@
         <v>4304.00204115</v>
       </c>
       <c r="H87">
-        <v>2024.65018182</v>
+        <v>2658.62418182</v>
       </c>
       <c r="I87">
         <v>1230.51674955</v>
@@ -16287,7 +16287,7 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>2024.65018182</v>
+        <v>2658.62418182</v>
       </c>
       <c r="AB87">
         <v>1000</v>
@@ -16316,7 +16316,7 @@
         <v>3902.60652851</v>
       </c>
       <c r="H88">
-        <v>1965.78234182</v>
+        <v>2586.29738182</v>
       </c>
       <c r="I88">
         <v>1230.6170994</v>
@@ -16373,7 +16373,7 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>1965.78234182</v>
+        <v>2586.29738182</v>
       </c>
       <c r="AB88">
         <v>1000</v>
@@ -16402,7 +16402,7 @@
         <v>3651.41924177</v>
       </c>
       <c r="H89">
-        <v>1986.91450182</v>
+        <v>2613.97058182</v>
       </c>
       <c r="I89">
         <v>1230.50922335</v>
@@ -16459,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>1986.91450182</v>
+        <v>2613.97058182</v>
       </c>
       <c r="AB89">
         <v>1000</v>
@@ -16488,7 +16488,7 @@
         <v>4525.23195503</v>
       </c>
       <c r="H90">
-        <v>2008.04666182</v>
+        <v>2641.64378182</v>
       </c>
       <c r="I90">
         <v>605.4013473</v>
@@ -16545,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>2008.04666182</v>
+        <v>2641.64378182</v>
       </c>
       <c r="AB90">
         <v>1000</v>
@@ -16574,7 +16574,7 @@
         <v>5473.81001698</v>
       </c>
       <c r="H91">
-        <v>2029.17882182</v>
+        <v>2669.31698182</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -16631,7 +16631,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>2029.17882182</v>
+        <v>2669.31698182</v>
       </c>
       <c r="AB91">
         <v>1000</v>
@@ -16660,7 +16660,7 @@
         <v>5811.07228947</v>
       </c>
       <c r="H92">
-        <v>2146.31098182</v>
+        <v>2816.99018182</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -16717,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>2146.31098182</v>
+        <v>2816.99018182</v>
       </c>
       <c r="AB92">
         <v>1000</v>
@@ -16746,7 +16746,7 @@
         <v>5434.738107</v>
       </c>
       <c r="H93">
-        <v>2167.91938182</v>
+        <v>2845.13962182</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -16797,13 +16797,13 @@
         <v>303.018084337</v>
       </c>
       <c r="Y93">
-        <v>0.380992000008</v>
+        <v>0.3809920000088</v>
       </c>
       <c r="Z93">
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>2167.91938182</v>
+        <v>2845.13962182</v>
       </c>
       <c r="AB93">
         <v>1000</v>
@@ -16832,7 +16832,7 @@
         <v>5058.57094079</v>
       </c>
       <c r="H94">
-        <v>2108.57530182</v>
+        <v>2772.33658182</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -16889,7 +16889,7 @@
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>2108.57530182</v>
+        <v>2772.33658182</v>
       </c>
       <c r="AB94">
         <v>1000</v>
@@ -16918,7 +16918,7 @@
         <v>5153.1659108</v>
       </c>
       <c r="H95">
-        <v>2233.32978182</v>
+        <v>2923.63210182</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -16975,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>2233.32978182</v>
+        <v>2923.63210182</v>
       </c>
       <c r="AB95">
         <v>1000</v>
@@ -17004,7 +17004,7 @@
         <v>5196.36673131</v>
       </c>
       <c r="H96">
-        <v>2366.03498182</v>
+        <v>3082.87834182</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -17061,7 +17061,7 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>2366.03498182</v>
+        <v>3082.87834182</v>
       </c>
       <c r="AB96">
         <v>1000</v>
@@ -17090,7 +17090,7 @@
         <v>5243.04224941</v>
       </c>
       <c r="H97">
-        <v>2398.74018182</v>
+        <v>3122.12458182</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -17147,7 +17147,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>2398.74018182</v>
+        <v>3122.12458182</v>
       </c>
       <c r="AB97">
         <v>1000</v>
@@ -17272,7 +17272,7 @@
         <v>6598.81410477</v>
       </c>
       <c r="H2">
-        <v>3646.21698909</v>
+        <v>4370.89850909</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -17329,7 +17329,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>3646.21698909</v>
+        <v>4370.89850909</v>
       </c>
       <c r="AB2">
         <v>1000</v>
@@ -17358,7 +17358,7 @@
         <v>6124.08120552</v>
       </c>
       <c r="H3">
-        <v>3669.84098909</v>
+        <v>4399.92250909</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -17415,7 +17415,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>3669.84098909</v>
+        <v>4399.92250909</v>
       </c>
       <c r="AB3">
         <v>1000</v>
@@ -17444,7 +17444,7 @@
         <v>5649.34830626</v>
       </c>
       <c r="H4">
-        <v>3693.46498909</v>
+        <v>4428.94650909</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -17501,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>3693.46498909</v>
+        <v>4428.94650909</v>
       </c>
       <c r="AB4">
         <v>1000</v>
@@ -17530,7 +17530,7 @@
         <v>6374.87732005</v>
       </c>
       <c r="H5">
-        <v>3717.08898909</v>
+        <v>4457.97050909</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -17587,7 +17587,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>3717.08898909</v>
+        <v>4457.97050909</v>
       </c>
       <c r="AB5">
         <v>1000</v>
@@ -17616,7 +17616,7 @@
         <v>7100.40633384</v>
       </c>
       <c r="H6">
-        <v>3720.71298909</v>
+        <v>4466.99450909</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -17673,7 +17673,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>3720.71298909</v>
+        <v>4466.99450909</v>
       </c>
       <c r="AB6">
         <v>1000</v>
@@ -17702,7 +17702,7 @@
         <v>6875.90908939</v>
       </c>
       <c r="H7">
-        <v>3734.33698909</v>
+        <v>4486.01850909</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -17759,7 +17759,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>3734.33698909</v>
+        <v>4486.01850909</v>
       </c>
       <c r="AB7">
         <v>1000</v>
@@ -17788,7 +17788,7 @@
         <v>6651.41184493</v>
       </c>
       <c r="H8">
-        <v>3747.96098909</v>
+        <v>4505.04250909</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -17845,7 +17845,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>3747.96098909</v>
+        <v>4505.04250909</v>
       </c>
       <c r="AB8">
         <v>1000</v>
@@ -17874,7 +17874,7 @@
         <v>6619.43717922</v>
       </c>
       <c r="H9">
-        <v>3643.58498909</v>
+        <v>4374.06650909</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -17931,7 +17931,7 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>3643.58498909</v>
+        <v>4374.06650909</v>
       </c>
       <c r="AB9">
         <v>1000</v>
@@ -17960,7 +17960,7 @@
         <v>6629.55258674</v>
       </c>
       <c r="H10">
-        <v>3593.20898909</v>
+        <v>4313.09050909</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>3593.20898909</v>
+        <v>4313.09050909</v>
       </c>
       <c r="AB10">
         <v>1000</v>
@@ -18046,7 +18046,7 @@
         <v>6717.61703342</v>
       </c>
       <c r="H11">
-        <v>3558.83298909</v>
+        <v>4272.11450909</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -18103,7 +18103,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>3558.83298909</v>
+        <v>4272.11450909</v>
       </c>
       <c r="AB11">
         <v>1000</v>
@@ -18132,7 +18132,7 @@
         <v>6690.06535177</v>
       </c>
       <c r="H12">
-        <v>3512.45698909</v>
+        <v>4211.13850909</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -18189,7 +18189,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>3512.45698909</v>
+        <v>4211.13850909</v>
       </c>
       <c r="AB12">
         <v>1000</v>
@@ -18218,7 +18218,7 @@
         <v>6899.76513708</v>
       </c>
       <c r="H13">
-        <v>3436.08098909</v>
+        <v>4120.16250909</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -18275,7 +18275,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>3436.08098909</v>
+        <v>4120.16250909</v>
       </c>
       <c r="AB13">
         <v>1000</v>
@@ -18304,7 +18304,7 @@
         <v>7309.46492238</v>
       </c>
       <c r="H14">
-        <v>3449.70498909</v>
+        <v>4139.18650909</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -18361,7 +18361,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>3449.70498909</v>
+        <v>4139.18650909</v>
       </c>
       <c r="AB14">
         <v>1000</v>
@@ -18390,7 +18390,7 @@
         <v>6864.19239331</v>
       </c>
       <c r="H15">
-        <v>3375.17898909</v>
+        <v>4050.06050909</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -18447,7 +18447,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>3375.17898909</v>
+        <v>4050.06050909</v>
       </c>
       <c r="AB15">
         <v>1000</v>
@@ -18476,7 +18476,7 @@
         <v>6590.83846889</v>
       </c>
       <c r="H16">
-        <v>3458.75298909</v>
+        <v>4159.03450909</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -18533,7 +18533,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>3458.75298909</v>
+        <v>4159.03450909</v>
       </c>
       <c r="AB16">
         <v>1000</v>
@@ -18562,7 +18562,7 @@
         <v>7084.32779146</v>
       </c>
       <c r="H17">
-        <v>3467.49850909</v>
+        <v>4173.18002909</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -18613,13 +18613,13 @@
         <v>1001.3010686</v>
       </c>
       <c r="Y17">
-        <v>4.137216</v>
+        <v>4.137216000008</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>3467.49850909</v>
+        <v>4173.18002909</v>
       </c>
       <c r="AB17">
         <v>1000</v>
@@ -18648,7 +18648,7 @@
         <v>6827.9478401</v>
       </c>
       <c r="H18">
-        <v>3494.49850909</v>
+        <v>4205.58002909</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -18705,7 +18705,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>3494.49850909</v>
+        <v>4205.58002909</v>
       </c>
       <c r="AB18">
         <v>1000</v>
@@ -18734,7 +18734,7 @@
         <v>6836.55053989</v>
       </c>
       <c r="H19">
-        <v>3521.49850909</v>
+        <v>4237.98002909</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -18791,7 +18791,7 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>3521.49850909</v>
+        <v>4237.98002909</v>
       </c>
       <c r="AB19">
         <v>1000</v>
@@ -18820,7 +18820,7 @@
         <v>6170.20858852</v>
       </c>
       <c r="H20">
-        <v>3528.49850909</v>
+        <v>4246.38002909</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -18877,7 +18877,7 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>3528.49850909</v>
+        <v>4246.38002909</v>
       </c>
       <c r="AB20">
         <v>1000</v>
@@ -18906,7 +18906,7 @@
         <v>6124.72437324</v>
       </c>
       <c r="H21">
-        <v>3475.49850909</v>
+        <v>4182.78002909</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>3475.49850909</v>
+        <v>4182.78002909</v>
       </c>
       <c r="AB21">
         <v>1000</v>
@@ -18992,7 +18992,7 @@
         <v>6076.43457658</v>
       </c>
       <c r="H22">
-        <v>3502.49850909</v>
+        <v>4215.18002909</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -19049,7 +19049,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>3502.49850909</v>
+        <v>4215.18002909</v>
       </c>
       <c r="AB22">
         <v>1000</v>
@@ -19078,7 +19078,7 @@
         <v>5824.56167394</v>
       </c>
       <c r="H23">
-        <v>3429.49850909</v>
+        <v>4127.58002909</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -19135,7 +19135,7 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>3429.49850909</v>
+        <v>4127.58002909</v>
       </c>
       <c r="AB23">
         <v>1000</v>
@@ -19164,7 +19164,7 @@
         <v>5569.88318991</v>
       </c>
       <c r="H24">
-        <v>3456.49850909</v>
+        <v>4159.98002909</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -19221,7 +19221,7 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>3456.49850909</v>
+        <v>4159.98002909</v>
       </c>
       <c r="AB24">
         <v>1000</v>
@@ -19250,7 +19250,7 @@
         <v>5720.26617518</v>
       </c>
       <c r="H25">
-        <v>3383.49850909</v>
+        <v>4072.38002909</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -19307,7 +19307,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>3383.49850909</v>
+        <v>4072.38002909</v>
       </c>
       <c r="AB25">
         <v>1000</v>
@@ -19336,7 +19336,7 @@
         <v>5867.14218371</v>
       </c>
       <c r="H26">
-        <v>3410.49850909</v>
+        <v>4104.78002909</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -19393,7 +19393,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>3410.49850909</v>
+        <v>4104.78002909</v>
       </c>
       <c r="AB26">
         <v>1000</v>
@@ -19422,7 +19422,7 @@
         <v>5759.24314549</v>
       </c>
       <c r="H27">
-        <v>3337.49850909</v>
+        <v>4017.18002909</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>3337.49850909</v>
+        <v>4017.18002909</v>
       </c>
       <c r="AB27">
         <v>1000</v>
@@ -19508,7 +19508,7 @@
         <v>5650.31761519</v>
       </c>
       <c r="H28">
-        <v>3264.49850909</v>
+        <v>3929.58002909</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -19565,7 +19565,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>3264.49850909</v>
+        <v>3929.58002909</v>
       </c>
       <c r="AB28">
         <v>1000</v>
@@ -19594,7 +19594,7 @@
         <v>5622.34742217</v>
       </c>
       <c r="H29">
-        <v>3291.49850909</v>
+        <v>3961.98002909</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -19651,7 +19651,7 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>3291.49850909</v>
+        <v>3961.98002909</v>
       </c>
       <c r="AB29">
         <v>1000</v>
@@ -19680,7 +19680,7 @@
         <v>5594.37722909</v>
       </c>
       <c r="H30">
-        <v>3318.49850909</v>
+        <v>3994.38002909</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -19737,7 +19737,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>3318.49850909</v>
+        <v>3994.38002909</v>
       </c>
       <c r="AB30">
         <v>1000</v>
@@ -19766,7 +19766,7 @@
         <v>5854.1792177</v>
       </c>
       <c r="H31">
-        <v>3245.49850909</v>
+        <v>3906.78002909</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -19823,7 +19823,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>3245.49850909</v>
+        <v>3906.78002909</v>
       </c>
       <c r="AB31">
         <v>1000</v>
@@ -19852,7 +19852,7 @@
         <v>6134.89283422</v>
       </c>
       <c r="H32">
-        <v>3272.49850909</v>
+        <v>3939.18002909</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -19909,7 +19909,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>3272.49850909</v>
+        <v>3939.18002909</v>
       </c>
       <c r="AB32">
         <v>1000</v>
@@ -19938,7 +19938,7 @@
         <v>6218.59669149</v>
       </c>
       <c r="H33">
-        <v>3299.49850909</v>
+        <v>3971.58002909</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -19995,7 +19995,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>3299.49850909</v>
+        <v>3971.58002909</v>
       </c>
       <c r="AB33">
         <v>1000</v>
@@ -20024,7 +20024,7 @@
         <v>5005.80752561</v>
       </c>
       <c r="H34">
-        <v>2617.4076</v>
+        <v>3274.88912</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -20081,7 +20081,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>2617.4076</v>
+        <v>3274.88912</v>
       </c>
       <c r="AB34">
         <v>1000</v>
@@ -20110,7 +20110,7 @@
         <v>3922.19834642</v>
       </c>
       <c r="H35">
-        <v>1996.22578182</v>
+        <v>2639.10730182</v>
       </c>
       <c r="I35">
         <v>195.68059635</v>
@@ -20167,7 +20167,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>1996.22578182</v>
+        <v>2639.10730182</v>
       </c>
       <c r="AB35">
         <v>1000</v>
@@ -20196,7 +20196,7 @@
         <v>3938.43558594</v>
       </c>
       <c r="H36">
-        <v>1923.22578182</v>
+        <v>2551.50730182</v>
       </c>
       <c r="I36">
         <v>212.6626359</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>1923.22578182</v>
+        <v>2551.50730182</v>
       </c>
       <c r="AB36">
         <v>1000</v>
@@ -20282,7 +20282,7 @@
         <v>4216.54426087</v>
       </c>
       <c r="H37">
-        <v>1861.02426182</v>
+        <v>2474.70578182</v>
       </c>
       <c r="I37">
         <v>220.6708089</v>
@@ -20339,7 +20339,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>1861.02426182</v>
+        <v>2474.70578182</v>
       </c>
       <c r="AB37">
         <v>1000</v>
@@ -20368,7 +20368,7 @@
         <v>4271.42598423</v>
       </c>
       <c r="H38">
-        <v>1977.22578182</v>
+        <v>2616.30730182</v>
       </c>
       <c r="I38">
         <v>228.6789818</v>
@@ -20425,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>1977.22578182</v>
+        <v>2616.30730182</v>
       </c>
       <c r="AB38">
         <v>1000</v>
@@ -20454,7 +20454,7 @@
         <v>4245.62911116</v>
       </c>
       <c r="H39">
-        <v>2062.32018182</v>
+        <v>2718.42058182</v>
       </c>
       <c r="I39">
         <v>243.2988001</v>
@@ -20511,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>2062.32018182</v>
+        <v>2718.42058182</v>
       </c>
       <c r="AB39">
         <v>1000</v>
@@ -20540,7 +20540,7 @@
         <v>4349.17021927</v>
       </c>
       <c r="H40">
-        <v>2029.09018182</v>
+        <v>2678.54458182</v>
       </c>
       <c r="I40">
         <v>257.9186185</v>
@@ -20597,7 +20597,7 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>2029.09018182</v>
+        <v>2678.54458182</v>
       </c>
       <c r="AB40">
         <v>1000</v>
@@ -20626,7 +20626,7 @@
         <v>4175.00478525</v>
       </c>
       <c r="H41">
-        <v>2195.86018182</v>
+        <v>2878.66858182</v>
       </c>
       <c r="I41">
         <v>268.6624674</v>
@@ -20683,7 +20683,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>2195.86018182</v>
+        <v>2878.66858182</v>
       </c>
       <c r="AB41">
         <v>1000</v>
@@ -20712,7 +20712,7 @@
         <v>4251.78074658</v>
       </c>
       <c r="H42">
-        <v>2362.63018182</v>
+        <v>3078.79258182</v>
       </c>
       <c r="I42">
         <v>279.4063163</v>
@@ -20769,7 +20769,7 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>2362.63018182</v>
+        <v>3078.79258182</v>
       </c>
       <c r="AB42">
         <v>1000</v>
@@ -20798,7 +20798,7 @@
         <v>4430.9264938</v>
       </c>
       <c r="H43">
-        <v>2529.40018182</v>
+        <v>3278.91658182</v>
       </c>
       <c r="I43">
         <v>286.75172815</v>
@@ -20855,7 +20855,7 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>2529.40018182</v>
+        <v>3278.91658182</v>
       </c>
       <c r="AB43">
         <v>1000</v>
@@ -20884,7 +20884,7 @@
         <v>4818.68950011</v>
       </c>
       <c r="H44">
-        <v>2500.45258182</v>
+        <v>3244.17946182</v>
       </c>
       <c r="I44">
         <v>294.09714</v>
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>2500.45258182</v>
+        <v>3244.17946182</v>
       </c>
       <c r="AB44">
         <v>1000</v>
@@ -20970,7 +20970,7 @@
         <v>4557.17687128</v>
       </c>
       <c r="H45">
-        <v>2671.08450182</v>
+        <v>3446.49768182</v>
       </c>
       <c r="I45">
         <v>296.11326825</v>
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>2671.08450182</v>
+        <v>3446.49768182</v>
       </c>
       <c r="AB45">
         <v>1000</v>
@@ -21056,7 +21056,7 @@
         <v>4483.58909729</v>
       </c>
       <c r="H46">
-        <v>2817.31558182</v>
+        <v>3624.41506182</v>
       </c>
       <c r="I46">
         <v>298.1293965</v>
@@ -21113,7 +21113,7 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>2817.31558182</v>
+        <v>3624.41506182</v>
       </c>
       <c r="AB46">
         <v>1000</v>
@@ -21142,7 +21142,7 @@
         <v>4804.62002543</v>
       </c>
       <c r="H47">
-        <v>2975.74708182</v>
+        <v>3814.53286182</v>
       </c>
       <c r="I47">
         <v>304.8120885</v>
@@ -21199,7 +21199,7 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>2975.74708182</v>
+        <v>3814.53286182</v>
       </c>
       <c r="AB47">
         <v>1000</v>
@@ -21228,7 +21228,7 @@
         <v>4725.65095357</v>
       </c>
       <c r="H48">
-        <v>3134.17858182</v>
+        <v>4004.65066182</v>
       </c>
       <c r="I48">
         <v>311.4947805</v>
@@ -21285,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>3134.17858182</v>
+        <v>4004.65066182</v>
       </c>
       <c r="AB48">
         <v>1000</v>
@@ -21314,7 +21314,7 @@
         <v>4603.63798739</v>
       </c>
       <c r="H49">
-        <v>3292.61008182</v>
+        <v>4194.76846182</v>
       </c>
       <c r="I49">
         <v>318.9141817</v>
@@ -21371,7 +21371,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>3292.61008182</v>
+        <v>4194.76846182</v>
       </c>
       <c r="AB49">
         <v>1000</v>
@@ -21400,7 +21400,7 @@
         <v>4463.13576577</v>
       </c>
       <c r="H50">
-        <v>3978.25510182</v>
+        <v>5017.54248582</v>
       </c>
       <c r="I50">
         <v>326.3335828</v>
@@ -21457,7 +21457,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>3978.25510182</v>
+        <v>5017.54248582</v>
       </c>
       <c r="AB50">
         <v>1000</v>
@@ -21486,7 +21486,7 @@
         <v>4322.29385339</v>
       </c>
       <c r="H51">
-        <v>4094.76766182</v>
+        <v>5157.35755782</v>
       </c>
       <c r="I51">
         <v>327.3638722</v>
@@ -21543,7 +21543,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>4094.76766182</v>
+        <v>5157.35755782</v>
       </c>
       <c r="AB51">
         <v>1000</v>
@@ -21572,7 +21572,7 @@
         <v>4174.43798751</v>
       </c>
       <c r="H52">
-        <v>4211.28022182</v>
+        <v>5297.17262982</v>
       </c>
       <c r="I52">
         <v>328.3941616</v>
@@ -21629,7 +21629,7 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>4211.28022182</v>
+        <v>5297.17262982</v>
       </c>
       <c r="AB52">
         <v>1000</v>
@@ -21658,7 +21658,7 @@
         <v>4281.7266067</v>
       </c>
       <c r="H53">
-        <v>4327.79278182</v>
+        <v>5436.98770182</v>
       </c>
       <c r="I53">
         <v>328.359253</v>
@@ -21715,7 +21715,7 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>4327.79278182</v>
+        <v>5436.98770182</v>
       </c>
       <c r="AB53">
         <v>1000</v>
@@ -21744,7 +21744,7 @@
         <v>4287.75271437</v>
       </c>
       <c r="H54">
-        <v>4444.30534182</v>
+        <v>5576.80277382</v>
       </c>
       <c r="I54">
         <v>328.3243443</v>
@@ -21801,7 +21801,7 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>4444.30534182</v>
+        <v>5576.80277382</v>
       </c>
       <c r="AB54">
         <v>1000</v>
@@ -21830,7 +21830,7 @@
         <v>4347.22744317</v>
       </c>
       <c r="H55">
-        <v>4560.81790182</v>
+        <v>5716.61784582</v>
       </c>
       <c r="I55">
         <v>324.834954</v>
@@ -21887,7 +21887,7 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>4560.81790182</v>
+        <v>5716.61784582</v>
       </c>
       <c r="AB55">
         <v>1000</v>
@@ -21916,7 +21916,7 @@
         <v>4406.70217207</v>
       </c>
       <c r="H56">
-        <v>4677.33046182</v>
+        <v>5856.43291782</v>
       </c>
       <c r="I56">
         <v>321.3455636</v>
@@ -21973,7 +21973,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>4677.33046182</v>
+        <v>5856.43291782</v>
       </c>
       <c r="AB56">
         <v>1000</v>
@@ -22002,7 +22002,7 @@
         <v>3792.77317305</v>
       </c>
       <c r="H57">
-        <v>4793.84302182</v>
+        <v>5996.24798982</v>
       </c>
       <c r="I57">
         <v>934.46762205</v>
@@ -22059,7 +22059,7 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>4793.84302182</v>
+        <v>5996.24798982</v>
       </c>
       <c r="AB57">
         <v>1000</v>
@@ -22088,7 +22088,7 @@
         <v>3656.55504063</v>
       </c>
       <c r="H58">
-        <v>4910.35558182</v>
+        <v>6136.06306182</v>
       </c>
       <c r="I58">
         <v>1547.5896805</v>
@@ -22145,7 +22145,7 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>4910.35558182</v>
+        <v>6136.06306182</v>
       </c>
       <c r="AB58">
         <v>1000</v>
@@ -22174,7 +22174,7 @@
         <v>3715.32908243</v>
       </c>
       <c r="H59">
-        <v>5026.86814182</v>
+        <v>6275.87813382</v>
       </c>
       <c r="I59">
         <v>1542.79416195</v>
@@ -22231,7 +22231,7 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>5026.86814182</v>
+        <v>6275.87813382</v>
       </c>
       <c r="AB59">
         <v>1000</v>
@@ -22260,7 +22260,7 @@
         <v>3772.7403314</v>
       </c>
       <c r="H60">
-        <v>5020.24018182</v>
+        <v>6267.92458182</v>
       </c>
       <c r="I60">
         <v>1537.9986433</v>
@@ -22317,7 +22317,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>5020.24018182</v>
+        <v>6267.92458182</v>
       </c>
       <c r="AB60">
         <v>1000</v>
@@ -22346,7 +22346,7 @@
         <v>3951.29275918</v>
       </c>
       <c r="H61">
-        <v>5013.61222182</v>
+        <v>6259.97102982</v>
       </c>
       <c r="I61">
         <v>1516.58460035</v>
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>5013.61222182</v>
+        <v>6259.97102982</v>
       </c>
       <c r="AB61">
         <v>1000</v>
@@ -22432,7 +22432,7 @@
         <v>4036.85914055</v>
       </c>
       <c r="H62">
-        <v>5006.98426182</v>
+        <v>6252.01747782</v>
       </c>
       <c r="I62">
         <v>1495.1705573</v>
@@ -22489,7 +22489,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>5006.98426182</v>
+        <v>6252.01747782</v>
       </c>
       <c r="AB62">
         <v>1000</v>
@@ -22518,7 +22518,7 @@
         <v>4121.01780813</v>
       </c>
       <c r="H63">
-        <v>5000.35630182</v>
+        <v>6244.06392582</v>
       </c>
       <c r="I63">
         <v>1479.27287845</v>
@@ -22575,7 +22575,7 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>5000.35630182</v>
+        <v>6244.06392582</v>
       </c>
       <c r="AB63">
         <v>1000</v>
@@ -22604,7 +22604,7 @@
         <v>4194.65554559</v>
       </c>
       <c r="H64">
-        <v>4993.72834182</v>
+        <v>6236.11037382</v>
       </c>
       <c r="I64">
         <v>1463.3751995</v>
@@ -22661,7 +22661,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>4993.72834182</v>
+        <v>6236.11037382</v>
       </c>
       <c r="AB64">
         <v>1000</v>
@@ -22690,7 +22690,7 @@
         <v>4150.38074262</v>
       </c>
       <c r="H65">
-        <v>4987.10038182</v>
+        <v>6228.15682182</v>
       </c>
       <c r="I65">
         <v>1450.38907195</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>4987.10038182</v>
+        <v>6228.15682182</v>
       </c>
       <c r="AB65">
         <v>1000</v>
@@ -22776,7 +22776,7 @@
         <v>4106.10593975</v>
       </c>
       <c r="H66">
-        <v>4980.47242182</v>
+        <v>6220.20326982</v>
       </c>
       <c r="I66">
         <v>1437.4029443</v>
@@ -22833,7 +22833,7 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>4980.47242182</v>
+        <v>6220.20326982</v>
       </c>
       <c r="AB66">
         <v>1000</v>
@@ -22862,7 +22862,7 @@
         <v>4054.74605567</v>
       </c>
       <c r="H67">
-        <v>4973.84446182</v>
+        <v>6212.24971782</v>
       </c>
       <c r="I67">
         <v>1420.85275405</v>
@@ -22919,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>4973.84446182</v>
+        <v>6212.24971782</v>
       </c>
       <c r="AB67">
         <v>1000</v>
@@ -22948,7 +22948,7 @@
         <v>4013.90710171</v>
       </c>
       <c r="H68">
-        <v>4967.21650182</v>
+        <v>6204.29616582</v>
       </c>
       <c r="I68">
         <v>1404.3025639</v>
@@ -23005,7 +23005,7 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>4967.21650182</v>
+        <v>6204.29616582</v>
       </c>
       <c r="AB68">
         <v>1000</v>
@@ -23034,7 +23034,7 @@
         <v>2965.87982118</v>
       </c>
       <c r="H69">
-        <v>4960.58854182</v>
+        <v>6196.34261382</v>
       </c>
       <c r="I69">
         <v>1379.9265954</v>
@@ -23091,7 +23091,7 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>4960.58854182</v>
+        <v>6196.34261382</v>
       </c>
       <c r="AB69">
         <v>1000</v>
@@ -23120,7 +23120,7 @@
         <v>3358.63300577</v>
       </c>
       <c r="H70">
-        <v>4953.96058182</v>
+        <v>6188.38906182</v>
       </c>
       <c r="I70">
         <v>730.5506269</v>
@@ -23177,7 +23177,7 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>4953.96058182</v>
+        <v>6188.38906182</v>
       </c>
       <c r="AB70">
         <v>1000</v>
@@ -23206,7 +23206,7 @@
         <v>4216.98416982</v>
       </c>
       <c r="H71">
-        <v>4680.31498182</v>
+        <v>5860.01434182</v>
       </c>
       <c r="I71">
         <v>80.49037403</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>4680.31498182</v>
+        <v>5860.01434182</v>
       </c>
       <c r="AB71">
         <v>1000</v>
@@ -23292,7 +23292,7 @@
         <v>4460.85626412</v>
       </c>
       <c r="H72">
-        <v>4406.66938182</v>
+        <v>5531.63962182</v>
       </c>
       <c r="I72">
         <v>55.43012115</v>
@@ -23349,7 +23349,7 @@
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>4406.66938182</v>
+        <v>5531.63962182</v>
       </c>
       <c r="AB72">
         <v>1000</v>
@@ -23378,7 +23378,7 @@
         <v>5308.3645996</v>
       </c>
       <c r="H73">
-        <v>4681.2056</v>
+        <v>5751.44672</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -23435,7 +23435,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA73">
-        <v>4681.2056</v>
+        <v>5751.44672</v>
       </c>
       <c r="AB73">
         <v>1000</v>
@@ -23461,10 +23461,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>6521.2373122</v>
+        <v>6419.26970423</v>
       </c>
       <c r="H74">
-        <v>4698.61667273</v>
+        <v>5052.54258473</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         <v>37.6022046</v>
       </c>
       <c r="R74">
-        <v>408.895420211</v>
+        <v>300.706976744</v>
       </c>
       <c r="S74">
-        <v>1758.2503069073</v>
+        <v>1293.0399999992</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -23515,16 +23515,16 @@
         <v>995.3639666179999</v>
       </c>
       <c r="Y74">
-        <v>334.7896930912</v>
+        <v>800</v>
       </c>
       <c r="Z74">
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA74">
-        <v>4698.61667273</v>
+        <v>5052.54258473</v>
       </c>
       <c r="AB74">
-        <v>4698.616672727272</v>
+        <v>5052.542584727272</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -23547,10 +23547,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>6242.544926</v>
+        <v>6132.92246279</v>
       </c>
       <c r="H75">
-        <v>4474.34162273</v>
+        <v>4828.26753473</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -23580,10 +23580,10 @@
         <v>27.74133405</v>
       </c>
       <c r="R75">
-        <v>410.559608118</v>
+        <v>294.249302326</v>
       </c>
       <c r="S75">
-        <v>1765.4063149074</v>
+        <v>1265.2720000018</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -23601,16 +23601,16 @@
         <v>993.373238685</v>
       </c>
       <c r="Y75">
-        <v>299.8656850912</v>
+        <v>800</v>
       </c>
       <c r="Z75">
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA75">
-        <v>4474.34162273</v>
+        <v>4828.26753473</v>
       </c>
       <c r="AB75">
-        <v>4474.341622727272</v>
+        <v>4828.267534727272</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -23633,10 +23633,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>5629.19461495</v>
+        <v>5511.9172965</v>
       </c>
       <c r="H76">
-        <v>4250.06657273</v>
+        <v>4603.99248473</v>
       </c>
       <c r="I76">
         <v>10.2639128</v>
@@ -23666,10 +23666,10 @@
         <v>17.8804635</v>
       </c>
       <c r="R76">
-        <v>412.223796025</v>
+        <v>287.791627907</v>
       </c>
       <c r="S76">
-        <v>1772.5623229075</v>
+        <v>1237.5040000001</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -23687,16 +23687,16 @@
         <v>991.3864922069999</v>
       </c>
       <c r="Y76">
-        <v>264.9416770912</v>
+        <v>800</v>
       </c>
       <c r="Z76">
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA76">
-        <v>4250.06657273</v>
+        <v>4603.99248473</v>
       </c>
       <c r="AB76">
-        <v>4250.066572727272</v>
+        <v>4603.992484727272</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -23719,10 +23719,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>4953.22945505</v>
+        <v>4943.64493463</v>
       </c>
       <c r="H77">
-        <v>4025.79152273</v>
+        <v>4379.71743473</v>
       </c>
       <c r="I77">
         <v>628.6586002499999</v>
@@ -23752,10 +23752,10 @@
         <v>12.8889432</v>
       </c>
       <c r="R77">
-        <v>274.267857082</v>
+        <v>264.098604651</v>
       </c>
       <c r="S77">
-        <v>1179.3517854526</v>
+        <v>1135.6239999993</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -23773,16 +23773,16 @@
         <v>989.4037192230001</v>
       </c>
       <c r="Y77">
-        <v>756.2722145456</v>
+        <v>800</v>
       </c>
       <c r="Z77">
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA77">
-        <v>4025.79152273</v>
+        <v>4379.71743473</v>
       </c>
       <c r="AB77">
-        <v>4025.791522727272</v>
+        <v>4379.717434727272</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -23808,7 +23808,7 @@
         <v>3872.4028998</v>
       </c>
       <c r="H78">
-        <v>2470.60738182</v>
+        <v>3208.36522182</v>
       </c>
       <c r="I78">
         <v>1247.0532877</v>
@@ -23865,7 +23865,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA78">
-        <v>2470.60738182</v>
+        <v>3208.36522182</v>
       </c>
       <c r="AB78">
         <v>1000</v>
@@ -23894,7 +23894,7 @@
         <v>4055.4760231</v>
       </c>
       <c r="H79">
-        <v>2249.98870182</v>
+        <v>2942.89153182</v>
       </c>
       <c r="I79">
         <v>1242.3279769</v>
@@ -23951,7 +23951,7 @@
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>2249.98870182</v>
+        <v>2942.89153182</v>
       </c>
       <c r="AB79">
         <v>1000</v>
@@ -23980,7 +23980,7 @@
         <v>3878.32365948</v>
       </c>
       <c r="H80">
-        <v>2085.00466182</v>
+        <v>2733.05248182</v>
       </c>
       <c r="I80">
         <v>1237.6026661</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>2085.00466182</v>
+        <v>2733.05248182</v>
       </c>
       <c r="AB80">
         <v>1000</v>
@@ -24066,10 +24066,10 @@
         <v>3938.03386091</v>
       </c>
       <c r="H81">
-        <v>1878.84382182</v>
+        <v>2482.03663182</v>
       </c>
       <c r="I81">
-        <v>1236.12669723</v>
+        <v>1236.12669722</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -24123,7 +24123,7 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>1878.84382182</v>
+        <v>2482.03663182</v>
       </c>
       <c r="AB81">
         <v>1000</v>
@@ -24152,7 +24152,7 @@
         <v>4042.58150855</v>
       </c>
       <c r="H82">
-        <v>1968.22778182</v>
+        <v>2595.95178182</v>
       </c>
       <c r="I82">
         <v>1234.65072835</v>
@@ -24209,7 +24209,7 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>1968.22778182</v>
+        <v>2595.95178182</v>
       </c>
       <c r="AB82">
         <v>1000</v>
@@ -24238,7 +24238,7 @@
         <v>4248.02838189</v>
       </c>
       <c r="H83">
-        <v>2025.03034182</v>
+        <v>2673.64018182</v>
       </c>
       <c r="I83">
         <v>1233.53087392</v>
@@ -24295,7 +24295,7 @@
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>2025.03034182</v>
+        <v>2673.64018182</v>
       </c>
       <c r="AB83">
         <v>1000</v>
@@ -24324,7 +24324,7 @@
         <v>4401.80107352</v>
       </c>
       <c r="H84">
-        <v>1871.65370182</v>
+        <v>2463.60458182</v>
       </c>
       <c r="I84">
         <v>1232.4110195</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>1871.65370182</v>
+        <v>2463.60458182</v>
       </c>
       <c r="AB84">
         <v>1000</v>
@@ -24410,7 +24410,7 @@
         <v>4005.69540668</v>
       </c>
       <c r="H85">
-        <v>1879.98586182</v>
+        <v>2475.27778182</v>
       </c>
       <c r="I85">
         <v>1231.4137096</v>
@@ -24467,7 +24467,7 @@
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>1879.98586182</v>
+        <v>2475.27778182</v>
       </c>
       <c r="AB85">
         <v>1000</v>
@@ -24496,7 +24496,7 @@
         <v>4105.39755379</v>
       </c>
       <c r="H86">
-        <v>1936.31802182</v>
+        <v>2546.95098182</v>
       </c>
       <c r="I86">
         <v>1230.4163997</v>
@@ -24553,7 +24553,7 @@
         <v>0</v>
       </c>
       <c r="AA86">
-        <v>1936.31802182</v>
+        <v>2546.95098182</v>
       </c>
       <c r="AB86">
         <v>1000</v>
@@ -24582,7 +24582,7 @@
         <v>4304.00204115</v>
       </c>
       <c r="H87">
-        <v>2024.65018182</v>
+        <v>2658.62418182</v>
       </c>
       <c r="I87">
         <v>1230.51674955</v>
@@ -24639,7 +24639,7 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>2024.65018182</v>
+        <v>2658.62418182</v>
       </c>
       <c r="AB87">
         <v>1000</v>
@@ -24668,7 +24668,7 @@
         <v>3902.60652851</v>
       </c>
       <c r="H88">
-        <v>1965.78234182</v>
+        <v>2586.29738182</v>
       </c>
       <c r="I88">
         <v>1230.6170994</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>1965.78234182</v>
+        <v>2586.29738182</v>
       </c>
       <c r="AB88">
         <v>1000</v>
@@ -24754,7 +24754,7 @@
         <v>3651.41924177</v>
       </c>
       <c r="H89">
-        <v>1986.91450182</v>
+        <v>2613.97058182</v>
       </c>
       <c r="I89">
         <v>1230.50922335</v>
@@ -24811,7 +24811,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>1986.91450182</v>
+        <v>2613.97058182</v>
       </c>
       <c r="AB89">
         <v>1000</v>
@@ -24840,7 +24840,7 @@
         <v>4525.23195503</v>
       </c>
       <c r="H90">
-        <v>2008.04666182</v>
+        <v>2641.64378182</v>
       </c>
       <c r="I90">
         <v>605.4013473</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>2008.04666182</v>
+        <v>2641.64378182</v>
       </c>
       <c r="AB90">
         <v>1000</v>
@@ -24926,7 +24926,7 @@
         <v>5473.81001698</v>
       </c>
       <c r="H91">
-        <v>2029.17882182</v>
+        <v>2669.31698182</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>2029.17882182</v>
+        <v>2669.31698182</v>
       </c>
       <c r="AB91">
         <v>1000</v>
@@ -25012,7 +25012,7 @@
         <v>5811.07228947</v>
       </c>
       <c r="H92">
-        <v>2146.31098182</v>
+        <v>2816.99018182</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -25069,7 +25069,7 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>2146.31098182</v>
+        <v>2816.99018182</v>
       </c>
       <c r="AB92">
         <v>1000</v>
@@ -25098,7 +25098,7 @@
         <v>5434.738107</v>
       </c>
       <c r="H93">
-        <v>2167.91938182</v>
+        <v>2845.13962182</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -25149,13 +25149,13 @@
         <v>303.018084337</v>
       </c>
       <c r="Y93">
-        <v>0.380992000008</v>
+        <v>0.3809920000088</v>
       </c>
       <c r="Z93">
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>2167.91938182</v>
+        <v>2845.13962182</v>
       </c>
       <c r="AB93">
         <v>1000</v>
@@ -25184,7 +25184,7 @@
         <v>5058.57094079</v>
       </c>
       <c r="H94">
-        <v>2108.57530182</v>
+        <v>2772.33658182</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -25241,7 +25241,7 @@
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>2108.57530182</v>
+        <v>2772.33658182</v>
       </c>
       <c r="AB94">
         <v>1000</v>
@@ -25270,7 +25270,7 @@
         <v>5153.1659108</v>
       </c>
       <c r="H95">
-        <v>2233.32978182</v>
+        <v>2923.63210182</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>2233.32978182</v>
+        <v>2923.63210182</v>
       </c>
       <c r="AB95">
         <v>1000</v>
@@ -25356,7 +25356,7 @@
         <v>5196.36673131</v>
       </c>
       <c r="H96">
-        <v>2366.03498182</v>
+        <v>3082.87834182</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -25413,7 +25413,7 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>2366.03498182</v>
+        <v>3082.87834182</v>
       </c>
       <c r="AB96">
         <v>1000</v>
@@ -25442,7 +25442,7 @@
         <v>5243.04224941</v>
       </c>
       <c r="H97">
-        <v>2398.74018182</v>
+        <v>3122.12458182</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -25499,7 +25499,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>2398.74018182</v>
+        <v>3122.12458182</v>
       </c>
       <c r="AB97">
         <v>1000</v>
@@ -25624,7 +25624,7 @@
         <v>6598.81410477</v>
       </c>
       <c r="H2">
-        <v>3646.21698909</v>
+        <v>4370.89850909</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>3646.21698909</v>
+        <v>4370.89850909</v>
       </c>
       <c r="AB2">
         <v>1000</v>
@@ -25710,7 +25710,7 @@
         <v>6124.08120552</v>
       </c>
       <c r="H3">
-        <v>3669.84098909</v>
+        <v>4399.92250909</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>3669.84098909</v>
+        <v>4399.92250909</v>
       </c>
       <c r="AB3">
         <v>1000</v>
@@ -25796,7 +25796,7 @@
         <v>5649.34830626</v>
       </c>
       <c r="H4">
-        <v>3693.46498909</v>
+        <v>4428.94650909</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -25853,7 +25853,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>3693.46498909</v>
+        <v>4428.94650909</v>
       </c>
       <c r="AB4">
         <v>1000</v>
@@ -25882,7 +25882,7 @@
         <v>6374.87732005</v>
       </c>
       <c r="H5">
-        <v>3717.08898909</v>
+        <v>4457.97050909</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>3717.08898909</v>
+        <v>4457.97050909</v>
       </c>
       <c r="AB5">
         <v>1000</v>
@@ -25968,7 +25968,7 @@
         <v>7100.40633384</v>
       </c>
       <c r="H6">
-        <v>3720.71298909</v>
+        <v>4466.99450909</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>3720.71298909</v>
+        <v>4466.99450909</v>
       </c>
       <c r="AB6">
         <v>1000</v>
@@ -26054,7 +26054,7 @@
         <v>6875.90908939</v>
       </c>
       <c r="H7">
-        <v>3734.33698909</v>
+        <v>4486.01850909</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -26111,7 +26111,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>3734.33698909</v>
+        <v>4486.01850909</v>
       </c>
       <c r="AB7">
         <v>1000</v>
@@ -26140,7 +26140,7 @@
         <v>6651.41184493</v>
       </c>
       <c r="H8">
-        <v>3747.96098909</v>
+        <v>4505.04250909</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>3747.96098909</v>
+        <v>4505.04250909</v>
       </c>
       <c r="AB8">
         <v>1000</v>
@@ -26226,7 +26226,7 @@
         <v>6619.43717922</v>
       </c>
       <c r="H9">
-        <v>3643.58498909</v>
+        <v>4374.06650909</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -26283,7 +26283,7 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>3643.58498909</v>
+        <v>4374.06650909</v>
       </c>
       <c r="AB9">
         <v>1000</v>
@@ -26312,7 +26312,7 @@
         <v>6629.55258674</v>
       </c>
       <c r="H10">
-        <v>3593.20898909</v>
+        <v>4313.09050909</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>3593.20898909</v>
+        <v>4313.09050909</v>
       </c>
       <c r="AB10">
         <v>1000</v>
@@ -26398,7 +26398,7 @@
         <v>6717.61703342</v>
       </c>
       <c r="H11">
-        <v>3558.83298909</v>
+        <v>4272.11450909</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -26455,7 +26455,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>3558.83298909</v>
+        <v>4272.11450909</v>
       </c>
       <c r="AB11">
         <v>1000</v>
@@ -26484,7 +26484,7 @@
         <v>6690.06535177</v>
       </c>
       <c r="H12">
-        <v>3512.45698909</v>
+        <v>4211.13850909</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -26541,7 +26541,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>3512.45698909</v>
+        <v>4211.13850909</v>
       </c>
       <c r="AB12">
         <v>1000</v>
@@ -26570,7 +26570,7 @@
         <v>6899.76513708</v>
       </c>
       <c r="H13">
-        <v>3436.08098909</v>
+        <v>4120.16250909</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -26627,7 +26627,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>3436.08098909</v>
+        <v>4120.16250909</v>
       </c>
       <c r="AB13">
         <v>1000</v>
@@ -26656,7 +26656,7 @@
         <v>7309.46492238</v>
       </c>
       <c r="H14">
-        <v>3449.70498909</v>
+        <v>4139.18650909</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>3449.70498909</v>
+        <v>4139.18650909</v>
       </c>
       <c r="AB14">
         <v>1000</v>
@@ -26742,7 +26742,7 @@
         <v>6864.19239331</v>
       </c>
       <c r="H15">
-        <v>3375.17898909</v>
+        <v>4050.06050909</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -26799,7 +26799,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>3375.17898909</v>
+        <v>4050.06050909</v>
       </c>
       <c r="AB15">
         <v>1000</v>
@@ -26828,7 +26828,7 @@
         <v>6590.83846889</v>
       </c>
       <c r="H16">
-        <v>3458.75298909</v>
+        <v>4159.03450909</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -26885,7 +26885,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>3458.75298909</v>
+        <v>4159.03450909</v>
       </c>
       <c r="AB16">
         <v>1000</v>
@@ -26914,7 +26914,7 @@
         <v>7084.32779146</v>
       </c>
       <c r="H17">
-        <v>3467.49850909</v>
+        <v>4173.18002909</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>1001.3010686</v>
       </c>
       <c r="Y17">
-        <v>4.137216</v>
+        <v>4.137216000008</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>3467.49850909</v>
+        <v>4173.18002909</v>
       </c>
       <c r="AB17">
         <v>1000</v>
@@ -27000,7 +27000,7 @@
         <v>6827.9478401</v>
       </c>
       <c r="H18">
-        <v>3494.49850909</v>
+        <v>4205.58002909</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -27057,7 +27057,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>3494.49850909</v>
+        <v>4205.58002909</v>
       </c>
       <c r="AB18">
         <v>1000</v>
@@ -27086,7 +27086,7 @@
         <v>6836.55053989</v>
       </c>
       <c r="H19">
-        <v>3521.49850909</v>
+        <v>4237.98002909</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>3521.49850909</v>
+        <v>4237.98002909</v>
       </c>
       <c r="AB19">
         <v>1000</v>
@@ -27172,7 +27172,7 @@
         <v>6170.20858852</v>
       </c>
       <c r="H20">
-        <v>3528.49850909</v>
+        <v>4246.38002909</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -27229,7 +27229,7 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>3528.49850909</v>
+        <v>4246.38002909</v>
       </c>
       <c r="AB20">
         <v>1000</v>
@@ -27258,7 +27258,7 @@
         <v>6124.72437324</v>
       </c>
       <c r="H21">
-        <v>3475.49850909</v>
+        <v>4182.78002909</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -27315,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>3475.49850909</v>
+        <v>4182.78002909</v>
       </c>
       <c r="AB21">
         <v>1000</v>
@@ -27344,7 +27344,7 @@
         <v>6076.43457658</v>
       </c>
       <c r="H22">
-        <v>3502.49850909</v>
+        <v>4215.18002909</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -27401,7 +27401,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>3502.49850909</v>
+        <v>4215.18002909</v>
       </c>
       <c r="AB22">
         <v>1000</v>
@@ -27430,7 +27430,7 @@
         <v>5824.56167394</v>
       </c>
       <c r="H23">
-        <v>3429.49850909</v>
+        <v>4127.58002909</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -27487,7 +27487,7 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>3429.49850909</v>
+        <v>4127.58002909</v>
       </c>
       <c r="AB23">
         <v>1000</v>
@@ -27516,7 +27516,7 @@
         <v>5569.88318991</v>
       </c>
       <c r="H24">
-        <v>3456.49850909</v>
+        <v>4159.98002909</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -27573,7 +27573,7 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>3456.49850909</v>
+        <v>4159.98002909</v>
       </c>
       <c r="AB24">
         <v>1000</v>
@@ -27602,7 +27602,7 @@
         <v>5720.26617518</v>
       </c>
       <c r="H25">
-        <v>3383.49850909</v>
+        <v>4072.38002909</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -27659,7 +27659,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>3383.49850909</v>
+        <v>4072.38002909</v>
       </c>
       <c r="AB25">
         <v>1000</v>
@@ -27688,7 +27688,7 @@
         <v>5867.14218371</v>
       </c>
       <c r="H26">
-        <v>3410.49850909</v>
+        <v>4104.78002909</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>3410.49850909</v>
+        <v>4104.78002909</v>
       </c>
       <c r="AB26">
         <v>1000</v>
@@ -27774,7 +27774,7 @@
         <v>5759.24314549</v>
       </c>
       <c r="H27">
-        <v>3337.49850909</v>
+        <v>4017.18002909</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>3337.49850909</v>
+        <v>4017.18002909</v>
       </c>
       <c r="AB27">
         <v>1000</v>
@@ -27860,7 +27860,7 @@
         <v>5650.31761519</v>
       </c>
       <c r="H28">
-        <v>3264.49850909</v>
+        <v>3929.58002909</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -27917,7 +27917,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>3264.49850909</v>
+        <v>3929.58002909</v>
       </c>
       <c r="AB28">
         <v>1000</v>
@@ -27946,7 +27946,7 @@
         <v>5622.34742217</v>
       </c>
       <c r="H29">
-        <v>3291.49850909</v>
+        <v>3961.98002909</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -28003,7 +28003,7 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>3291.49850909</v>
+        <v>3961.98002909</v>
       </c>
       <c r="AB29">
         <v>1000</v>
@@ -28032,7 +28032,7 @@
         <v>5594.37722909</v>
       </c>
       <c r="H30">
-        <v>3318.49850909</v>
+        <v>3994.38002909</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>3318.49850909</v>
+        <v>3994.38002909</v>
       </c>
       <c r="AB30">
         <v>1000</v>
@@ -28118,7 +28118,7 @@
         <v>5854.1792177</v>
       </c>
       <c r="H31">
-        <v>3245.49850909</v>
+        <v>3906.78002909</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>3245.49850909</v>
+        <v>3906.78002909</v>
       </c>
       <c r="AB31">
         <v>1000</v>
@@ -28204,7 +28204,7 @@
         <v>6134.89283422</v>
       </c>
       <c r="H32">
-        <v>3272.49850909</v>
+        <v>3939.18002909</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -28261,7 +28261,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>3272.49850909</v>
+        <v>3939.18002909</v>
       </c>
       <c r="AB32">
         <v>1000</v>
@@ -28290,7 +28290,7 @@
         <v>6218.59669149</v>
       </c>
       <c r="H33">
-        <v>3299.49850909</v>
+        <v>3971.58002909</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>3299.49850909</v>
+        <v>3971.58002909</v>
       </c>
       <c r="AB33">
         <v>1000</v>
@@ -28376,7 +28376,7 @@
         <v>5005.80752561</v>
       </c>
       <c r="H34">
-        <v>2617.4076</v>
+        <v>3274.88912</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -28433,7 +28433,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>2617.4076</v>
+        <v>3274.88912</v>
       </c>
       <c r="AB34">
         <v>1000</v>
@@ -28462,7 +28462,7 @@
         <v>3922.19834642</v>
       </c>
       <c r="H35">
-        <v>1996.22578182</v>
+        <v>2639.10730182</v>
       </c>
       <c r="I35">
         <v>195.68059635</v>
@@ -28519,7 +28519,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>1996.22578182</v>
+        <v>2639.10730182</v>
       </c>
       <c r="AB35">
         <v>1000</v>
@@ -28548,7 +28548,7 @@
         <v>3938.43558594</v>
       </c>
       <c r="H36">
-        <v>1923.22578182</v>
+        <v>2551.50730182</v>
       </c>
       <c r="I36">
         <v>212.6626359</v>
@@ -28605,7 +28605,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>1923.22578182</v>
+        <v>2551.50730182</v>
       </c>
       <c r="AB36">
         <v>1000</v>
@@ -28634,7 +28634,7 @@
         <v>4216.54426087</v>
       </c>
       <c r="H37">
-        <v>1861.02426182</v>
+        <v>2474.70578182</v>
       </c>
       <c r="I37">
         <v>220.6708089</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>1861.02426182</v>
+        <v>2474.70578182</v>
       </c>
       <c r="AB37">
         <v>1000</v>
@@ -28720,7 +28720,7 @@
         <v>4271.42598423</v>
       </c>
       <c r="H38">
-        <v>1977.22578182</v>
+        <v>2616.30730182</v>
       </c>
       <c r="I38">
         <v>228.6789818</v>
@@ -28777,7 +28777,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>1977.22578182</v>
+        <v>2616.30730182</v>
       </c>
       <c r="AB38">
         <v>1000</v>
@@ -28806,7 +28806,7 @@
         <v>4245.62911116</v>
       </c>
       <c r="H39">
-        <v>2062.32018182</v>
+        <v>2718.42058182</v>
       </c>
       <c r="I39">
         <v>243.2988001</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>2062.32018182</v>
+        <v>2718.42058182</v>
       </c>
       <c r="AB39">
         <v>1000</v>
@@ -28892,7 +28892,7 @@
         <v>4349.17021927</v>
       </c>
       <c r="H40">
-        <v>2029.09018182</v>
+        <v>2678.54458182</v>
       </c>
       <c r="I40">
         <v>257.9186185</v>
@@ -28949,7 +28949,7 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>2029.09018182</v>
+        <v>2678.54458182</v>
       </c>
       <c r="AB40">
         <v>1000</v>
@@ -28978,7 +28978,7 @@
         <v>4175.00478525</v>
       </c>
       <c r="H41">
-        <v>2195.86018182</v>
+        <v>2878.66858182</v>
       </c>
       <c r="I41">
         <v>268.6624674</v>
@@ -29035,7 +29035,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>2195.86018182</v>
+        <v>2878.66858182</v>
       </c>
       <c r="AB41">
         <v>1000</v>
@@ -29064,7 +29064,7 @@
         <v>4251.78074658</v>
       </c>
       <c r="H42">
-        <v>2362.63018182</v>
+        <v>3078.79258182</v>
       </c>
       <c r="I42">
         <v>279.4063163</v>
@@ -29121,7 +29121,7 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>2362.63018182</v>
+        <v>3078.79258182</v>
       </c>
       <c r="AB42">
         <v>1000</v>
@@ -29150,7 +29150,7 @@
         <v>4430.9264938</v>
       </c>
       <c r="H43">
-        <v>2529.40018182</v>
+        <v>3278.91658182</v>
       </c>
       <c r="I43">
         <v>286.75172815</v>
@@ -29207,7 +29207,7 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>2529.40018182</v>
+        <v>3278.91658182</v>
       </c>
       <c r="AB43">
         <v>1000</v>
@@ -29236,7 +29236,7 @@
         <v>4818.68950011</v>
       </c>
       <c r="H44">
-        <v>2500.45258182</v>
+        <v>3244.17946182</v>
       </c>
       <c r="I44">
         <v>294.09714</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>2500.45258182</v>
+        <v>3244.17946182</v>
       </c>
       <c r="AB44">
         <v>1000</v>
@@ -29322,7 +29322,7 @@
         <v>4557.17687128</v>
       </c>
       <c r="H45">
-        <v>2671.08450182</v>
+        <v>3446.49768182</v>
       </c>
       <c r="I45">
         <v>296.11326825</v>
@@ -29379,7 +29379,7 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>2671.08450182</v>
+        <v>3446.49768182</v>
       </c>
       <c r="AB45">
         <v>1000</v>
@@ -29408,7 +29408,7 @@
         <v>4483.58909729</v>
       </c>
       <c r="H46">
-        <v>2817.31558182</v>
+        <v>3624.41506182</v>
       </c>
       <c r="I46">
         <v>298.1293965</v>
@@ -29465,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>2817.31558182</v>
+        <v>3624.41506182</v>
       </c>
       <c r="AB46">
         <v>1000</v>
@@ -29494,7 +29494,7 @@
         <v>4804.62002543</v>
       </c>
       <c r="H47">
-        <v>2975.74708182</v>
+        <v>3814.53286182</v>
       </c>
       <c r="I47">
         <v>304.8120885</v>
@@ -29551,7 +29551,7 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>2975.74708182</v>
+        <v>3814.53286182</v>
       </c>
       <c r="AB47">
         <v>1000</v>
@@ -29580,7 +29580,7 @@
         <v>4725.65095357</v>
       </c>
       <c r="H48">
-        <v>3134.17858182</v>
+        <v>4004.65066182</v>
       </c>
       <c r="I48">
         <v>311.4947805</v>
@@ -29637,7 +29637,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>3134.17858182</v>
+        <v>4004.65066182</v>
       </c>
       <c r="AB48">
         <v>1000</v>
@@ -29666,7 +29666,7 @@
         <v>4603.63798739</v>
       </c>
       <c r="H49">
-        <v>3292.61008182</v>
+        <v>4194.76846182</v>
       </c>
       <c r="I49">
         <v>318.9141817</v>
@@ -29723,7 +29723,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>3292.61008182</v>
+        <v>4194.76846182</v>
       </c>
       <c r="AB49">
         <v>1000</v>
@@ -29752,7 +29752,7 @@
         <v>4463.13576577</v>
       </c>
       <c r="H50">
-        <v>3978.25510182</v>
+        <v>5017.54248582</v>
       </c>
       <c r="I50">
         <v>326.3335828</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>3978.25510182</v>
+        <v>5017.54248582</v>
       </c>
       <c r="AB50">
         <v>1000</v>
@@ -29838,7 +29838,7 @@
         <v>4322.29385339</v>
       </c>
       <c r="H51">
-        <v>4094.76766182</v>
+        <v>5157.35755782</v>
       </c>
       <c r="I51">
         <v>327.3638722</v>
@@ -29895,7 +29895,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>4094.76766182</v>
+        <v>5157.35755782</v>
       </c>
       <c r="AB51">
         <v>1000</v>
@@ -29924,7 +29924,7 @@
         <v>4174.43798751</v>
       </c>
       <c r="H52">
-        <v>4211.28022182</v>
+        <v>5297.17262982</v>
       </c>
       <c r="I52">
         <v>328.3941616</v>
@@ -29981,7 +29981,7 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>4211.28022182</v>
+        <v>5297.17262982</v>
       </c>
       <c r="AB52">
         <v>1000</v>
@@ -30010,7 +30010,7 @@
         <v>4281.7266067</v>
       </c>
       <c r="H53">
-        <v>4327.79278182</v>
+        <v>5436.98770182</v>
       </c>
       <c r="I53">
         <v>328.359253</v>
@@ -30067,7 +30067,7 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>4327.79278182</v>
+        <v>5436.98770182</v>
       </c>
       <c r="AB53">
         <v>1000</v>
@@ -30096,7 +30096,7 @@
         <v>4287.75271437</v>
       </c>
       <c r="H54">
-        <v>4444.30534182</v>
+        <v>5576.80277382</v>
       </c>
       <c r="I54">
         <v>328.3243443</v>
@@ -30153,7 +30153,7 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>4444.30534182</v>
+        <v>5576.80277382</v>
       </c>
       <c r="AB54">
         <v>1000</v>
@@ -30182,7 +30182,7 @@
         <v>4347.22744317</v>
       </c>
       <c r="H55">
-        <v>4560.81790182</v>
+        <v>5716.61784582</v>
       </c>
       <c r="I55">
         <v>324.834954</v>
@@ -30239,7 +30239,7 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>4560.81790182</v>
+        <v>5716.61784582</v>
       </c>
       <c r="AB55">
         <v>1000</v>
@@ -30268,7 +30268,7 @@
         <v>4406.70217207</v>
       </c>
       <c r="H56">
-        <v>4677.33046182</v>
+        <v>5856.43291782</v>
       </c>
       <c r="I56">
         <v>321.3455636</v>
@@ -30325,7 +30325,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>4677.33046182</v>
+        <v>5856.43291782</v>
       </c>
       <c r="AB56">
         <v>1000</v>
@@ -30354,7 +30354,7 @@
         <v>3792.77317305</v>
       </c>
       <c r="H57">
-        <v>4793.84302182</v>
+        <v>5996.24798982</v>
       </c>
       <c r="I57">
         <v>934.46762205</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>4793.84302182</v>
+        <v>5996.24798982</v>
       </c>
       <c r="AB57">
         <v>1000</v>
@@ -30440,7 +30440,7 @@
         <v>3656.55504063</v>
       </c>
       <c r="H58">
-        <v>4910.35558182</v>
+        <v>6136.06306182</v>
       </c>
       <c r="I58">
         <v>1547.5896805</v>
@@ -30497,7 +30497,7 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>4910.35558182</v>
+        <v>6136.06306182</v>
       </c>
       <c r="AB58">
         <v>1000</v>
@@ -30526,7 +30526,7 @@
         <v>3715.32908243</v>
       </c>
       <c r="H59">
-        <v>5026.86814182</v>
+        <v>6275.87813382</v>
       </c>
       <c r="I59">
         <v>1542.79416195</v>
@@ -30583,7 +30583,7 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>5026.86814182</v>
+        <v>6275.87813382</v>
       </c>
       <c r="AB59">
         <v>1000</v>
@@ -30612,7 +30612,7 @@
         <v>3772.7403314</v>
       </c>
       <c r="H60">
-        <v>5020.24018182</v>
+        <v>6267.92458182</v>
       </c>
       <c r="I60">
         <v>1537.9986433</v>
@@ -30669,7 +30669,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>5020.24018182</v>
+        <v>6267.92458182</v>
       </c>
       <c r="AB60">
         <v>1000</v>
@@ -30698,7 +30698,7 @@
         <v>3951.29275918</v>
       </c>
       <c r="H61">
-        <v>5013.61222182</v>
+        <v>6259.97102982</v>
       </c>
       <c r="I61">
         <v>1516.58460035</v>
@@ -30755,7 +30755,7 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>5013.61222182</v>
+        <v>6259.97102982</v>
       </c>
       <c r="AB61">
         <v>1000</v>
@@ -30784,7 +30784,7 @@
         <v>4036.85914055</v>
       </c>
       <c r="H62">
-        <v>5006.98426182</v>
+        <v>6252.01747782</v>
       </c>
       <c r="I62">
         <v>1495.1705573</v>
@@ -30841,7 +30841,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>5006.98426182</v>
+        <v>6252.01747782</v>
       </c>
       <c r="AB62">
         <v>1000</v>
@@ -30870,7 +30870,7 @@
         <v>4121.01780813</v>
       </c>
       <c r="H63">
-        <v>5000.35630182</v>
+        <v>6244.06392582</v>
       </c>
       <c r="I63">
         <v>1479.27287845</v>
@@ -30927,7 +30927,7 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>5000.35630182</v>
+        <v>6244.06392582</v>
       </c>
       <c r="AB63">
         <v>1000</v>
@@ -30956,7 +30956,7 @@
         <v>4194.65554559</v>
       </c>
       <c r="H64">
-        <v>4993.72834182</v>
+        <v>6236.11037382</v>
       </c>
       <c r="I64">
         <v>1463.3751995</v>
@@ -31013,7 +31013,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>4993.72834182</v>
+        <v>6236.11037382</v>
       </c>
       <c r="AB64">
         <v>1000</v>
@@ -31042,7 +31042,7 @@
         <v>4150.38074262</v>
       </c>
       <c r="H65">
-        <v>4987.10038182</v>
+        <v>6228.15682182</v>
       </c>
       <c r="I65">
         <v>1450.38907195</v>
@@ -31099,7 +31099,7 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>4987.10038182</v>
+        <v>6228.15682182</v>
       </c>
       <c r="AB65">
         <v>1000</v>
@@ -31128,7 +31128,7 @@
         <v>4106.10593975</v>
       </c>
       <c r="H66">
-        <v>4980.47242182</v>
+        <v>6220.20326982</v>
       </c>
       <c r="I66">
         <v>1437.4029443</v>
@@ -31185,7 +31185,7 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>4980.47242182</v>
+        <v>6220.20326982</v>
       </c>
       <c r="AB66">
         <v>1000</v>
@@ -31214,7 +31214,7 @@
         <v>4054.74605567</v>
       </c>
       <c r="H67">
-        <v>4973.84446182</v>
+        <v>6212.24971782</v>
       </c>
       <c r="I67">
         <v>1420.85275405</v>
@@ -31271,7 +31271,7 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>4973.84446182</v>
+        <v>6212.24971782</v>
       </c>
       <c r="AB67">
         <v>1000</v>
@@ -31300,7 +31300,7 @@
         <v>4013.90710171</v>
       </c>
       <c r="H68">
-        <v>4967.21650182</v>
+        <v>6204.29616582</v>
       </c>
       <c r="I68">
         <v>1404.3025639</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>4967.21650182</v>
+        <v>6204.29616582</v>
       </c>
       <c r="AB68">
         <v>1000</v>
@@ -31386,7 +31386,7 @@
         <v>2965.87982118</v>
       </c>
       <c r="H69">
-        <v>4960.58854182</v>
+        <v>6196.34261382</v>
       </c>
       <c r="I69">
         <v>1379.9265954</v>
@@ -31443,7 +31443,7 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>4960.58854182</v>
+        <v>6196.34261382</v>
       </c>
       <c r="AB69">
         <v>1000</v>
@@ -31472,7 +31472,7 @@
         <v>3358.63300577</v>
       </c>
       <c r="H70">
-        <v>4953.96058182</v>
+        <v>6188.38906182</v>
       </c>
       <c r="I70">
         <v>730.5506269</v>
@@ -31529,7 +31529,7 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>4953.96058182</v>
+        <v>6188.38906182</v>
       </c>
       <c r="AB70">
         <v>1000</v>
@@ -31558,7 +31558,7 @@
         <v>4216.98416982</v>
       </c>
       <c r="H71">
-        <v>4680.31498182</v>
+        <v>5860.01434182</v>
       </c>
       <c r="I71">
         <v>80.49037403</v>
@@ -31615,7 +31615,7 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>4680.31498182</v>
+        <v>5860.01434182</v>
       </c>
       <c r="AB71">
         <v>1000</v>
@@ -31644,7 +31644,7 @@
         <v>4460.85626412</v>
       </c>
       <c r="H72">
-        <v>4406.66938182</v>
+        <v>5531.63962182</v>
       </c>
       <c r="I72">
         <v>55.43012115</v>
@@ -31701,7 +31701,7 @@
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>4406.66938182</v>
+        <v>5531.63962182</v>
       </c>
       <c r="AB72">
         <v>1000</v>
@@ -31727,10 +31727,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G73">
-        <v>5230.46399513</v>
+        <v>5308.3645996</v>
       </c>
       <c r="H73">
-        <v>4586.3085</v>
+        <v>5751.44672</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -31748,13 +31748,13 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>627.900604478</v>
+        <v>550</v>
       </c>
       <c r="O73">
-        <v>764.8971000004725</v>
+        <v>669.9999999999999</v>
       </c>
       <c r="P73">
-        <v>509.931400000315</v>
+        <v>446.6666666666666</v>
       </c>
       <c r="Q73">
         <v>48.61932768</v>
@@ -31787,7 +31787,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA73">
-        <v>4586.3085</v>
+        <v>5751.44672</v>
       </c>
       <c r="AB73">
         <v>1000</v>
@@ -31813,10 +31813,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>6516.71793696</v>
+        <v>6423.46508508</v>
       </c>
       <c r="H74">
-        <v>4254.98030909</v>
+        <v>4490.93091709</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -31834,22 +31834,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>127.900604478</v>
+        <v>50</v>
       </c>
       <c r="O74">
-        <v>155.8061909095636</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P74">
-        <v>103.8707939397091</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q74">
         <v>37.6022046</v>
       </c>
       <c r="R74">
-        <v>486.753488372</v>
+        <v>305.158309209</v>
       </c>
       <c r="S74">
-        <v>2093.0399999996</v>
+        <v>1312.1807295987</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -31867,16 +31867,16 @@
         <v>995.3639666179999</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>780.8592704</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA74">
-        <v>4254.98030909</v>
+        <v>4490.93091709</v>
       </c>
       <c r="AB74">
-        <v>4254.980309090908</v>
+        <v>4490.930917090908</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -31899,10 +31899,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>6200.50719366</v>
+        <v>6144.77269888</v>
       </c>
       <c r="H75">
-        <v>4030.70525909</v>
+        <v>4266.65586709</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -31920,22 +31920,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>157.764106343</v>
+        <v>50</v>
       </c>
       <c r="O75">
-        <v>192.1853659087454</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P75">
-        <v>128.1235772724969</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q75">
         <v>27.74133405</v>
       </c>
       <c r="R75">
-        <v>480.295813953</v>
+        <v>306.822497116</v>
       </c>
       <c r="S75">
-        <v>2065.2719999979</v>
+        <v>1319.3367375988</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -31953,16 +31953,16 @@
         <v>993.373238685</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>745.9352624000001</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA75">
-        <v>4030.70525909</v>
+        <v>4266.65586709</v>
       </c>
       <c r="AB75">
-        <v>4030.705259090908</v>
+        <v>4266.655867090908</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -31985,10 +31985,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>5549.6385255</v>
+        <v>5531.42238783</v>
       </c>
       <c r="H76">
-        <v>3806.43020909</v>
+        <v>4042.38081709</v>
       </c>
       <c r="I76">
         <v>10.2639128</v>
@@ -32006,22 +32006,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>187.627608209</v>
+        <v>50</v>
       </c>
       <c r="O76">
-        <v>228.5645409091454</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P76">
-        <v>152.3763606060969</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q76">
         <v>17.8804635</v>
       </c>
       <c r="R76">
-        <v>473.838139535</v>
+        <v>308.486685023</v>
       </c>
       <c r="S76">
-        <v>2037.5040000005</v>
+        <v>1326.4927455989</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -32039,16 +32039,16 @@
         <v>991.3864922069999</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>711.0112544</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA76">
-        <v>3806.43020909</v>
+        <v>4042.38081709</v>
       </c>
       <c r="AB76">
-        <v>3806.430209090908</v>
+        <v>4042.380817090908</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -32071,10 +32071,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>5046.57879966</v>
+        <v>4943.64493463</v>
       </c>
       <c r="H77">
-        <v>3582.15515909</v>
+        <v>3818.10576709</v>
       </c>
       <c r="I77">
         <v>628.6586002499999</v>
@@ -32104,10 +32104,10 @@
         <v>12.8889432</v>
       </c>
       <c r="R77">
-        <v>373.312254545</v>
+        <v>264.098604651</v>
       </c>
       <c r="S77">
-        <v>1605.2426945435</v>
+        <v>1135.6239999993</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -32125,16 +32125,16 @@
         <v>989.4037192230001</v>
       </c>
       <c r="Y77">
-        <v>330.3813054544</v>
+        <v>800</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA77">
-        <v>3582.15515909</v>
+        <v>3818.10576709</v>
       </c>
       <c r="AB77">
-        <v>3582.155159090908</v>
+        <v>3818.105767090908</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -32160,7 +32160,7 @@
         <v>3872.4028998</v>
       </c>
       <c r="H78">
-        <v>2470.60738182</v>
+        <v>3208.36522182</v>
       </c>
       <c r="I78">
         <v>1247.0532877</v>
@@ -32217,7 +32217,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA78">
-        <v>2470.60738182</v>
+        <v>3208.36522182</v>
       </c>
       <c r="AB78">
         <v>1000</v>
@@ -32246,7 +32246,7 @@
         <v>4055.4760231</v>
       </c>
       <c r="H79">
-        <v>2249.98870182</v>
+        <v>2942.89153182</v>
       </c>
       <c r="I79">
         <v>1242.3279769</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>2249.98870182</v>
+        <v>2942.89153182</v>
       </c>
       <c r="AB79">
         <v>1000</v>
@@ -32332,7 +32332,7 @@
         <v>3878.32365948</v>
       </c>
       <c r="H80">
-        <v>2085.00466182</v>
+        <v>2733.05248182</v>
       </c>
       <c r="I80">
         <v>1237.6026661</v>
@@ -32389,7 +32389,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>2085.00466182</v>
+        <v>2733.05248182</v>
       </c>
       <c r="AB80">
         <v>1000</v>
@@ -32418,10 +32418,10 @@
         <v>3938.03386091</v>
       </c>
       <c r="H81">
-        <v>1878.84382182</v>
+        <v>2482.03663182</v>
       </c>
       <c r="I81">
-        <v>1236.12669723</v>
+        <v>1236.12669722</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -32475,7 +32475,7 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>1878.84382182</v>
+        <v>2482.03663182</v>
       </c>
       <c r="AB81">
         <v>1000</v>
@@ -32504,7 +32504,7 @@
         <v>4042.58150855</v>
       </c>
       <c r="H82">
-        <v>1968.22778182</v>
+        <v>2595.95178182</v>
       </c>
       <c r="I82">
         <v>1234.65072835</v>
@@ -32561,7 +32561,7 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>1968.22778182</v>
+        <v>2595.95178182</v>
       </c>
       <c r="AB82">
         <v>1000</v>
@@ -32590,7 +32590,7 @@
         <v>4248.02838189</v>
       </c>
       <c r="H83">
-        <v>2025.03034182</v>
+        <v>2673.64018182</v>
       </c>
       <c r="I83">
         <v>1233.53087392</v>
@@ -32647,7 +32647,7 @@
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>2025.03034182</v>
+        <v>2673.64018182</v>
       </c>
       <c r="AB83">
         <v>1000</v>
@@ -32676,7 +32676,7 @@
         <v>4401.80107352</v>
       </c>
       <c r="H84">
-        <v>1871.65370182</v>
+        <v>2463.60458182</v>
       </c>
       <c r="I84">
         <v>1232.4110195</v>
@@ -32733,7 +32733,7 @@
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>1871.65370182</v>
+        <v>2463.60458182</v>
       </c>
       <c r="AB84">
         <v>1000</v>
@@ -32762,7 +32762,7 @@
         <v>4005.69540668</v>
       </c>
       <c r="H85">
-        <v>1879.98586182</v>
+        <v>2475.27778182</v>
       </c>
       <c r="I85">
         <v>1231.4137096</v>
@@ -32819,7 +32819,7 @@
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>1879.98586182</v>
+        <v>2475.27778182</v>
       </c>
       <c r="AB85">
         <v>1000</v>
@@ -32848,7 +32848,7 @@
         <v>4105.39755379</v>
       </c>
       <c r="H86">
-        <v>1936.31802182</v>
+        <v>2546.95098182</v>
       </c>
       <c r="I86">
         <v>1230.4163997</v>
@@ -32905,7 +32905,7 @@
         <v>0</v>
       </c>
       <c r="AA86">
-        <v>1936.31802182</v>
+        <v>2546.95098182</v>
       </c>
       <c r="AB86">
         <v>1000</v>
@@ -32934,7 +32934,7 @@
         <v>4304.00204115</v>
       </c>
       <c r="H87">
-        <v>2024.65018182</v>
+        <v>2658.62418182</v>
       </c>
       <c r="I87">
         <v>1230.51674955</v>
@@ -32991,7 +32991,7 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>2024.65018182</v>
+        <v>2658.62418182</v>
       </c>
       <c r="AB87">
         <v>1000</v>
@@ -33020,7 +33020,7 @@
         <v>3902.60652851</v>
       </c>
       <c r="H88">
-        <v>1965.78234182</v>
+        <v>2586.29738182</v>
       </c>
       <c r="I88">
         <v>1230.6170994</v>
@@ -33077,7 +33077,7 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>1965.78234182</v>
+        <v>2586.29738182</v>
       </c>
       <c r="AB88">
         <v>1000</v>
@@ -33106,7 +33106,7 @@
         <v>3651.41924177</v>
       </c>
       <c r="H89">
-        <v>1986.91450182</v>
+        <v>2613.97058182</v>
       </c>
       <c r="I89">
         <v>1230.50922335</v>
@@ -33163,7 +33163,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>1986.91450182</v>
+        <v>2613.97058182</v>
       </c>
       <c r="AB89">
         <v>1000</v>
@@ -33192,7 +33192,7 @@
         <v>4525.23195503</v>
       </c>
       <c r="H90">
-        <v>2008.04666182</v>
+        <v>2641.64378182</v>
       </c>
       <c r="I90">
         <v>605.4013473</v>
@@ -33249,7 +33249,7 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>2008.04666182</v>
+        <v>2641.64378182</v>
       </c>
       <c r="AB90">
         <v>1000</v>
@@ -33278,7 +33278,7 @@
         <v>5473.81001698</v>
       </c>
       <c r="H91">
-        <v>2029.17882182</v>
+        <v>2669.31698182</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -33335,7 +33335,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>2029.17882182</v>
+        <v>2669.31698182</v>
       </c>
       <c r="AB91">
         <v>1000</v>
@@ -33364,7 +33364,7 @@
         <v>5811.07228947</v>
       </c>
       <c r="H92">
-        <v>2146.31098182</v>
+        <v>2816.99018182</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -33421,7 +33421,7 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>2146.31098182</v>
+        <v>2816.99018182</v>
       </c>
       <c r="AB92">
         <v>1000</v>
@@ -33450,7 +33450,7 @@
         <v>5434.738107</v>
       </c>
       <c r="H93">
-        <v>2167.91938182</v>
+        <v>2845.13962182</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -33501,13 +33501,13 @@
         <v>303.018084337</v>
       </c>
       <c r="Y93">
-        <v>0.380992000008</v>
+        <v>0.3809920000088</v>
       </c>
       <c r="Z93">
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>2167.91938182</v>
+        <v>2845.13962182</v>
       </c>
       <c r="AB93">
         <v>1000</v>
@@ -33536,7 +33536,7 @@
         <v>5058.57094079</v>
       </c>
       <c r="H94">
-        <v>2108.57530182</v>
+        <v>2772.33658182</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -33593,7 +33593,7 @@
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>2108.57530182</v>
+        <v>2772.33658182</v>
       </c>
       <c r="AB94">
         <v>1000</v>
@@ -33622,7 +33622,7 @@
         <v>5153.1659108</v>
       </c>
       <c r="H95">
-        <v>2233.32978182</v>
+        <v>2923.63210182</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -33679,7 +33679,7 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>2233.32978182</v>
+        <v>2923.63210182</v>
       </c>
       <c r="AB95">
         <v>1000</v>
@@ -33708,7 +33708,7 @@
         <v>5196.36673131</v>
       </c>
       <c r="H96">
-        <v>2366.03498182</v>
+        <v>3082.87834182</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -33765,7 +33765,7 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>2366.03498182</v>
+        <v>3082.87834182</v>
       </c>
       <c r="AB96">
         <v>1000</v>
@@ -33794,7 +33794,7 @@
         <v>5243.04224941</v>
       </c>
       <c r="H97">
-        <v>2398.74018182</v>
+        <v>3122.12458182</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -33851,7 +33851,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>2398.74018182</v>
+        <v>3122.12458182</v>
       </c>
       <c r="AB97">
         <v>1000</v>
@@ -33976,7 +33976,7 @@
         <v>6598.81410477</v>
       </c>
       <c r="H2">
-        <v>3646.21698909</v>
+        <v>4370.89850909</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -34033,7 +34033,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>3646.21698909</v>
+        <v>4370.89850909</v>
       </c>
       <c r="AB2">
         <v>1000</v>
@@ -34062,7 +34062,7 @@
         <v>6124.08120552</v>
       </c>
       <c r="H3">
-        <v>3669.84098909</v>
+        <v>4399.92250909</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -34119,7 +34119,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>3669.84098909</v>
+        <v>4399.92250909</v>
       </c>
       <c r="AB3">
         <v>1000</v>
@@ -34148,7 +34148,7 @@
         <v>5649.34830626</v>
       </c>
       <c r="H4">
-        <v>3693.46498909</v>
+        <v>4428.94650909</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>3693.46498909</v>
+        <v>4428.94650909</v>
       </c>
       <c r="AB4">
         <v>1000</v>
@@ -34234,7 +34234,7 @@
         <v>6374.87732005</v>
       </c>
       <c r="H5">
-        <v>3717.08898909</v>
+        <v>4457.97050909</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -34291,7 +34291,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>3717.08898909</v>
+        <v>4457.97050909</v>
       </c>
       <c r="AB5">
         <v>1000</v>
@@ -34320,7 +34320,7 @@
         <v>7100.40633384</v>
       </c>
       <c r="H6">
-        <v>3720.71298909</v>
+        <v>4466.99450909</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -34377,7 +34377,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>3720.71298909</v>
+        <v>4466.99450909</v>
       </c>
       <c r="AB6">
         <v>1000</v>
@@ -34406,7 +34406,7 @@
         <v>6875.90908939</v>
       </c>
       <c r="H7">
-        <v>3734.33698909</v>
+        <v>4486.01850909</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -34463,7 +34463,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>3734.33698909</v>
+        <v>4486.01850909</v>
       </c>
       <c r="AB7">
         <v>1000</v>
@@ -34492,7 +34492,7 @@
         <v>6651.41184493</v>
       </c>
       <c r="H8">
-        <v>3747.96098909</v>
+        <v>4505.04250909</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>3747.96098909</v>
+        <v>4505.04250909</v>
       </c>
       <c r="AB8">
         <v>1000</v>
@@ -34578,7 +34578,7 @@
         <v>6619.43717922</v>
       </c>
       <c r="H9">
-        <v>3643.58498909</v>
+        <v>4374.06650909</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -34635,7 +34635,7 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>3643.58498909</v>
+        <v>4374.06650909</v>
       </c>
       <c r="AB9">
         <v>1000</v>
@@ -34664,7 +34664,7 @@
         <v>6629.55258674</v>
       </c>
       <c r="H10">
-        <v>3593.20898909</v>
+        <v>4313.09050909</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -34721,7 +34721,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>3593.20898909</v>
+        <v>4313.09050909</v>
       </c>
       <c r="AB10">
         <v>1000</v>
@@ -34750,7 +34750,7 @@
         <v>6717.61703342</v>
       </c>
       <c r="H11">
-        <v>3558.83298909</v>
+        <v>4272.11450909</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -34807,7 +34807,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>3558.83298909</v>
+        <v>4272.11450909</v>
       </c>
       <c r="AB11">
         <v>1000</v>
@@ -34836,7 +34836,7 @@
         <v>6690.06535177</v>
       </c>
       <c r="H12">
-        <v>3512.45698909</v>
+        <v>4211.13850909</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -34893,7 +34893,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>3512.45698909</v>
+        <v>4211.13850909</v>
       </c>
       <c r="AB12">
         <v>1000</v>
@@ -34922,7 +34922,7 @@
         <v>6899.76513708</v>
       </c>
       <c r="H13">
-        <v>3436.08098909</v>
+        <v>4120.16250909</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -34979,7 +34979,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>3436.08098909</v>
+        <v>4120.16250909</v>
       </c>
       <c r="AB13">
         <v>1000</v>
@@ -35008,7 +35008,7 @@
         <v>7309.46492238</v>
       </c>
       <c r="H14">
-        <v>3449.70498909</v>
+        <v>4139.18650909</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -35065,7 +35065,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>3449.70498909</v>
+        <v>4139.18650909</v>
       </c>
       <c r="AB14">
         <v>1000</v>
@@ -35094,7 +35094,7 @@
         <v>6864.19239331</v>
       </c>
       <c r="H15">
-        <v>3375.17898909</v>
+        <v>4050.06050909</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -35151,7 +35151,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>3375.17898909</v>
+        <v>4050.06050909</v>
       </c>
       <c r="AB15">
         <v>1000</v>
@@ -35180,7 +35180,7 @@
         <v>6590.83846889</v>
       </c>
       <c r="H16">
-        <v>3458.75298909</v>
+        <v>4159.03450909</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -35237,7 +35237,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>3458.75298909</v>
+        <v>4159.03450909</v>
       </c>
       <c r="AB16">
         <v>1000</v>
@@ -35266,7 +35266,7 @@
         <v>7084.32779146</v>
       </c>
       <c r="H17">
-        <v>3467.49850909</v>
+        <v>4173.18002909</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -35317,13 +35317,13 @@
         <v>1001.3010686</v>
       </c>
       <c r="Y17">
-        <v>4.137216</v>
+        <v>4.137216000008</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>3467.49850909</v>
+        <v>4173.18002909</v>
       </c>
       <c r="AB17">
         <v>1000</v>
@@ -35352,7 +35352,7 @@
         <v>6827.9478401</v>
       </c>
       <c r="H18">
-        <v>3494.49850909</v>
+        <v>4205.58002909</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>3494.49850909</v>
+        <v>4205.58002909</v>
       </c>
       <c r="AB18">
         <v>1000</v>
@@ -35438,7 +35438,7 @@
         <v>6836.55053989</v>
       </c>
       <c r="H19">
-        <v>3521.49850909</v>
+        <v>4237.98002909</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>3521.49850909</v>
+        <v>4237.98002909</v>
       </c>
       <c r="AB19">
         <v>1000</v>
@@ -35524,7 +35524,7 @@
         <v>6170.20858852</v>
       </c>
       <c r="H20">
-        <v>3528.49850909</v>
+        <v>4246.38002909</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -35581,7 +35581,7 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>3528.49850909</v>
+        <v>4246.38002909</v>
       </c>
       <c r="AB20">
         <v>1000</v>
@@ -35610,7 +35610,7 @@
         <v>6124.72437324</v>
       </c>
       <c r="H21">
-        <v>3475.49850909</v>
+        <v>4182.78002909</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>3475.49850909</v>
+        <v>4182.78002909</v>
       </c>
       <c r="AB21">
         <v>1000</v>
@@ -35696,7 +35696,7 @@
         <v>6076.43457658</v>
       </c>
       <c r="H22">
-        <v>3502.49850909</v>
+        <v>4215.18002909</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -35753,7 +35753,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>3502.49850909</v>
+        <v>4215.18002909</v>
       </c>
       <c r="AB22">
         <v>1000</v>
@@ -35782,7 +35782,7 @@
         <v>5824.56167394</v>
       </c>
       <c r="H23">
-        <v>3429.49850909</v>
+        <v>4127.58002909</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -35839,7 +35839,7 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>3429.49850909</v>
+        <v>4127.58002909</v>
       </c>
       <c r="AB23">
         <v>1000</v>
@@ -35868,7 +35868,7 @@
         <v>5569.88318991</v>
       </c>
       <c r="H24">
-        <v>3456.49850909</v>
+        <v>4159.98002909</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -35925,7 +35925,7 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>3456.49850909</v>
+        <v>4159.98002909</v>
       </c>
       <c r="AB24">
         <v>1000</v>
@@ -35954,7 +35954,7 @@
         <v>5720.26617518</v>
       </c>
       <c r="H25">
-        <v>3383.49850909</v>
+        <v>4072.38002909</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -36011,7 +36011,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>3383.49850909</v>
+        <v>4072.38002909</v>
       </c>
       <c r="AB25">
         <v>1000</v>
@@ -36040,7 +36040,7 @@
         <v>5867.14218371</v>
       </c>
       <c r="H26">
-        <v>3410.49850909</v>
+        <v>4104.78002909</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -36097,7 +36097,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>3410.49850909</v>
+        <v>4104.78002909</v>
       </c>
       <c r="AB26">
         <v>1000</v>
@@ -36126,7 +36126,7 @@
         <v>5759.24314549</v>
       </c>
       <c r="H27">
-        <v>3337.49850909</v>
+        <v>4017.18002909</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -36183,7 +36183,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>3337.49850909</v>
+        <v>4017.18002909</v>
       </c>
       <c r="AB27">
         <v>1000</v>
@@ -36212,7 +36212,7 @@
         <v>5650.31761519</v>
       </c>
       <c r="H28">
-        <v>3264.49850909</v>
+        <v>3929.58002909</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -36269,7 +36269,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>3264.49850909</v>
+        <v>3929.58002909</v>
       </c>
       <c r="AB28">
         <v>1000</v>
@@ -36298,7 +36298,7 @@
         <v>5622.34742217</v>
       </c>
       <c r="H29">
-        <v>3291.49850909</v>
+        <v>3961.98002909</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>3291.49850909</v>
+        <v>3961.98002909</v>
       </c>
       <c r="AB29">
         <v>1000</v>
@@ -36384,7 +36384,7 @@
         <v>5594.37722909</v>
       </c>
       <c r="H30">
-        <v>3318.49850909</v>
+        <v>3994.38002909</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -36441,7 +36441,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>3318.49850909</v>
+        <v>3994.38002909</v>
       </c>
       <c r="AB30">
         <v>1000</v>
@@ -36470,7 +36470,7 @@
         <v>5854.1792177</v>
       </c>
       <c r="H31">
-        <v>3245.49850909</v>
+        <v>3906.78002909</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -36527,7 +36527,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>3245.49850909</v>
+        <v>3906.78002909</v>
       </c>
       <c r="AB31">
         <v>1000</v>
@@ -36556,7 +36556,7 @@
         <v>6134.89283422</v>
       </c>
       <c r="H32">
-        <v>3272.49850909</v>
+        <v>3939.18002909</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>3272.49850909</v>
+        <v>3939.18002909</v>
       </c>
       <c r="AB32">
         <v>1000</v>
@@ -36642,7 +36642,7 @@
         <v>6218.59669149</v>
       </c>
       <c r="H33">
-        <v>3299.49850909</v>
+        <v>3971.58002909</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -36699,7 +36699,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>3299.49850909</v>
+        <v>3971.58002909</v>
       </c>
       <c r="AB33">
         <v>1000</v>
@@ -36728,7 +36728,7 @@
         <v>5005.80752561</v>
       </c>
       <c r="H34">
-        <v>2617.4076</v>
+        <v>3274.88912</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -36785,7 +36785,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>2617.4076</v>
+        <v>3274.88912</v>
       </c>
       <c r="AB34">
         <v>1000</v>
@@ -36814,7 +36814,7 @@
         <v>3922.19834642</v>
       </c>
       <c r="H35">
-        <v>1996.22578182</v>
+        <v>2639.10730182</v>
       </c>
       <c r="I35">
         <v>195.68059635</v>
@@ -36871,7 +36871,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>1996.22578182</v>
+        <v>2639.10730182</v>
       </c>
       <c r="AB35">
         <v>1000</v>
@@ -36900,7 +36900,7 @@
         <v>3938.43558594</v>
       </c>
       <c r="H36">
-        <v>1923.22578182</v>
+        <v>2551.50730182</v>
       </c>
       <c r="I36">
         <v>212.6626359</v>
@@ -36957,7 +36957,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>1923.22578182</v>
+        <v>2551.50730182</v>
       </c>
       <c r="AB36">
         <v>1000</v>
@@ -36986,7 +36986,7 @@
         <v>4216.54426087</v>
       </c>
       <c r="H37">
-        <v>1861.02426182</v>
+        <v>2474.70578182</v>
       </c>
       <c r="I37">
         <v>220.6708089</v>
@@ -37043,7 +37043,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>1861.02426182</v>
+        <v>2474.70578182</v>
       </c>
       <c r="AB37">
         <v>1000</v>
@@ -37072,7 +37072,7 @@
         <v>4271.42598423</v>
       </c>
       <c r="H38">
-        <v>1977.22578182</v>
+        <v>2616.30730182</v>
       </c>
       <c r="I38">
         <v>228.6789818</v>
@@ -37129,7 +37129,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>1977.22578182</v>
+        <v>2616.30730182</v>
       </c>
       <c r="AB38">
         <v>1000</v>
@@ -37158,7 +37158,7 @@
         <v>4245.62911116</v>
       </c>
       <c r="H39">
-        <v>2062.32018182</v>
+        <v>2718.42058182</v>
       </c>
       <c r="I39">
         <v>243.2988001</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>2062.32018182</v>
+        <v>2718.42058182</v>
       </c>
       <c r="AB39">
         <v>1000</v>
@@ -37244,7 +37244,7 @@
         <v>4349.17021927</v>
       </c>
       <c r="H40">
-        <v>2029.09018182</v>
+        <v>2678.54458182</v>
       </c>
       <c r="I40">
         <v>257.9186185</v>
@@ -37301,7 +37301,7 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>2029.09018182</v>
+        <v>2678.54458182</v>
       </c>
       <c r="AB40">
         <v>1000</v>
@@ -37330,7 +37330,7 @@
         <v>4175.00478525</v>
       </c>
       <c r="H41">
-        <v>2195.86018182</v>
+        <v>2878.66858182</v>
       </c>
       <c r="I41">
         <v>268.6624674</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>2195.86018182</v>
+        <v>2878.66858182</v>
       </c>
       <c r="AB41">
         <v>1000</v>
@@ -37416,7 +37416,7 @@
         <v>4251.78074658</v>
       </c>
       <c r="H42">
-        <v>2362.63018182</v>
+        <v>3078.79258182</v>
       </c>
       <c r="I42">
         <v>279.4063163</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>2362.63018182</v>
+        <v>3078.79258182</v>
       </c>
       <c r="AB42">
         <v>1000</v>
@@ -37502,7 +37502,7 @@
         <v>4430.9264938</v>
       </c>
       <c r="H43">
-        <v>2529.40018182</v>
+        <v>3278.91658182</v>
       </c>
       <c r="I43">
         <v>286.75172815</v>
@@ -37559,7 +37559,7 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>2529.40018182</v>
+        <v>3278.91658182</v>
       </c>
       <c r="AB43">
         <v>1000</v>
@@ -37588,7 +37588,7 @@
         <v>4818.68950011</v>
       </c>
       <c r="H44">
-        <v>2500.45258182</v>
+        <v>3244.17946182</v>
       </c>
       <c r="I44">
         <v>294.09714</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>2500.45258182</v>
+        <v>3244.17946182</v>
       </c>
       <c r="AB44">
         <v>1000</v>
@@ -37674,7 +37674,7 @@
         <v>4557.17687128</v>
       </c>
       <c r="H45">
-        <v>2671.08450182</v>
+        <v>3446.49768182</v>
       </c>
       <c r="I45">
         <v>296.11326825</v>
@@ -37731,7 +37731,7 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>2671.08450182</v>
+        <v>3446.49768182</v>
       </c>
       <c r="AB45">
         <v>1000</v>
@@ -37760,7 +37760,7 @@
         <v>4483.58909729</v>
       </c>
       <c r="H46">
-        <v>2817.31558182</v>
+        <v>3624.41506182</v>
       </c>
       <c r="I46">
         <v>298.1293965</v>
@@ -37817,7 +37817,7 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>2817.31558182</v>
+        <v>3624.41506182</v>
       </c>
       <c r="AB46">
         <v>1000</v>
@@ -37846,7 +37846,7 @@
         <v>4804.62002543</v>
       </c>
       <c r="H47">
-        <v>2975.74708182</v>
+        <v>3814.53286182</v>
       </c>
       <c r="I47">
         <v>304.8120885</v>
@@ -37903,7 +37903,7 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>2975.74708182</v>
+        <v>3814.53286182</v>
       </c>
       <c r="AB47">
         <v>1000</v>
@@ -37932,7 +37932,7 @@
         <v>4725.65095357</v>
       </c>
       <c r="H48">
-        <v>3134.17858182</v>
+        <v>4004.65066182</v>
       </c>
       <c r="I48">
         <v>311.4947805</v>
@@ -37989,7 +37989,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>3134.17858182</v>
+        <v>4004.65066182</v>
       </c>
       <c r="AB48">
         <v>1000</v>
@@ -38018,7 +38018,7 @@
         <v>4603.63798739</v>
       </c>
       <c r="H49">
-        <v>3292.61008182</v>
+        <v>4194.76846182</v>
       </c>
       <c r="I49">
         <v>318.9141817</v>
@@ -38075,7 +38075,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>3292.61008182</v>
+        <v>4194.76846182</v>
       </c>
       <c r="AB49">
         <v>1000</v>
@@ -38104,7 +38104,7 @@
         <v>4463.13576577</v>
       </c>
       <c r="H50">
-        <v>3978.25510182</v>
+        <v>5017.54248582</v>
       </c>
       <c r="I50">
         <v>326.3335828</v>
@@ -38161,7 +38161,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>3978.25510182</v>
+        <v>5017.54248582</v>
       </c>
       <c r="AB50">
         <v>1000</v>
@@ -38190,7 +38190,7 @@
         <v>4322.29385339</v>
       </c>
       <c r="H51">
-        <v>4094.76766182</v>
+        <v>5157.35755782</v>
       </c>
       <c r="I51">
         <v>327.3638722</v>
@@ -38247,7 +38247,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>4094.76766182</v>
+        <v>5157.35755782</v>
       </c>
       <c r="AB51">
         <v>1000</v>
@@ -38276,7 +38276,7 @@
         <v>4174.43798751</v>
       </c>
       <c r="H52">
-        <v>4211.28022182</v>
+        <v>5297.17262982</v>
       </c>
       <c r="I52">
         <v>328.3941616</v>
@@ -38333,7 +38333,7 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>4211.28022182</v>
+        <v>5297.17262982</v>
       </c>
       <c r="AB52">
         <v>1000</v>
@@ -38362,7 +38362,7 @@
         <v>4281.7266067</v>
       </c>
       <c r="H53">
-        <v>4327.79278182</v>
+        <v>5436.98770182</v>
       </c>
       <c r="I53">
         <v>328.359253</v>
@@ -38419,7 +38419,7 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>4327.79278182</v>
+        <v>5436.98770182</v>
       </c>
       <c r="AB53">
         <v>1000</v>
@@ -38448,7 +38448,7 @@
         <v>4287.75271437</v>
       </c>
       <c r="H54">
-        <v>4444.30534182</v>
+        <v>5576.80277382</v>
       </c>
       <c r="I54">
         <v>328.3243443</v>
@@ -38505,7 +38505,7 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>4444.30534182</v>
+        <v>5576.80277382</v>
       </c>
       <c r="AB54">
         <v>1000</v>
@@ -38534,7 +38534,7 @@
         <v>4347.22744317</v>
       </c>
       <c r="H55">
-        <v>4560.81790182</v>
+        <v>5716.61784582</v>
       </c>
       <c r="I55">
         <v>324.834954</v>
@@ -38591,7 +38591,7 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>4560.81790182</v>
+        <v>5716.61784582</v>
       </c>
       <c r="AB55">
         <v>1000</v>
@@ -38620,7 +38620,7 @@
         <v>4406.70217207</v>
       </c>
       <c r="H56">
-        <v>4677.33046182</v>
+        <v>5856.43291782</v>
       </c>
       <c r="I56">
         <v>321.3455636</v>
@@ -38677,7 +38677,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>4677.33046182</v>
+        <v>5856.43291782</v>
       </c>
       <c r="AB56">
         <v>1000</v>
@@ -38706,7 +38706,7 @@
         <v>3792.77317305</v>
       </c>
       <c r="H57">
-        <v>4793.84302182</v>
+        <v>5996.24798982</v>
       </c>
       <c r="I57">
         <v>934.46762205</v>
@@ -38763,7 +38763,7 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>4793.84302182</v>
+        <v>5996.24798982</v>
       </c>
       <c r="AB57">
         <v>1000</v>
@@ -38792,7 +38792,7 @@
         <v>3656.55504063</v>
       </c>
       <c r="H58">
-        <v>4910.35558182</v>
+        <v>6136.06306182</v>
       </c>
       <c r="I58">
         <v>1547.5896805</v>
@@ -38849,7 +38849,7 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>4910.35558182</v>
+        <v>6136.06306182</v>
       </c>
       <c r="AB58">
         <v>1000</v>
@@ -38878,7 +38878,7 @@
         <v>3715.32908243</v>
       </c>
       <c r="H59">
-        <v>5026.86814182</v>
+        <v>6275.87813382</v>
       </c>
       <c r="I59">
         <v>1542.79416195</v>
@@ -38935,7 +38935,7 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>5026.86814182</v>
+        <v>6275.87813382</v>
       </c>
       <c r="AB59">
         <v>1000</v>
@@ -38964,7 +38964,7 @@
         <v>3772.7403314</v>
       </c>
       <c r="H60">
-        <v>5020.24018182</v>
+        <v>6267.92458182</v>
       </c>
       <c r="I60">
         <v>1537.9986433</v>
@@ -39021,7 +39021,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>5020.24018182</v>
+        <v>6267.92458182</v>
       </c>
       <c r="AB60">
         <v>1000</v>
@@ -39050,7 +39050,7 @@
         <v>3951.29275918</v>
       </c>
       <c r="H61">
-        <v>5013.61222182</v>
+        <v>6259.97102982</v>
       </c>
       <c r="I61">
         <v>1516.58460035</v>
@@ -39107,7 +39107,7 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>5013.61222182</v>
+        <v>6259.97102982</v>
       </c>
       <c r="AB61">
         <v>1000</v>
@@ -39136,7 +39136,7 @@
         <v>4036.85914055</v>
       </c>
       <c r="H62">
-        <v>5006.98426182</v>
+        <v>6252.01747782</v>
       </c>
       <c r="I62">
         <v>1495.1705573</v>
@@ -39193,7 +39193,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>5006.98426182</v>
+        <v>6252.01747782</v>
       </c>
       <c r="AB62">
         <v>1000</v>
@@ -39222,7 +39222,7 @@
         <v>4121.01780813</v>
       </c>
       <c r="H63">
-        <v>5000.35630182</v>
+        <v>6244.06392582</v>
       </c>
       <c r="I63">
         <v>1479.27287845</v>
@@ -39279,7 +39279,7 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>5000.35630182</v>
+        <v>6244.06392582</v>
       </c>
       <c r="AB63">
         <v>1000</v>
@@ -39308,7 +39308,7 @@
         <v>4194.65554559</v>
       </c>
       <c r="H64">
-        <v>4993.72834182</v>
+        <v>6236.11037382</v>
       </c>
       <c r="I64">
         <v>1463.3751995</v>
@@ -39365,7 +39365,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>4993.72834182</v>
+        <v>6236.11037382</v>
       </c>
       <c r="AB64">
         <v>1000</v>
@@ -39394,7 +39394,7 @@
         <v>4150.38074262</v>
       </c>
       <c r="H65">
-        <v>4987.10038182</v>
+        <v>6228.15682182</v>
       </c>
       <c r="I65">
         <v>1450.38907195</v>
@@ -39451,7 +39451,7 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>4987.10038182</v>
+        <v>6228.15682182</v>
       </c>
       <c r="AB65">
         <v>1000</v>
@@ -39480,7 +39480,7 @@
         <v>4106.10593975</v>
       </c>
       <c r="H66">
-        <v>4980.47242182</v>
+        <v>6220.20326982</v>
       </c>
       <c r="I66">
         <v>1437.4029443</v>
@@ -39537,7 +39537,7 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>4980.47242182</v>
+        <v>6220.20326982</v>
       </c>
       <c r="AB66">
         <v>1000</v>
@@ -39566,7 +39566,7 @@
         <v>4054.74605567</v>
       </c>
       <c r="H67">
-        <v>4973.84446182</v>
+        <v>6212.24971782</v>
       </c>
       <c r="I67">
         <v>1420.85275405</v>
@@ -39623,7 +39623,7 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>4973.84446182</v>
+        <v>6212.24971782</v>
       </c>
       <c r="AB67">
         <v>1000</v>
@@ -39652,7 +39652,7 @@
         <v>4013.90710171</v>
       </c>
       <c r="H68">
-        <v>4967.21650182</v>
+        <v>6204.29616582</v>
       </c>
       <c r="I68">
         <v>1404.3025639</v>
@@ -39709,7 +39709,7 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>4967.21650182</v>
+        <v>6204.29616582</v>
       </c>
       <c r="AB68">
         <v>1000</v>
@@ -39738,7 +39738,7 @@
         <v>2965.87982118</v>
       </c>
       <c r="H69">
-        <v>4960.58854182</v>
+        <v>6196.34261382</v>
       </c>
       <c r="I69">
         <v>1379.9265954</v>
@@ -39795,7 +39795,7 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>4960.58854182</v>
+        <v>6196.34261382</v>
       </c>
       <c r="AB69">
         <v>1000</v>
@@ -39824,7 +39824,7 @@
         <v>3358.63300577</v>
       </c>
       <c r="H70">
-        <v>4953.96058182</v>
+        <v>6188.38906182</v>
       </c>
       <c r="I70">
         <v>730.5506269</v>
@@ -39881,7 +39881,7 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>4953.96058182</v>
+        <v>6188.38906182</v>
       </c>
       <c r="AB70">
         <v>1000</v>
@@ -39910,7 +39910,7 @@
         <v>4216.98416982</v>
       </c>
       <c r="H71">
-        <v>4680.31498182</v>
+        <v>5860.01434182</v>
       </c>
       <c r="I71">
         <v>80.49037403</v>
@@ -39967,7 +39967,7 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>4680.31498182</v>
+        <v>5860.01434182</v>
       </c>
       <c r="AB71">
         <v>1000</v>
@@ -39996,7 +39996,7 @@
         <v>4460.85626412</v>
       </c>
       <c r="H72">
-        <v>4406.66938182</v>
+        <v>5531.63962182</v>
       </c>
       <c r="I72">
         <v>55.43012115</v>
@@ -40053,7 +40053,7 @@
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>4406.66938182</v>
+        <v>5531.63962182</v>
       </c>
       <c r="AB72">
         <v>1000</v>
@@ -40079,10 +40079,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G73">
-        <v>4866.28489065</v>
+        <v>5308.3645996</v>
       </c>
       <c r="H73">
-        <v>4142.67213636</v>
+        <v>5751.44672</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -40100,13 +40100,13 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>992.079708955</v>
+        <v>550</v>
       </c>
       <c r="O73">
-        <v>1208.533463636091</v>
+        <v>669.9999999999999</v>
       </c>
       <c r="P73">
-        <v>805.6889757573938</v>
+        <v>446.6666666666666</v>
       </c>
       <c r="Q73">
         <v>48.61932768</v>
@@ -40139,7 +40139,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA73">
-        <v>4142.67213636</v>
+        <v>5751.44672</v>
       </c>
       <c r="AB73">
         <v>1000</v>
@@ -40165,10 +40165,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>6152.53883248</v>
+        <v>6521.94303796</v>
       </c>
       <c r="H74">
-        <v>3811.34394545</v>
+        <v>3929.31924945</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -40186,22 +40186,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>492.079708955</v>
+        <v>50</v>
       </c>
       <c r="O74">
-        <v>599.4425545451817</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P74">
-        <v>399.6283696967878</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q74">
         <v>37.6022046</v>
       </c>
       <c r="R74">
-        <v>486.753488372</v>
+        <v>409.644200863</v>
       </c>
       <c r="S74">
-        <v>2093.0399999996</v>
+        <v>1761.4700637109</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -40219,16 +40219,16 @@
         <v>995.3639666179999</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>331.5699362912001</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA74">
-        <v>3811.34394545</v>
+        <v>3929.31924945</v>
       </c>
       <c r="AB74">
-        <v>3811.343945454544</v>
+        <v>3929.319249454544</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -40251,10 +40251,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>5836.32808918</v>
+        <v>6243.25065177</v>
       </c>
       <c r="H75">
-        <v>3587.06889545</v>
+        <v>3705.04419945</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -40272,22 +40272,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>521.943210821</v>
+        <v>50</v>
       </c>
       <c r="O75">
-        <v>635.8217295455817</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P75">
-        <v>423.8811530303878</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q75">
         <v>27.74133405</v>
       </c>
       <c r="R75">
-        <v>480.295813953</v>
+        <v>411.30838877</v>
       </c>
       <c r="S75">
-        <v>2065.2719999979</v>
+        <v>1768.626071711</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -40305,16 +40305,16 @@
         <v>993.373238685</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>296.6459282912001</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA75">
-        <v>3587.06889545</v>
+        <v>3705.04419945</v>
       </c>
       <c r="AB75">
-        <v>3587.068895454544</v>
+        <v>3705.044199454544</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -40337,10 +40337,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>5185.45942103</v>
+        <v>5629.90034072</v>
       </c>
       <c r="H76">
-        <v>3362.79384545</v>
+        <v>3480.76914945</v>
       </c>
       <c r="I76">
         <v>10.2639128</v>
@@ -40358,22 +40358,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>551.806712687</v>
+        <v>50</v>
       </c>
       <c r="O76">
-        <v>672.2009045459816</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P76">
-        <v>448.1339363639878</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q76">
         <v>17.8804635</v>
       </c>
       <c r="R76">
-        <v>473.838139535</v>
+        <v>412.972576677</v>
       </c>
       <c r="S76">
-        <v>2037.5040000005</v>
+        <v>1775.7820797111</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -40391,16 +40391,16 @@
         <v>991.3864922069999</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>261.7219202912</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA76">
-        <v>3362.79384545</v>
+        <v>3480.76914945</v>
       </c>
       <c r="AB76">
-        <v>3362.793845454544</v>
+        <v>3480.769149454544</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -40423,10 +40423,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>5037.32355729</v>
+        <v>4973.15978969</v>
       </c>
       <c r="H77">
-        <v>3138.51879545</v>
+        <v>3256.49409945</v>
       </c>
       <c r="I77">
         <v>628.6586002499999</v>
@@ -40444,22 +40444,22 @@
         <v>625</v>
       </c>
       <c r="N77">
-        <v>581.6702145519999</v>
+        <v>500</v>
       </c>
       <c r="O77">
-        <v>708.5800795451634</v>
+        <v>609.0909090909089</v>
       </c>
       <c r="P77">
-        <v>472.3867196967756</v>
+        <v>406.060606060606</v>
       </c>
       <c r="Q77">
         <v>12.8889432</v>
       </c>
       <c r="R77">
-        <v>450.145116279</v>
+        <v>295.414100736</v>
       </c>
       <c r="S77">
-        <v>1935.6239999997</v>
+        <v>1270.2806331648</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -40477,16 +40477,16 @@
         <v>989.4037192230001</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>665.3433668360001</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="AA77">
-        <v>3138.51879545</v>
+        <v>3256.49409945</v>
       </c>
       <c r="AB77">
-        <v>3138.518795454544</v>
+        <v>3256.494099454544</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -40512,7 +40512,7 @@
         <v>3872.4028998</v>
       </c>
       <c r="H78">
-        <v>2470.60738182</v>
+        <v>3208.36522182</v>
       </c>
       <c r="I78">
         <v>1247.0532877</v>
@@ -40569,7 +40569,7 @@
         <v>-2.27373675443e-13</v>
       </c>
       <c r="AA78">
-        <v>2470.60738182</v>
+        <v>3208.36522182</v>
       </c>
       <c r="AB78">
         <v>1000</v>
@@ -40598,7 +40598,7 @@
         <v>4055.4760231</v>
       </c>
       <c r="H79">
-        <v>2249.98870182</v>
+        <v>2942.89153182</v>
       </c>
       <c r="I79">
         <v>1242.3279769</v>
@@ -40655,7 +40655,7 @@
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>2249.98870182</v>
+        <v>2942.89153182</v>
       </c>
       <c r="AB79">
         <v>1000</v>
@@ -40684,7 +40684,7 @@
         <v>3878.32365948</v>
       </c>
       <c r="H80">
-        <v>2085.00466182</v>
+        <v>2733.05248182</v>
       </c>
       <c r="I80">
         <v>1237.6026661</v>
@@ -40741,7 +40741,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>2085.00466182</v>
+        <v>2733.05248182</v>
       </c>
       <c r="AB80">
         <v>1000</v>
@@ -40770,10 +40770,10 @@
         <v>3938.03386091</v>
       </c>
       <c r="H81">
-        <v>1878.84382182</v>
+        <v>2482.03663182</v>
       </c>
       <c r="I81">
-        <v>1236.12669723</v>
+        <v>1236.12669722</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -40827,7 +40827,7 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>1878.84382182</v>
+        <v>2482.03663182</v>
       </c>
       <c r="AB81">
         <v>1000</v>
@@ -40856,7 +40856,7 @@
         <v>4042.58150855</v>
       </c>
       <c r="H82">
-        <v>1968.22778182</v>
+        <v>2595.95178182</v>
       </c>
       <c r="I82">
         <v>1234.65072835</v>
@@ -40913,7 +40913,7 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>1968.22778182</v>
+        <v>2595.95178182</v>
       </c>
       <c r="AB82">
         <v>1000</v>
@@ -40942,7 +40942,7 @@
         <v>4248.02838189</v>
       </c>
       <c r="H83">
-        <v>2025.03034182</v>
+        <v>2673.64018182</v>
       </c>
       <c r="I83">
         <v>1233.53087392</v>
@@ -40999,7 +40999,7 @@
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>2025.03034182</v>
+        <v>2673.64018182</v>
       </c>
       <c r="AB83">
         <v>1000</v>
@@ -41028,7 +41028,7 @@
         <v>4401.80107352</v>
       </c>
       <c r="H84">
-        <v>1871.65370182</v>
+        <v>2463.60458182</v>
       </c>
       <c r="I84">
         <v>1232.4110195</v>
@@ -41085,7 +41085,7 @@
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>1871.65370182</v>
+        <v>2463.60458182</v>
       </c>
       <c r="AB84">
         <v>1000</v>
@@ -41114,7 +41114,7 @@
         <v>4005.69540668</v>
       </c>
       <c r="H85">
-        <v>1879.98586182</v>
+        <v>2475.27778182</v>
       </c>
       <c r="I85">
         <v>1231.4137096</v>
@@ -41171,7 +41171,7 @@
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>1879.98586182</v>
+        <v>2475.27778182</v>
       </c>
       <c r="AB85">
         <v>1000</v>
@@ -41200,7 +41200,7 @@
         <v>4105.39755379</v>
       </c>
       <c r="H86">
-        <v>1936.31802182</v>
+        <v>2546.95098182</v>
       </c>
       <c r="I86">
         <v>1230.4163997</v>
@@ -41257,7 +41257,7 @@
         <v>0</v>
       </c>
       <c r="AA86">
-        <v>1936.31802182</v>
+        <v>2546.95098182</v>
       </c>
       <c r="AB86">
         <v>1000</v>
@@ -41286,7 +41286,7 @@
         <v>4304.00204115</v>
       </c>
       <c r="H87">
-        <v>2024.65018182</v>
+        <v>2658.62418182</v>
       </c>
       <c r="I87">
         <v>1230.51674955</v>
@@ -41343,7 +41343,7 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>2024.65018182</v>
+        <v>2658.62418182</v>
       </c>
       <c r="AB87">
         <v>1000</v>
@@ -41372,7 +41372,7 @@
         <v>3902.60652851</v>
       </c>
       <c r="H88">
-        <v>1965.78234182</v>
+        <v>2586.29738182</v>
       </c>
       <c r="I88">
         <v>1230.6170994</v>
@@ -41429,7 +41429,7 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>1965.78234182</v>
+        <v>2586.29738182</v>
       </c>
       <c r="AB88">
         <v>1000</v>
@@ -41458,7 +41458,7 @@
         <v>3651.41924177</v>
       </c>
       <c r="H89">
-        <v>1986.91450182</v>
+        <v>2613.97058182</v>
       </c>
       <c r="I89">
         <v>1230.50922335</v>
@@ -41515,7 +41515,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>1986.91450182</v>
+        <v>2613.97058182</v>
       </c>
       <c r="AB89">
         <v>1000</v>
@@ -41544,7 +41544,7 @@
         <v>4525.23195503</v>
       </c>
       <c r="H90">
-        <v>2008.04666182</v>
+        <v>2641.64378182</v>
       </c>
       <c r="I90">
         <v>605.4013473</v>
@@ -41601,7 +41601,7 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>2008.04666182</v>
+        <v>2641.64378182</v>
       </c>
       <c r="AB90">
         <v>1000</v>
@@ -41630,7 +41630,7 @@
         <v>5473.81001698</v>
       </c>
       <c r="H91">
-        <v>2029.17882182</v>
+        <v>2669.31698182</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -41687,7 +41687,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>2029.17882182</v>
+        <v>2669.31698182</v>
       </c>
       <c r="AB91">
         <v>1000</v>
@@ -41716,7 +41716,7 @@
         <v>5811.07228947</v>
       </c>
       <c r="H92">
-        <v>2146.31098182</v>
+        <v>2816.99018182</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -41773,7 +41773,7 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>2146.31098182</v>
+        <v>2816.99018182</v>
       </c>
       <c r="AB92">
         <v>1000</v>
@@ -41802,7 +41802,7 @@
         <v>5434.738107</v>
       </c>
       <c r="H93">
-        <v>2167.91938182</v>
+        <v>2845.13962182</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -41853,13 +41853,13 @@
         <v>303.018084337</v>
       </c>
       <c r="Y93">
-        <v>0.380992000008</v>
+        <v>0.3809920000088</v>
       </c>
       <c r="Z93">
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>2167.91938182</v>
+        <v>2845.13962182</v>
       </c>
       <c r="AB93">
         <v>1000</v>
@@ -41888,7 +41888,7 @@
         <v>5058.57094079</v>
       </c>
       <c r="H94">
-        <v>2108.57530182</v>
+        <v>2772.33658182</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -41945,7 +41945,7 @@
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>2108.57530182</v>
+        <v>2772.33658182</v>
       </c>
       <c r="AB94">
         <v>1000</v>
@@ -41974,7 +41974,7 @@
         <v>5153.1659108</v>
       </c>
       <c r="H95">
-        <v>2233.32978182</v>
+        <v>2923.63210182</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -42031,7 +42031,7 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>2233.32978182</v>
+        <v>2923.63210182</v>
       </c>
       <c r="AB95">
         <v>1000</v>
@@ -42060,7 +42060,7 @@
         <v>5196.36673131</v>
       </c>
       <c r="H96">
-        <v>2366.03498182</v>
+        <v>3082.87834182</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -42117,7 +42117,7 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>2366.03498182</v>
+        <v>3082.87834182</v>
       </c>
       <c r="AB96">
         <v>1000</v>
@@ -42146,7 +42146,7 @@
         <v>5243.04224941</v>
       </c>
       <c r="H97">
-        <v>2398.74018182</v>
+        <v>3122.12458182</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -42203,7 +42203,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>2398.74018182</v>
+        <v>3122.12458182</v>
       </c>
       <c r="AB97">
         <v>1000</v>
